--- a/alumni_seminars.xlsx
+++ b/alumni_seminars.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minhe/wulibeida79/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB154DC0-E1D5-DE41-9428-002F86F90392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4FC6AE8-A084-024F-B21C-C4AAFF24EE46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8040" yWindow="1420" windowWidth="51200" windowHeight="26600" xr2:uid="{700D315C-D919-4596-880F-1F597F7C3FD0}"/>
+    <workbookView xWindow="6460" yWindow="2200" windowWidth="51200" windowHeight="26600" xr2:uid="{700D315C-D919-4596-880F-1F597F7C3FD0}"/>
   </bookViews>
   <sheets>
     <sheet name="alumni_seminars" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,22 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="669">
   <si>
     <t>贺敏</t>
   </si>
@@ -1973,9 +1983,6 @@
     <t>退休生活论坛（4）</t>
   </si>
   <si>
-    <t>马京昇 （Moderator）</t>
-  </si>
-  <si>
     <t>赵良，张之杭，李颖红，周中汉</t>
   </si>
   <si>
@@ -2034,13 +2041,22 @@
   </si>
   <si>
     <t>img/rock_climbing.jpg</t>
+  </si>
+  <si>
+    <t>马京昇 , 吴镭， 张之杭</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1MumJ_IiICBUodOfEF4eltzCy3WMhClVA/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/1d8KrxtHYfhcrGPgJhYQmyWVBy1dNUhrP/edit?usp=sharing&amp;ouid=118189640657796082890&amp;rtpof=true&amp;sd=true</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2615,11 +2631,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{125ED64C-CBBF-451D-8A64-D0747896E26B}">
   <dimension ref="A1:J143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="F142" sqref="F142"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="F137" sqref="F137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.5" customWidth="1"/>
@@ -2633,7 +2649,7 @@
     <col min="10" max="10" width="102.6640625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" ht="16">
+    <row r="1" spans="1:10" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>68</v>
       </c>
@@ -2665,7 +2681,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>44004</v>
       </c>
@@ -2685,7 +2701,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44015</v>
       </c>
@@ -2702,7 +2718,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44022</v>
       </c>
@@ -2719,7 +2735,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44029</v>
       </c>
@@ -2739,7 +2755,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>44036</v>
       </c>
@@ -2762,7 +2778,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="20"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>44043</v>
       </c>
@@ -2779,7 +2795,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>44050</v>
       </c>
@@ -2799,7 +2815,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>44057</v>
       </c>
@@ -2819,7 +2835,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>44071</v>
       </c>
@@ -2839,7 +2855,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>44078</v>
       </c>
@@ -2859,7 +2875,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>44085</v>
       </c>
@@ -2876,7 +2892,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>44092</v>
       </c>
@@ -2893,7 +2909,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>44099</v>
       </c>
@@ -2913,7 +2929,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>44106</v>
       </c>
@@ -2933,7 +2949,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>44113</v>
       </c>
@@ -2953,7 +2969,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>44120</v>
       </c>
@@ -2976,7 +2992,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>44127</v>
       </c>
@@ -2993,7 +3009,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>44134</v>
       </c>
@@ -3013,7 +3029,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="24" customHeight="1">
+    <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>44141</v>
       </c>
@@ -3030,7 +3046,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="12" customHeight="1">
+    <row r="21" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>44148</v>
       </c>
@@ -3053,7 +3069,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>44155</v>
       </c>
@@ -3076,7 +3092,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>44169</v>
       </c>
@@ -3093,7 +3109,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>44176</v>
       </c>
@@ -3119,7 +3135,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>44183</v>
       </c>
@@ -3136,7 +3152,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>44204</v>
       </c>
@@ -3159,7 +3175,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>44211</v>
       </c>
@@ -3176,7 +3192,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>44218</v>
       </c>
@@ -3196,7 +3212,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>44225</v>
       </c>
@@ -3223,7 +3239,7 @@
       </c>
       <c r="I29" s="20"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>44232</v>
       </c>
@@ -3243,7 +3259,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>44239</v>
       </c>
@@ -3266,7 +3282,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>44246</v>
       </c>
@@ -3289,7 +3305,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>44253</v>
       </c>
@@ -3312,7 +3328,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="18.5" customHeight="1">
+    <row r="34" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>44260</v>
       </c>
@@ -3341,7 +3357,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>44267</v>
       </c>
@@ -3367,7 +3383,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>44274</v>
       </c>
@@ -3390,7 +3406,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>44281</v>
       </c>
@@ -3416,7 +3432,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>44288</v>
       </c>
@@ -3442,7 +3458,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>44295</v>
       </c>
@@ -3468,7 +3484,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>44302</v>
       </c>
@@ -3494,7 +3510,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>44309</v>
       </c>
@@ -3520,7 +3536,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>44316</v>
       </c>
@@ -3546,7 +3562,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>44323</v>
       </c>
@@ -3563,7 +3579,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>44330</v>
       </c>
@@ -3589,7 +3605,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44337</v>
       </c>
@@ -3615,7 +3631,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="20" customHeight="1">
+    <row r="46" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44344</v>
       </c>
@@ -3635,7 +3651,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>44351</v>
       </c>
@@ -3661,7 +3677,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="10" customFormat="1">
+    <row r="48" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="9">
         <v>44365</v>
       </c>
@@ -3683,7 +3699,7 @@
       <c r="I48" s="21"/>
       <c r="J48" s="14"/>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>44371</v>
       </c>
@@ -3709,7 +3725,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>44378</v>
       </c>
@@ -3729,7 +3745,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>44385</v>
       </c>
@@ -3755,7 +3771,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>44392</v>
       </c>
@@ -3781,7 +3797,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>44399</v>
       </c>
@@ -3810,7 +3826,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>44406</v>
       </c>
@@ -3833,7 +3849,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="19" customHeight="1">
+    <row r="55" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>44413</v>
       </c>
@@ -3862,7 +3878,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>44427</v>
       </c>
@@ -3888,7 +3904,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>44441</v>
       </c>
@@ -3914,7 +3930,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>44455</v>
       </c>
@@ -3940,7 +3956,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="18" customHeight="1">
+    <row r="59" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>44463</v>
       </c>
@@ -3969,7 +3985,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>44469</v>
       </c>
@@ -3992,7 +4008,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>44483</v>
       </c>
@@ -4019,7 +4035,7 @@
       </c>
       <c r="I61" s="22"/>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>44490</v>
       </c>
@@ -4046,7 +4062,7 @@
       </c>
       <c r="I62" s="22"/>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>44498</v>
       </c>
@@ -4075,7 +4091,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="19" customHeight="1">
+    <row r="64" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>44505</v>
       </c>
@@ -4104,7 +4120,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>44512</v>
       </c>
@@ -4130,7 +4146,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>44518</v>
       </c>
@@ -4156,7 +4172,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>44532</v>
       </c>
@@ -4182,7 +4198,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>44540</v>
       </c>
@@ -4211,7 +4227,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>44546</v>
       </c>
@@ -4237,7 +4253,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="26">
+    <row r="70" spans="1:10" ht="26" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>44567</v>
       </c>
@@ -4267,7 +4283,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>44575</v>
       </c>
@@ -4291,7 +4307,7 @@
       </c>
       <c r="I71" s="23"/>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>44581</v>
       </c>
@@ -4321,7 +4337,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>44588</v>
       </c>
@@ -4347,7 +4363,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>44595</v>
       </c>
@@ -4370,7 +4386,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>44602</v>
       </c>
@@ -4389,7 +4405,7 @@
       <c r="F75" s="33"/>
       <c r="G75" s="3"/>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>44609</v>
       </c>
@@ -4416,7 +4432,7 @@
       </c>
       <c r="I76" s="22"/>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>44617</v>
       </c>
@@ -4433,7 +4449,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>44623</v>
       </c>
@@ -4459,7 +4475,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>44631</v>
       </c>
@@ -4485,7 +4501,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="21" customHeight="1">
+    <row r="80" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>44637</v>
       </c>
@@ -4511,7 +4527,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>44645</v>
       </c>
@@ -4540,7 +4556,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="16">
+    <row r="82" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>44651</v>
       </c>
@@ -4566,7 +4582,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>44656</v>
       </c>
@@ -4583,7 +4599,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>44665</v>
       </c>
@@ -4606,7 +4622,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>44672</v>
       </c>
@@ -4635,7 +4651,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>44679</v>
       </c>
@@ -4658,7 +4674,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>44687</v>
       </c>
@@ -4684,7 +4700,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>44694</v>
       </c>
@@ -4710,7 +4726,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>44701</v>
       </c>
@@ -4736,7 +4752,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>44708</v>
       </c>
@@ -4762,7 +4778,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="16">
+    <row r="91" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>44715</v>
       </c>
@@ -4785,7 +4801,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="16">
+    <row r="92" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>44722</v>
       </c>
@@ -4809,7 +4825,7 @@
       </c>
       <c r="J92" s="26"/>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>44729</v>
       </c>
@@ -4838,7 +4854,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="34">
+    <row r="94" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>44736</v>
       </c>
@@ -4867,7 +4883,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>44737</v>
       </c>
@@ -4888,7 +4904,7 @@
       </c>
       <c r="G95" s="3"/>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>44750</v>
       </c>
@@ -4914,7 +4930,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="102">
+    <row r="97" spans="1:10" ht="102" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>44764</v>
       </c>
@@ -4943,7 +4959,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>44778</v>
       </c>
@@ -4969,7 +4985,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>44792</v>
       </c>
@@ -4995,7 +5011,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="51">
+    <row r="100" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>44799</v>
       </c>
@@ -5024,7 +5040,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>44820</v>
       </c>
@@ -5050,7 +5066,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>44834</v>
       </c>
@@ -5076,7 +5092,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>44848</v>
       </c>
@@ -5102,7 +5118,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>44855</v>
       </c>
@@ -5125,7 +5141,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>44862</v>
       </c>
@@ -5151,7 +5167,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>44869</v>
       </c>
@@ -5177,7 +5193,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>44876</v>
       </c>
@@ -5203,7 +5219,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>44897</v>
       </c>
@@ -5230,7 +5246,7 @@
       </c>
       <c r="I108" s="23"/>
     </row>
-    <row r="109" spans="1:10" ht="34">
+    <row r="109" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>44911</v>
       </c>
@@ -5260,7 +5276,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>44932</v>
       </c>
@@ -5287,7 +5303,7 @@
       </c>
       <c r="I110" s="23"/>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>44945</v>
       </c>
@@ -5314,7 +5330,7 @@
       </c>
       <c r="I111" s="23"/>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>44953</v>
       </c>
@@ -5341,7 +5357,7 @@
       </c>
       <c r="I112" s="23"/>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>44960</v>
       </c>
@@ -5365,7 +5381,7 @@
       </c>
       <c r="I113" s="23"/>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>44967</v>
       </c>
@@ -5386,7 +5402,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>44974</v>
       </c>
@@ -5413,7 +5429,7 @@
       </c>
       <c r="I115" s="23"/>
     </row>
-    <row r="116" spans="1:10" ht="51">
+    <row r="116" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>44988</v>
       </c>
@@ -5443,7 +5459,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>45002</v>
       </c>
@@ -5471,7 +5487,7 @@
       <c r="I117" s="23"/>
       <c r="J117"/>
     </row>
-    <row r="118" spans="1:10" ht="16">
+    <row r="118" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>45016</v>
       </c>
@@ -5499,7 +5515,7 @@
       <c r="I118" s="23"/>
       <c r="J118" s="26"/>
     </row>
-    <row r="119" spans="1:10" ht="14" customHeight="1">
+    <row r="119" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>45037</v>
       </c>
@@ -5522,7 +5538,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="16">
+    <row r="120" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>45051</v>
       </c>
@@ -5551,7 +5567,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>45065</v>
       </c>
@@ -5575,7 +5591,7 @@
       </c>
       <c r="I121" s="23"/>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>45079</v>
       </c>
@@ -5598,7 +5614,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="53" customHeight="1">
+    <row r="123" spans="1:10" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>45086</v>
       </c>
@@ -5624,7 +5640,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>45093</v>
       </c>
@@ -5641,7 +5657,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>45107</v>
       </c>
@@ -5658,7 +5674,7 @@
         <v>77</v>
       </c>
       <c r="F125" s="32" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>624</v>
@@ -5667,7 +5683,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>45121</v>
       </c>
@@ -5690,7 +5706,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>45135</v>
       </c>
@@ -5716,7 +5732,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>45142</v>
       </c>
@@ -5739,7 +5755,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="129" spans="1:10">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>45156</v>
       </c>
@@ -5756,7 +5772,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="130" spans="1:10">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>45170</v>
       </c>
@@ -5782,7 +5798,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="131" spans="1:10">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>45184</v>
       </c>
@@ -5800,7 +5816,7 @@
       </c>
       <c r="I131" s="23"/>
     </row>
-    <row r="132" spans="1:10">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>45212</v>
       </c>
@@ -5826,7 +5842,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="133" spans="1:10">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>45240</v>
       </c>
@@ -5847,7 +5863,7 @@
       </c>
       <c r="I133" s="23"/>
     </row>
-    <row r="134" spans="1:10">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>45261</v>
       </c>
@@ -5865,7 +5881,7 @@
       </c>
       <c r="I134" s="23"/>
     </row>
-    <row r="135" spans="1:10">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>45275</v>
       </c>
@@ -5873,7 +5889,7 @@
         <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D135" t="s">
         <v>633</v>
@@ -5882,17 +5898,17 @@
         <v>77</v>
       </c>
       <c r="F135" s="37" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="G135" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="H135" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="H135" s="2" t="s">
-        <v>654</v>
-      </c>
       <c r="I135" s="23"/>
     </row>
-    <row r="136" spans="1:10">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>45295</v>
       </c>
@@ -5909,22 +5925,22 @@
         <v>77</v>
       </c>
       <c r="F136" s="32" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G136" s="32" t="s">
+        <v>650</v>
+      </c>
+      <c r="H136" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="H136" s="2" t="s">
-        <v>652</v>
-      </c>
       <c r="I136" s="23"/>
     </row>
-    <row r="137" spans="1:10">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>45324</v>
       </c>
       <c r="B137" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C137" t="s">
         <v>643</v>
@@ -5935,14 +5951,17 @@
       <c r="E137" t="s">
         <v>180</v>
       </c>
+      <c r="F137" s="32" t="s">
+        <v>668</v>
+      </c>
       <c r="I137" s="23"/>
     </row>
-    <row r="138" spans="1:10">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>45345</v>
       </c>
       <c r="B138" t="s">
-        <v>646</v>
+        <v>666</v>
       </c>
       <c r="C138" t="s">
         <v>645</v>
@@ -5951,13 +5970,14 @@
         <v>158</v>
       </c>
       <c r="E138" t="s">
-        <v>130</v>
-      </c>
-      <c r="I138" s="23">
-        <v>0.8125</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10">
+        <v>131</v>
+      </c>
+      <c r="F138" s="32" t="s">
+        <v>667</v>
+      </c>
+      <c r="I138" s="23"/>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>45352</v>
       </c>
@@ -5965,10 +5985,10 @@
         <v>198</v>
       </c>
       <c r="C139" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D139" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E139" t="s">
         <v>130</v>
@@ -5977,18 +5997,18 @@
         <v>0.8125</v>
       </c>
     </row>
-    <row r="140" spans="1:10">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>45359</v>
       </c>
       <c r="B140" t="s">
+        <v>656</v>
+      </c>
+      <c r="C140" t="s">
         <v>657</v>
       </c>
-      <c r="C140" t="s">
-        <v>658</v>
-      </c>
       <c r="D140" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E140" t="s">
         <v>130</v>
@@ -5997,7 +6017,7 @@
         <v>0.8125</v>
       </c>
     </row>
-    <row r="141" spans="1:10">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>45366</v>
       </c>
@@ -6005,10 +6025,10 @@
         <v>495</v>
       </c>
       <c r="C141" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D141" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E141" t="s">
         <v>130</v>
@@ -6017,7 +6037,7 @@
         <v>0.8125</v>
       </c>
     </row>
-    <row r="142" spans="1:10">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>45387</v>
       </c>
@@ -6025,10 +6045,10 @@
         <v>31</v>
       </c>
       <c r="C142" t="s">
+        <v>662</v>
+      </c>
+      <c r="D142" t="s">
         <v>663</v>
-      </c>
-      <c r="D142" t="s">
-        <v>664</v>
       </c>
       <c r="E142" t="s">
         <v>130</v>
@@ -6037,7 +6057,7 @@
         <v>0.8125</v>
       </c>
     </row>
-    <row r="143" spans="1:10">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>45401</v>
       </c>
@@ -6045,10 +6065,10 @@
         <v>573</v>
       </c>
       <c r="C143" t="s">
+        <v>664</v>
+      </c>
+      <c r="D143" t="s">
         <v>665</v>
-      </c>
-      <c r="D143" t="s">
-        <v>666</v>
       </c>
       <c r="E143" t="s">
         <v>130</v>

--- a/alumni_seminars.xlsx
+++ b/alumni_seminars.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minhe/wulibeida79/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4FC6AE8-A084-024F-B21C-C4AAFF24EE46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA62443A-E895-934D-A707-AFF1E678169C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6460" yWindow="2200" windowWidth="51200" windowHeight="26600" xr2:uid="{700D315C-D919-4596-880F-1F597F7C3FD0}"/>
+    <workbookView xWindow="10760" yWindow="2620" windowWidth="51200" windowHeight="26600" xr2:uid="{700D315C-D919-4596-880F-1F597F7C3FD0}"/>
   </bookViews>
   <sheets>
     <sheet name="alumni_seminars" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="694">
   <si>
     <t>贺敏</t>
   </si>
@@ -2050,6 +2050,81 @@
   </si>
   <si>
     <t>https://docs.google.com/presentation/d/1d8KrxtHYfhcrGPgJhYQmyWVBy1dNUhrP/edit?usp=sharing&amp;ouid=118189640657796082890&amp;rtpof=true&amp;sd=true</t>
+  </si>
+  <si>
+    <t>好山好水 8 Fall Colors： New England</t>
+  </si>
+  <si>
+    <t>姜武-顾辉</t>
+  </si>
+  <si>
+    <t>物理与我  14</t>
+  </si>
+  <si>
+    <t>走马观博 -- 博物馆参观游记</t>
+  </si>
+  <si>
+    <t>img/museum.jpg</t>
+  </si>
+  <si>
+    <t>img/fall_colors_new_england.jpg</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1AhHZViX0sZFYuM125PicOjI8jngp5TOW/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/17AR1gvuBHuRLVQsuyF7kfQ0avA1EVOkG/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/13HqoqZEj7c2K4N3YnQBpKt-btLXjDJ9x/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1O8YxY0NEY3oSt1jjRKhu7ev9y_P1hDEm/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1bH1D6sClSYLXAI14ZDy1gtnJSwano1kR/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1jUfH1zeiLVJ2YfuElAnUgE_KJEIwE8AV/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1_rrlmi5V1TfUYgxyqVlSkld8xL9I5xQq/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1f-lMES8w5CMiBJhB7Jylt4MvmwzR_DHx/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1xpVLWSbK05qRqyROPsw4nCcidGEy05LZ/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1eo_qX39fATsji9Vd8ZbHA-0STBap-W91/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/19JLXriGntUVoIG8RpRdutG8Qh2Q8wxIm/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1abfr7PYUbxUdQhKYR9GA0R_g3ZErMUmr/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1vx3PLjTRetQd3eMI-KQDycXbGuZ_8UGk/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1VxYuX-5wfkFZBg8CkvMzH0JfBdyX4N8z/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/10Db8r_fs6RLupNDgKApBOsILP5msxVTQ/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1HDlIwOP3GWZqIcDJCTLEBDPqhTsuxplE/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1rh0PWX_-7E3Vm4pMSd4cA403X1lEEIrN/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1foeOFkIm4R5CU5oIZ1nVbMKXl2_vD80V/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ECUFQh2C4_7reXPWCjtQToLZ3nLAnGYZ/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -2629,10 +2704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{125ED64C-CBBF-451D-8A64-D0747896E26B}">
-  <dimension ref="A1:J143"/>
+  <dimension ref="A1:J147"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A97" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="F137" sqref="F137"/>
+      <selection activeCell="A122" sqref="A122:XFD122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5954,6 +6029,12 @@
       <c r="F137" s="32" t="s">
         <v>668</v>
       </c>
+      <c r="G137" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="H137" s="2" t="s">
+        <v>693</v>
+      </c>
       <c r="I137" s="23"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
@@ -5975,6 +6056,12 @@
       <c r="F138" s="32" t="s">
         <v>667</v>
       </c>
+      <c r="G138" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="H138" s="2" t="s">
+        <v>691</v>
+      </c>
       <c r="I138" s="23"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
@@ -5991,11 +6078,18 @@
         <v>659</v>
       </c>
       <c r="E139" t="s">
-        <v>130</v>
-      </c>
-      <c r="I139" s="23">
-        <v>0.8125</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="F139" s="32" t="s">
+        <v>678</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="H139" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="I139" s="23"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
@@ -6011,11 +6105,18 @@
         <v>660</v>
       </c>
       <c r="E140" t="s">
-        <v>130</v>
-      </c>
-      <c r="I140" s="23">
-        <v>0.8125</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="F140" s="32" t="s">
+        <v>677</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="H140" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="I140" s="23"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
@@ -6031,11 +6132,18 @@
         <v>661</v>
       </c>
       <c r="E141" t="s">
-        <v>130</v>
-      </c>
-      <c r="I141" s="23">
-        <v>0.8125</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="F141" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="I141" s="23"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
@@ -6051,15 +6159,22 @@
         <v>663</v>
       </c>
       <c r="E142" t="s">
-        <v>130</v>
-      </c>
-      <c r="I142" s="23">
-        <v>0.8125</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="F142" s="32" t="s">
+        <v>675</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="H142" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="I142" s="23"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
-        <v>45401</v>
+        <v>45408</v>
       </c>
       <c r="B143" t="s">
         <v>573</v>
@@ -6071,9 +6186,93 @@
         <v>665</v>
       </c>
       <c r="E143" t="s">
+        <v>77</v>
+      </c>
+      <c r="F143" s="32" t="s">
+        <v>676</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="H143" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="I143" s="23"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A144" s="1">
+        <v>45422</v>
+      </c>
+      <c r="B144" t="s">
+        <v>9</v>
+      </c>
+      <c r="C144" t="s">
+        <v>669</v>
+      </c>
+      <c r="D144" t="s">
+        <v>674</v>
+      </c>
+      <c r="E144" t="s">
         <v>130</v>
       </c>
-      <c r="I143" s="23">
+      <c r="I144" s="23">
+        <v>0.8125</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A145" s="1">
+        <v>45436</v>
+      </c>
+      <c r="B145" t="s">
+        <v>670</v>
+      </c>
+      <c r="C145" t="s">
+        <v>671</v>
+      </c>
+      <c r="D145" t="s">
+        <v>222</v>
+      </c>
+      <c r="E145" t="s">
+        <v>130</v>
+      </c>
+      <c r="I145" s="23">
+        <v>0.8125</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A146" s="1">
+        <v>45450</v>
+      </c>
+      <c r="B146" t="s">
+        <v>542</v>
+      </c>
+      <c r="C146" t="s">
+        <v>672</v>
+      </c>
+      <c r="D146" t="s">
+        <v>673</v>
+      </c>
+      <c r="E146" t="s">
+        <v>130</v>
+      </c>
+      <c r="I146" s="23">
+        <v>0.8125</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A147" s="1">
+        <v>45457</v>
+      </c>
+      <c r="B147" t="s">
+        <v>65</v>
+      </c>
+      <c r="C147" t="s">
+        <v>66</v>
+      </c>
+      <c r="E147" t="s">
+        <v>130</v>
+      </c>
+      <c r="I147" s="23">
         <v>0.8125</v>
       </c>
     </row>

--- a/alumni_seminars.xlsx
+++ b/alumni_seminars.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minhe/wulibeida79/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA62443A-E895-934D-A707-AFF1E678169C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7AE3CA3-C6FA-F74E-BF0E-8991D0D73200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10760" yWindow="2620" windowWidth="51200" windowHeight="26600" xr2:uid="{700D315C-D919-4596-880F-1F597F7C3FD0}"/>
+    <workbookView xWindow="2540" yWindow="700" windowWidth="51200" windowHeight="26600" xr2:uid="{700D315C-D919-4596-880F-1F597F7C3FD0}"/>
   </bookViews>
   <sheets>
     <sheet name="alumni_seminars" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="698">
   <si>
     <t>贺敏</t>
   </si>
@@ -2125,6 +2125,18 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1ECUFQh2C4_7reXPWCjtQToLZ3nLAnGYZ/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1majEEY8J1JuGgOGJpr214aeXY6A4fSq4/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-TO9F3rTl3Y6VE5aMqE9NkNzeZet8eih/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1nvXZSpof6ajVDbAcNrOzq51LjZMAiEoL/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1iYMGenoCvhbM3fAyBiBMIJ7-PK2FX0gB/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -2707,7 +2719,7 @@
   <dimension ref="A1:J147"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A97" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="A122" sqref="A122:XFD122"/>
+      <selection activeCell="H144" sqref="H144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6213,11 +6225,15 @@
         <v>674</v>
       </c>
       <c r="E144" t="s">
-        <v>130</v>
-      </c>
-      <c r="I144" s="23">
-        <v>0.8125</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="I144" s="23"/>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
@@ -6233,11 +6249,15 @@
         <v>222</v>
       </c>
       <c r="E145" t="s">
-        <v>130</v>
-      </c>
-      <c r="I145" s="23">
-        <v>0.8125</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="H145" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="I145" s="23"/>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" s="1">

--- a/alumni_seminars.xlsx
+++ b/alumni_seminars.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minhe/wulibeida79/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7AE3CA3-C6FA-F74E-BF0E-8991D0D73200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CB676C-D9B4-E24C-BC47-182FB0DD441E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2540" yWindow="700" windowWidth="51200" windowHeight="26600" xr2:uid="{700D315C-D919-4596-880F-1F597F7C3FD0}"/>
+    <workbookView xWindow="9820" yWindow="2940" windowWidth="51200" windowHeight="26600" xr2:uid="{700D315C-D919-4596-880F-1F597F7C3FD0}"/>
   </bookViews>
   <sheets>
     <sheet name="alumni_seminars" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="699">
   <si>
     <t>贺敏</t>
   </si>
@@ -2137,6 +2137,9 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1iYMGenoCvhbM3fAyBiBMIJ7-PK2FX0gB/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1VlIAtCZdzrrzizKm2lkCkX_82W_t7ihM/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -2718,8 +2721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{125ED64C-CBBF-451D-8A64-D0747896E26B}">
   <dimension ref="A1:J147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="H144" sqref="H144"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="D148" sqref="D148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6273,11 +6276,12 @@
         <v>673</v>
       </c>
       <c r="E146" t="s">
-        <v>130</v>
-      </c>
-      <c r="I146" s="23">
-        <v>0.8125</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="F146" s="32" t="s">
+        <v>698</v>
+      </c>
+      <c r="I146" s="23"/>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
@@ -6288,6 +6292,9 @@
       </c>
       <c r="C147" t="s">
         <v>66</v>
+      </c>
+      <c r="D147" t="s">
+        <v>176</v>
       </c>
       <c r="E147" t="s">
         <v>130</v>

--- a/alumni_seminars.xlsx
+++ b/alumni_seminars.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minhe/wulibeida79/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CB676C-D9B4-E24C-BC47-182FB0DD441E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527EE127-379F-6245-9541-8AC8FB5B5122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9820" yWindow="2940" windowWidth="51200" windowHeight="26600" xr2:uid="{700D315C-D919-4596-880F-1F597F7C3FD0}"/>
+    <workbookView xWindow="13240" yWindow="3640" windowWidth="51200" windowHeight="26600" xr2:uid="{700D315C-D919-4596-880F-1F597F7C3FD0}"/>
   </bookViews>
   <sheets>
     <sheet name="alumni_seminars" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="700">
   <si>
     <t>贺敏</t>
   </si>
@@ -2140,6 +2140,9 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1VlIAtCZdzrrzizKm2lkCkX_82W_t7ihM/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1IfbiI39aMw2yLejaWvbV-Tkb6ZYqzzuS/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -2722,7 +2725,7 @@
   <dimension ref="A1:J147"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A100" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="D148" sqref="D148"/>
+      <selection activeCell="F145" sqref="F145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6229,6 +6232,9 @@
       </c>
       <c r="E144" t="s">
         <v>77</v>
+      </c>
+      <c r="F144" s="32" t="s">
+        <v>699</v>
       </c>
       <c r="G144" s="2" t="s">
         <v>696</v>

--- a/alumni_seminars.xlsx
+++ b/alumni_seminars.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minhe/wulibeida79/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527EE127-379F-6245-9541-8AC8FB5B5122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224E01EC-A434-0F4F-BE2E-E179AD7440E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13240" yWindow="3640" windowWidth="51200" windowHeight="26600" xr2:uid="{700D315C-D919-4596-880F-1F597F7C3FD0}"/>
+    <workbookView xWindow="8340" yWindow="3360" windowWidth="51200" windowHeight="26600" xr2:uid="{700D315C-D919-4596-880F-1F597F7C3FD0}"/>
   </bookViews>
   <sheets>
     <sheet name="alumni_seminars" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="701">
   <si>
     <t>贺敏</t>
   </si>
@@ -425,9 +425,6 @@
   </si>
   <si>
     <t>Image</t>
-  </si>
-  <si>
-    <t>Upcoming</t>
   </si>
   <si>
     <t>Experience</t>
@@ -2143,6 +2140,12 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1IfbiI39aMw2yLejaWvbV-Tkb6ZYqzzuS/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Ji3EHNYnfxk4ct2Gnh5f1kohwWXigOX6/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1hUSNRk8mPKnNwKGIdylBcTKVWFtc9HN9/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -2724,8 +2727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{125ED64C-CBBF-451D-8A64-D0747896E26B}">
   <dimension ref="A1:J147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="F145" sqref="F145"/>
+    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="A147" sqref="A147:XFD147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2759,7 +2762,7 @@
         <v>72</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>71</v>
@@ -2768,7 +2771,7 @@
         <v>73</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>81</v>
@@ -2785,13 +2788,13 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E2" t="s">
         <v>74</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -2805,10 +2808,10 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -2822,10 +2825,10 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -2839,13 +2842,13 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -2853,13 +2856,13 @@
         <v>44036</v>
       </c>
       <c r="B6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C6" t="s">
         <v>198</v>
       </c>
-      <c r="C6" t="s">
-        <v>199</v>
-      </c>
       <c r="D6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E6" t="s">
         <v>76</v>
@@ -2882,10 +2885,10 @@
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -2899,13 +2902,13 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E8" t="s">
         <v>77</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -2919,13 +2922,13 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E9" t="s">
         <v>77</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -2936,10 +2939,10 @@
         <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E10" t="s">
         <v>76</v>
@@ -2959,7 +2962,7 @@
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E11" t="s">
         <v>74</v>
@@ -2979,7 +2982,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E12" t="s">
         <v>74</v>
@@ -2996,7 +2999,7 @@
         <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E13" t="s">
         <v>77</v>
@@ -3013,13 +3016,13 @@
         <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E14" t="s">
         <v>77</v>
       </c>
       <c r="F14" s="33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -3033,13 +3036,13 @@
         <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E15" t="s">
         <v>77</v>
       </c>
       <c r="F15" s="33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -3053,10 +3056,10 @@
         <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F16" s="32" t="s">
         <v>122</v>
@@ -3067,13 +3070,13 @@
         <v>44120</v>
       </c>
       <c r="B17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C17" t="s">
         <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E17" t="s">
         <v>76</v>
@@ -3082,7 +3085,7 @@
         <v>117</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -3096,10 +3099,10 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -3113,7 +3116,7 @@
         <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E19" t="s">
         <v>74</v>
@@ -3133,7 +3136,7 @@
         <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E20" t="s">
         <v>77</v>
@@ -3150,16 +3153,16 @@
         <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F21" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="J21" s="13" t="s">
         <v>189</v>
-      </c>
-      <c r="J21" s="13" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -3173,7 +3176,7 @@
         <v>34</v>
       </c>
       <c r="D22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E22" t="s">
         <v>77</v>
@@ -3196,7 +3199,7 @@
         <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E23" t="s">
         <v>74</v>
@@ -3210,10 +3213,10 @@
         <v>46</v>
       </c>
       <c r="C24" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E24" t="s">
         <v>76</v>
@@ -3239,7 +3242,7 @@
         <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E25" t="s">
         <v>74</v>
@@ -3250,13 +3253,13 @@
         <v>44204</v>
       </c>
       <c r="B26" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E26" t="s">
         <v>76</v>
@@ -3265,7 +3268,7 @@
         <v>115</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -3279,10 +3282,10 @@
         <v>43</v>
       </c>
       <c r="D27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -3296,13 +3299,13 @@
         <v>38</v>
       </c>
       <c r="D28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E28" t="s">
         <v>77</v>
       </c>
       <c r="F28" s="32" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -3316,7 +3319,7 @@
         <v>47</v>
       </c>
       <c r="D29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E29" t="s">
         <v>74</v>
@@ -3343,7 +3346,7 @@
         <v>40</v>
       </c>
       <c r="D30" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E30" t="s">
         <v>77</v>
@@ -3363,7 +3366,7 @@
         <v>48</v>
       </c>
       <c r="D31" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E31" t="s">
         <v>74</v>
@@ -3380,13 +3383,13 @@
         <v>44246</v>
       </c>
       <c r="B32" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C32" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D32" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E32" t="s">
         <v>76</v>
@@ -3395,7 +3398,7 @@
         <v>114</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -3409,10 +3412,10 @@
         <v>45</v>
       </c>
       <c r="D33" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>88</v>
@@ -3432,13 +3435,13 @@
         <v>50</v>
       </c>
       <c r="D34" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E34" t="s">
         <v>74</v>
       </c>
       <c r="F34" s="32" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>90</v>
@@ -3447,7 +3450,7 @@
         <v>91</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
@@ -3461,7 +3464,7 @@
         <v>36</v>
       </c>
       <c r="D35" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E35" t="s">
         <v>77</v>
@@ -3481,13 +3484,13 @@
         <v>44274</v>
       </c>
       <c r="B36" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C36" t="s">
         <v>51</v>
       </c>
       <c r="D36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E36" t="s">
         <v>76</v>
@@ -3496,7 +3499,7 @@
         <v>118</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
@@ -3510,7 +3513,7 @@
         <v>42</v>
       </c>
       <c r="D37" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E37" t="s">
         <v>74</v>
@@ -3536,7 +3539,7 @@
         <v>53</v>
       </c>
       <c r="D38" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E38" t="s">
         <v>74</v>
@@ -3562,7 +3565,7 @@
         <v>54</v>
       </c>
       <c r="D39" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E39" t="s">
         <v>74</v>
@@ -3588,13 +3591,13 @@
         <v>56</v>
       </c>
       <c r="D40" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E40" t="s">
         <v>76</v>
       </c>
       <c r="F40" s="33" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>98</v>
@@ -3614,13 +3617,13 @@
         <v>59</v>
       </c>
       <c r="D41" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E41" t="s">
         <v>77</v>
       </c>
       <c r="F41" s="32" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>100</v>
@@ -3640,7 +3643,7 @@
         <v>58</v>
       </c>
       <c r="D42" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E42" t="s">
         <v>74</v>
@@ -3666,10 +3669,10 @@
         <v>60</v>
       </c>
       <c r="D43" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E43" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
@@ -3683,13 +3686,13 @@
         <v>61</v>
       </c>
       <c r="D44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E44" t="s">
         <v>76</v>
       </c>
       <c r="F44" s="33" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>104</v>
@@ -3709,7 +3712,7 @@
         <v>75</v>
       </c>
       <c r="D45" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E45" t="s">
         <v>74</v>
@@ -3735,13 +3738,13 @@
         <v>63</v>
       </c>
       <c r="D46" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E46" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J46" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
@@ -3755,13 +3758,13 @@
         <v>64</v>
       </c>
       <c r="D47" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E47" t="s">
         <v>77</v>
       </c>
       <c r="F47" s="32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>108</v>
@@ -3781,7 +3784,7 @@
         <v>66</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E48" s="10" t="s">
         <v>77</v>
@@ -3803,19 +3806,19 @@
         <v>67</v>
       </c>
       <c r="D49" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E49" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F49" s="32" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G49" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H49" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
@@ -3823,19 +3826,19 @@
         <v>44378</v>
       </c>
       <c r="B50" t="s">
+        <v>203</v>
+      </c>
+      <c r="C50" t="s">
+        <v>219</v>
+      </c>
+      <c r="D50" t="s">
         <v>204</v>
-      </c>
-      <c r="C50" t="s">
-        <v>220</v>
-      </c>
-      <c r="D50" t="s">
-        <v>205</v>
       </c>
       <c r="E50" t="s">
         <v>77</v>
       </c>
       <c r="F50" s="32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
@@ -3843,25 +3846,25 @@
         <v>44385</v>
       </c>
       <c r="B51" t="s">
+        <v>209</v>
+      </c>
+      <c r="C51" t="s">
         <v>210</v>
       </c>
-      <c r="C51" t="s">
-        <v>211</v>
-      </c>
       <c r="D51" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E51" t="s">
         <v>77</v>
       </c>
       <c r="F51" s="32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
@@ -3869,25 +3872,25 @@
         <v>44392</v>
       </c>
       <c r="B52" t="s">
+        <v>211</v>
+      </c>
+      <c r="C52" t="s">
+        <v>218</v>
+      </c>
+      <c r="D52" t="s">
         <v>212</v>
-      </c>
-      <c r="C52" t="s">
-        <v>219</v>
-      </c>
-      <c r="D52" t="s">
-        <v>213</v>
       </c>
       <c r="E52" t="s">
         <v>74</v>
       </c>
       <c r="F52" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="G52" s="2" t="s">
+      <c r="H52" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
@@ -3898,25 +3901,25 @@
         <v>31</v>
       </c>
       <c r="C53" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D53" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E53" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F53" s="32" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G53" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="H53" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="H53" s="2" t="s">
-        <v>241</v>
-      </c>
       <c r="J53" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
@@ -3924,22 +3927,22 @@
         <v>44406</v>
       </c>
       <c r="B54" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C54" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D54" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E54" t="s">
         <v>76</v>
       </c>
       <c r="F54" s="32" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -3947,28 +3950,28 @@
         <v>44413</v>
       </c>
       <c r="B55" t="s">
+        <v>223</v>
+      </c>
+      <c r="C55" t="s">
         <v>224</v>
       </c>
-      <c r="C55" t="s">
-        <v>225</v>
-      </c>
       <c r="D55" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E55" t="s">
         <v>74</v>
       </c>
       <c r="F55" s="32" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G55" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="H55" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="H55" s="2" t="s">
-        <v>251</v>
-      </c>
       <c r="J55" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
@@ -3976,25 +3979,25 @@
         <v>44427</v>
       </c>
       <c r="B56" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C56" t="s">
+        <v>236</v>
+      </c>
+      <c r="D56" t="s">
         <v>237</v>
       </c>
-      <c r="D56" t="s">
-        <v>238</v>
-      </c>
       <c r="E56" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F56" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="G56" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="G56" s="2" t="s">
+      <c r="H56" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
@@ -4005,22 +4008,22 @@
         <v>13</v>
       </c>
       <c r="C57" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D57" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E57" t="s">
         <v>74</v>
       </c>
       <c r="F57" s="32" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G57" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="H57" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
@@ -4028,25 +4031,25 @@
         <v>44455</v>
       </c>
       <c r="B58" t="s">
+        <v>260</v>
+      </c>
+      <c r="C58" t="s">
+        <v>238</v>
+      </c>
+      <c r="D58" t="s">
+        <v>221</v>
+      </c>
+      <c r="E58" t="s">
+        <v>343</v>
+      </c>
+      <c r="F58" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="H58" s="2" t="s">
         <v>261</v>
-      </c>
-      <c r="C58" t="s">
-        <v>239</v>
-      </c>
-      <c r="D58" t="s">
-        <v>222</v>
-      </c>
-      <c r="E58" t="s">
-        <v>344</v>
-      </c>
-      <c r="F58" s="33" t="s">
-        <v>269</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4054,28 +4057,28 @@
         <v>44463</v>
       </c>
       <c r="B59" t="s">
+        <v>243</v>
+      </c>
+      <c r="C59" t="s">
         <v>244</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>245</v>
-      </c>
-      <c r="D59" t="s">
-        <v>246</v>
       </c>
       <c r="E59" t="s">
         <v>74</v>
       </c>
       <c r="F59" s="32" t="s">
+        <v>265</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="G59" s="2" t="s">
+      <c r="H59" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="H59" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="J59" s="15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
@@ -4086,19 +4089,19 @@
         <v>44</v>
       </c>
       <c r="C60" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D60" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E60" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G60" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H60" s="2" t="s">
         <v>271</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
@@ -4106,25 +4109,25 @@
         <v>44483</v>
       </c>
       <c r="B61" t="s">
+        <v>262</v>
+      </c>
+      <c r="C61" t="s">
         <v>263</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>264</v>
-      </c>
-      <c r="D61" t="s">
-        <v>265</v>
       </c>
       <c r="E61" t="s">
         <v>77</v>
       </c>
       <c r="F61" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="G61" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="G61" s="2" t="s">
+      <c r="H61" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>278</v>
       </c>
       <c r="I61" s="22"/>
     </row>
@@ -4133,25 +4136,25 @@
         <v>44490</v>
       </c>
       <c r="B62" t="s">
+        <v>278</v>
+      </c>
+      <c r="C62" t="s">
         <v>279</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
+        <v>221</v>
+      </c>
+      <c r="E62" t="s">
+        <v>343</v>
+      </c>
+      <c r="F62" s="32" t="s">
         <v>280</v>
       </c>
-      <c r="D62" t="s">
-        <v>222</v>
-      </c>
-      <c r="E62" t="s">
-        <v>344</v>
-      </c>
-      <c r="F62" s="32" t="s">
-        <v>281</v>
-      </c>
       <c r="G62" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="H62" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>286</v>
       </c>
       <c r="I62" s="22"/>
     </row>
@@ -4160,28 +4163,28 @@
         <v>44498</v>
       </c>
       <c r="B63" t="s">
+        <v>272</v>
+      </c>
+      <c r="C63" t="s">
         <v>273</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>274</v>
-      </c>
-      <c r="D63" t="s">
-        <v>275</v>
       </c>
       <c r="E63" t="s">
         <v>77</v>
       </c>
       <c r="F63" s="33" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G63" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="H63" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="H63" s="2" t="s">
-        <v>394</v>
-      </c>
       <c r="J63" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -4192,25 +4195,25 @@
         <v>31</v>
       </c>
       <c r="C64" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D64" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E64" t="s">
         <v>77</v>
       </c>
       <c r="F64" s="33" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H64" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="J64" s="16" t="s">
         <v>290</v>
-      </c>
-      <c r="J64" s="16" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
@@ -4218,25 +4221,25 @@
         <v>44512</v>
       </c>
       <c r="B65" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C65" t="s">
+        <v>281</v>
+      </c>
+      <c r="D65" t="s">
         <v>282</v>
       </c>
-      <c r="D65" t="s">
-        <v>283</v>
-      </c>
       <c r="E65" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F65" s="35" t="s">
+        <v>296</v>
+      </c>
+      <c r="G65" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="G65" s="17" t="s">
+      <c r="H65" s="17" t="s">
         <v>298</v>
-      </c>
-      <c r="H65" s="17" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
@@ -4247,22 +4250,22 @@
         <v>46</v>
       </c>
       <c r="C66" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D66" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E66" t="s">
         <v>76</v>
       </c>
       <c r="F66" s="33" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G66" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="H66" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
@@ -4273,22 +4276,22 @@
         <v>9</v>
       </c>
       <c r="C67" t="s">
+        <v>291</v>
+      </c>
+      <c r="D67" t="s">
         <v>292</v>
-      </c>
-      <c r="D67" t="s">
-        <v>293</v>
       </c>
       <c r="E67" t="s">
         <v>77</v>
       </c>
       <c r="F67" s="32" t="s">
+        <v>303</v>
+      </c>
+      <c r="G67" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="G67" s="2" t="s">
+      <c r="H67" s="2" t="s">
         <v>305</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
@@ -4299,25 +4302,25 @@
         <v>31</v>
       </c>
       <c r="C68" t="s">
+        <v>306</v>
+      </c>
+      <c r="D68" t="s">
         <v>307</v>
-      </c>
-      <c r="D68" t="s">
-        <v>308</v>
       </c>
       <c r="E68" t="s">
         <v>77</v>
       </c>
       <c r="F68" s="36" t="s">
+        <v>311</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="J68" s="8" t="s">
         <v>312</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="J68" s="8" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
@@ -4328,22 +4331,22 @@
         <v>13</v>
       </c>
       <c r="C69" t="s">
+        <v>293</v>
+      </c>
+      <c r="D69" t="s">
         <v>294</v>
-      </c>
-      <c r="D69" t="s">
-        <v>295</v>
       </c>
       <c r="E69" t="s">
         <v>77</v>
       </c>
       <c r="F69" s="32" t="s">
+        <v>313</v>
+      </c>
+      <c r="G69" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="G69" s="2" t="s">
+      <c r="H69" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="26" x14ac:dyDescent="0.2">
@@ -4351,29 +4354,29 @@
         <v>44567</v>
       </c>
       <c r="B70" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C70" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D70" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E70" t="s">
         <v>77</v>
       </c>
       <c r="F70" s="32" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G70" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="H70" s="2" t="s">
         <v>323</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>324</v>
       </c>
       <c r="I70" s="23"/>
       <c r="J70" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
@@ -4381,22 +4384,22 @@
         <v>44575</v>
       </c>
       <c r="B71" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C71" t="s">
+        <v>342</v>
+      </c>
+      <c r="D71" t="s">
+        <v>221</v>
+      </c>
+      <c r="E71" t="s">
         <v>343</v>
       </c>
-      <c r="D71" t="s">
-        <v>222</v>
-      </c>
-      <c r="E71" t="s">
-        <v>344</v>
-      </c>
       <c r="G71" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="H71" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>334</v>
       </c>
       <c r="I71" s="23"/>
     </row>
@@ -4408,26 +4411,26 @@
         <v>31</v>
       </c>
       <c r="C72" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D72" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E72" t="s">
         <v>77</v>
       </c>
       <c r="F72" s="32" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G72" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="H72" s="2" t="s">
         <v>338</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>339</v>
       </c>
       <c r="I72" s="22"/>
       <c r="J72" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
@@ -4435,25 +4438,25 @@
         <v>44588</v>
       </c>
       <c r="B73" t="s">
+        <v>334</v>
+      </c>
+      <c r="C73" t="s">
+        <v>341</v>
+      </c>
+      <c r="D73" t="s">
+        <v>221</v>
+      </c>
+      <c r="E73" t="s">
+        <v>343</v>
+      </c>
+      <c r="F73" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="G73" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="C73" t="s">
-        <v>342</v>
-      </c>
-      <c r="D73" t="s">
-        <v>222</v>
-      </c>
-      <c r="E73" t="s">
-        <v>344</v>
-      </c>
-      <c r="F73" s="32" t="s">
-        <v>380</v>
-      </c>
-      <c r="G73" s="2" t="s">
+      <c r="H73" s="2" t="s">
         <v>336</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
@@ -4461,22 +4464,22 @@
         <v>44595</v>
       </c>
       <c r="B74" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C74" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D74" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E74" t="s">
         <v>76</v>
       </c>
       <c r="F74" s="33" t="s">
+        <v>356</v>
+      </c>
+      <c r="G74" s="3" t="s">
         <v>357</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
@@ -4487,13 +4490,13 @@
         <v>65</v>
       </c>
       <c r="C75" t="s">
+        <v>436</v>
+      </c>
+      <c r="D75" t="s">
         <v>437</v>
       </c>
-      <c r="D75" t="s">
-        <v>438</v>
-      </c>
       <c r="E75" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F75" s="33"/>
       <c r="G75" s="3"/>
@@ -4503,25 +4506,25 @@
         <v>44609</v>
       </c>
       <c r="B76" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C76" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D76" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E76" t="s">
         <v>77</v>
       </c>
       <c r="F76" s="33" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G76" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="H76" s="2" t="s">
         <v>359</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>360</v>
       </c>
       <c r="I76" s="22"/>
     </row>
@@ -4533,13 +4536,13 @@
         <v>4</v>
       </c>
       <c r="C77" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D77" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E77" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
@@ -4547,25 +4550,25 @@
         <v>44623</v>
       </c>
       <c r="B78" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C78" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D78" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E78" t="s">
         <v>76</v>
       </c>
       <c r="F78" s="32" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G78" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="H78" s="2" t="s">
         <v>364</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
@@ -4573,25 +4576,25 @@
         <v>44631</v>
       </c>
       <c r="B79" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C79" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D79" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E79" t="s">
         <v>74</v>
       </c>
       <c r="F79" s="32" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G79" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="H79" s="2" t="s">
         <v>362</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -4599,25 +4602,25 @@
         <v>44637</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C80" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D80" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E80" t="s">
         <v>77</v>
       </c>
       <c r="F80" s="33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G80" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="H80" s="2" t="s">
         <v>366</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
@@ -4625,28 +4628,28 @@
         <v>44645</v>
       </c>
       <c r="B81" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D81" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E81" t="s">
         <v>74</v>
       </c>
       <c r="F81" s="36" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G81" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="H81" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="H81" s="2" t="s">
-        <v>396</v>
-      </c>
       <c r="J81" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -4654,25 +4657,25 @@
         <v>44651</v>
       </c>
       <c r="B82" t="s">
+        <v>349</v>
+      </c>
+      <c r="C82" t="s">
         <v>350</v>
       </c>
-      <c r="C82" t="s">
-        <v>351</v>
-      </c>
       <c r="D82" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E82" t="s">
         <v>74</v>
       </c>
       <c r="G82" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="H82" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="H82" s="2" t="s">
-        <v>385</v>
-      </c>
       <c r="J82" s="24" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
@@ -4680,16 +4683,16 @@
         <v>44656</v>
       </c>
       <c r="B83" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C83" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D83" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E83" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
@@ -4697,22 +4700,22 @@
         <v>44665</v>
       </c>
       <c r="B84" t="s">
+        <v>371</v>
+      </c>
+      <c r="C84" t="s">
         <v>372</v>
       </c>
-      <c r="C84" t="s">
-        <v>373</v>
-      </c>
       <c r="D84" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E84" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G84" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="H84" s="2" t="s">
         <v>397</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
@@ -4723,25 +4726,25 @@
         <v>31</v>
       </c>
       <c r="C85" t="s">
+        <v>385</v>
+      </c>
+      <c r="D85" t="s">
         <v>386</v>
-      </c>
-      <c r="D85" t="s">
-        <v>387</v>
       </c>
       <c r="E85" t="s">
         <v>77</v>
       </c>
       <c r="F85" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G85" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="H85" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="H85" s="2" t="s">
-        <v>404</v>
-      </c>
       <c r="J85" s="8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
@@ -4752,19 +4755,19 @@
         <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D86" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E86" t="s">
         <v>77</v>
       </c>
       <c r="G86" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="H86" s="2" t="s">
         <v>401</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
@@ -4775,22 +4778,22 @@
         <v>0</v>
       </c>
       <c r="C87" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D87" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E87" t="s">
         <v>74</v>
       </c>
       <c r="F87" s="32" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G87" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="H87" s="2" t="s">
         <v>405</v>
-      </c>
-      <c r="H87" s="2" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
@@ -4798,25 +4801,25 @@
         <v>44694</v>
       </c>
       <c r="B88" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C88" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D88" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E88" t="s">
         <v>76</v>
       </c>
       <c r="F88" s="32" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G88" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="H88" s="2" t="s">
         <v>419</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
@@ -4824,25 +4827,25 @@
         <v>44701</v>
       </c>
       <c r="B89" t="s">
+        <v>407</v>
+      </c>
+      <c r="C89" t="s">
         <v>408</v>
       </c>
-      <c r="C89" t="s">
-        <v>409</v>
-      </c>
       <c r="D89" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E89" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F89" s="32" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G89" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="H89" s="2" t="s">
         <v>426</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
@@ -4850,25 +4853,25 @@
         <v>44708</v>
       </c>
       <c r="B90" t="s">
+        <v>388</v>
+      </c>
+      <c r="C90" t="s">
         <v>389</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
         <v>390</v>
       </c>
-      <c r="D90" t="s">
-        <v>391</v>
-      </c>
       <c r="E90" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F90" s="32" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G90" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="H90" s="2" t="s">
         <v>428</v>
-      </c>
-      <c r="H90" s="2" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -4876,22 +4879,22 @@
         <v>44715</v>
       </c>
       <c r="B91" t="s">
+        <v>409</v>
+      </c>
+      <c r="C91" t="s">
         <v>410</v>
       </c>
-      <c r="C91" t="s">
-        <v>411</v>
-      </c>
       <c r="D91" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E91" t="s">
         <v>74</v>
       </c>
       <c r="G91" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="H91" s="25" t="s">
         <v>432</v>
-      </c>
-      <c r="H91" s="25" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -4902,19 +4905,19 @@
         <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D92" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E92" t="s">
         <v>77</v>
       </c>
       <c r="G92" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="H92" s="2" t="s">
         <v>443</v>
-      </c>
-      <c r="H92" s="2" t="s">
-        <v>444</v>
       </c>
       <c r="J92" s="26"/>
     </row>
@@ -4926,25 +4929,25 @@
         <v>31</v>
       </c>
       <c r="C93" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D93" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E93" t="s">
         <v>77</v>
       </c>
       <c r="F93" s="32" t="s">
+        <v>438</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="J93" s="8" t="s">
         <v>439</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="H93" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="J93" s="8" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -4955,25 +4958,25 @@
         <v>31</v>
       </c>
       <c r="C94" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D94" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E94" t="s">
         <v>77</v>
       </c>
       <c r="F94" s="32" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G94" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="H94" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="H94" s="2" t="s">
-        <v>451</v>
-      </c>
       <c r="J94" s="28" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
@@ -4984,16 +4987,16 @@
         <v>65</v>
       </c>
       <c r="C95" t="s">
+        <v>434</v>
+      </c>
+      <c r="D95" t="s">
         <v>435</v>
-      </c>
-      <c r="D95" t="s">
-        <v>436</v>
       </c>
       <c r="E95" t="s">
         <v>77</v>
       </c>
       <c r="F95" s="32" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G95" s="3"/>
     </row>
@@ -5002,25 +5005,25 @@
         <v>44750</v>
       </c>
       <c r="B96" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C96" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D96" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E96" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F96" s="32" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G96" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="H96" s="3" t="s">
         <v>456</v>
-      </c>
-      <c r="H96" s="3" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="102" x14ac:dyDescent="0.2">
@@ -5028,28 +5031,28 @@
         <v>44764</v>
       </c>
       <c r="B97" t="s">
+        <v>422</v>
+      </c>
+      <c r="C97" t="s">
         <v>423</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D97" t="s">
         <v>424</v>
-      </c>
-      <c r="D97" t="s">
-        <v>425</v>
       </c>
       <c r="E97" t="s">
         <v>74</v>
       </c>
       <c r="F97" s="32" t="s">
+        <v>459</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="G97" s="2" t="s">
+      <c r="H97" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="H97" s="2" t="s">
-        <v>462</v>
-      </c>
       <c r="J97" s="28" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
@@ -5057,25 +5060,25 @@
         <v>44778</v>
       </c>
       <c r="B98" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C98" t="s">
+        <v>452</v>
+      </c>
+      <c r="D98" t="s">
         <v>453</v>
       </c>
-      <c r="D98" t="s">
-        <v>454</v>
-      </c>
       <c r="E98" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F98" s="32" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G98" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="H98" s="2" t="s">
         <v>463</v>
-      </c>
-      <c r="H98" s="2" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
@@ -5083,25 +5086,25 @@
         <v>44792</v>
       </c>
       <c r="B99" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C99" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D99" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E99" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F99" s="32" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G99" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="H99" s="2" t="s">
         <v>477</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -5112,25 +5115,25 @@
         <v>31</v>
       </c>
       <c r="C100" t="s">
+        <v>468</v>
+      </c>
+      <c r="D100" t="s">
         <v>469</v>
-      </c>
-      <c r="D100" t="s">
-        <v>470</v>
       </c>
       <c r="E100" t="s">
         <v>77</v>
       </c>
       <c r="F100" s="32" t="s">
+        <v>470</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="J100" s="29" t="s">
         <v>471</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="H100" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="J100" s="29" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
@@ -5138,25 +5141,25 @@
         <v>44820</v>
       </c>
       <c r="B101" t="s">
+        <v>472</v>
+      </c>
+      <c r="C101" t="s">
         <v>473</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D101" t="s">
         <v>474</v>
       </c>
-      <c r="D101" t="s">
-        <v>475</v>
-      </c>
       <c r="E101" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F101" s="32" t="s">
+        <v>478</v>
+      </c>
+      <c r="G101" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="G101" s="2" t="s">
+      <c r="H101" s="2" t="s">
         <v>480</v>
-      </c>
-      <c r="H101" s="2" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
@@ -5167,22 +5170,22 @@
         <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D102" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E102" t="s">
         <v>77</v>
       </c>
       <c r="F102" s="32" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G102" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="H102" s="2" t="s">
         <v>482</v>
-      </c>
-      <c r="H102" s="2" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
@@ -5193,22 +5196,22 @@
         <v>0</v>
       </c>
       <c r="C103" t="s">
+        <v>483</v>
+      </c>
+      <c r="D103" t="s">
         <v>484</v>
-      </c>
-      <c r="D103" t="s">
-        <v>485</v>
       </c>
       <c r="E103" t="s">
         <v>74</v>
       </c>
       <c r="F103" s="32" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G103" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="H103" s="2" t="s">
         <v>492</v>
-      </c>
-      <c r="H103" s="2" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
@@ -5216,22 +5219,22 @@
         <v>44855</v>
       </c>
       <c r="B104" t="s">
+        <v>485</v>
+      </c>
+      <c r="C104" t="s">
         <v>486</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
         <v>487</v>
       </c>
-      <c r="D104" t="s">
-        <v>488</v>
-      </c>
       <c r="E104" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F104" s="33" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
@@ -5239,25 +5242,25 @@
         <v>44862</v>
       </c>
       <c r="B105" t="s">
+        <v>499</v>
+      </c>
+      <c r="C105" s="27" t="s">
         <v>500</v>
       </c>
-      <c r="C105" s="27" t="s">
+      <c r="D105" t="s">
         <v>501</v>
       </c>
-      <c r="D105" t="s">
-        <v>502</v>
-      </c>
       <c r="E105" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F105" s="32" t="s">
+        <v>506</v>
+      </c>
+      <c r="G105" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="G105" s="2" t="s">
+      <c r="H105" s="2" t="s">
         <v>508</v>
-      </c>
-      <c r="H105" s="2" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
@@ -5265,25 +5268,25 @@
         <v>44869</v>
       </c>
       <c r="B106" t="s">
+        <v>496</v>
+      </c>
+      <c r="C106" t="s">
         <v>497</v>
       </c>
-      <c r="C106" t="s">
-        <v>498</v>
-      </c>
       <c r="D106" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E106" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F106" s="32" t="s">
+        <v>521</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="H106" s="2" t="s">
         <v>522</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="H106" s="2" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
@@ -5291,25 +5294,25 @@
         <v>44876</v>
       </c>
       <c r="B107" t="s">
+        <v>494</v>
+      </c>
+      <c r="C107" t="s">
         <v>495</v>
       </c>
-      <c r="C107" t="s">
-        <v>496</v>
-      </c>
       <c r="D107" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E107" t="s">
         <v>77</v>
       </c>
       <c r="F107" s="33" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
@@ -5317,25 +5320,25 @@
         <v>44897</v>
       </c>
       <c r="B108" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C108" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D108" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E108" t="s">
         <v>76</v>
       </c>
       <c r="F108" s="32" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G108" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="H108" s="2" t="s">
         <v>512</v>
-      </c>
-      <c r="H108" s="2" t="s">
-        <v>513</v>
       </c>
       <c r="I108" s="23"/>
     </row>
@@ -5347,26 +5350,26 @@
         <v>31</v>
       </c>
       <c r="C109" t="s">
+        <v>502</v>
+      </c>
+      <c r="D109" t="s">
         <v>503</v>
-      </c>
-      <c r="D109" t="s">
-        <v>504</v>
       </c>
       <c r="E109" t="s">
         <v>77</v>
       </c>
       <c r="F109" s="32" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G109" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="H109" s="2" t="s">
         <v>525</v>
-      </c>
-      <c r="H109" s="2" t="s">
-        <v>526</v>
       </c>
       <c r="I109" s="23"/>
       <c r="J109" s="29" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
@@ -5374,25 +5377,25 @@
         <v>44932</v>
       </c>
       <c r="B110" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C110" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D110" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E110" t="s">
         <v>74</v>
       </c>
       <c r="F110" s="32" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G110" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="H110" s="2" t="s">
         <v>537</v>
-      </c>
-      <c r="H110" s="2" t="s">
-        <v>538</v>
       </c>
       <c r="I110" s="23"/>
     </row>
@@ -5401,25 +5404,25 @@
         <v>44945</v>
       </c>
       <c r="B111" t="s">
+        <v>515</v>
+      </c>
+      <c r="C111" t="s">
         <v>516</v>
       </c>
-      <c r="C111" t="s">
-        <v>517</v>
-      </c>
       <c r="D111" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E111" t="s">
         <v>74</v>
       </c>
       <c r="F111" s="32" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G111" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="H111" s="2" t="s">
         <v>553</v>
-      </c>
-      <c r="H111" s="2" t="s">
-        <v>554</v>
       </c>
       <c r="I111" s="23"/>
     </row>
@@ -5431,22 +5434,22 @@
         <v>0</v>
       </c>
       <c r="C112" t="s">
+        <v>534</v>
+      </c>
+      <c r="D112" t="s">
         <v>535</v>
-      </c>
-      <c r="D112" t="s">
-        <v>536</v>
       </c>
       <c r="E112" t="s">
         <v>74</v>
       </c>
       <c r="F112" s="32" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G112" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="H112" s="2" t="s">
         <v>539</v>
-      </c>
-      <c r="H112" s="2" t="s">
-        <v>540</v>
       </c>
       <c r="I112" s="23"/>
     </row>
@@ -5458,19 +5461,19 @@
         <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D113" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E113" t="s">
         <v>77</v>
       </c>
       <c r="G113" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="H113" s="2" t="s">
         <v>544</v>
-      </c>
-      <c r="H113" s="2" t="s">
-        <v>545</v>
       </c>
       <c r="I113" s="23"/>
     </row>
@@ -5479,20 +5482,20 @@
         <v>44967</v>
       </c>
       <c r="B114" t="s">
+        <v>557</v>
+      </c>
+      <c r="C114" t="s">
+        <v>556</v>
+      </c>
+      <c r="D114" t="s">
         <v>558</v>
-      </c>
-      <c r="C114" t="s">
-        <v>557</v>
-      </c>
-      <c r="D114" t="s">
-        <v>559</v>
       </c>
       <c r="E114" t="s">
         <v>74</v>
       </c>
       <c r="I114" s="23"/>
       <c r="J114" s="8" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
@@ -5500,25 +5503,25 @@
         <v>44974</v>
       </c>
       <c r="B115" t="s">
+        <v>541</v>
+      </c>
+      <c r="C115" t="s">
+        <v>531</v>
+      </c>
+      <c r="D115" t="s">
+        <v>532</v>
+      </c>
+      <c r="E115" t="s">
+        <v>130</v>
+      </c>
+      <c r="F115" s="32" t="s">
         <v>542</v>
       </c>
-      <c r="C115" t="s">
-        <v>532</v>
-      </c>
-      <c r="D115" t="s">
-        <v>533</v>
-      </c>
-      <c r="E115" t="s">
-        <v>131</v>
-      </c>
-      <c r="F115" s="32" t="s">
-        <v>543</v>
-      </c>
       <c r="G115" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="H115" s="2" t="s">
         <v>555</v>
-      </c>
-      <c r="H115" s="2" t="s">
-        <v>556</v>
       </c>
       <c r="I115" s="23"/>
     </row>
@@ -5527,29 +5530,29 @@
         <v>44988</v>
       </c>
       <c r="B116" t="s">
+        <v>546</v>
+      </c>
+      <c r="C116" t="s">
         <v>547</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D116" t="s">
         <v>548</v>
-      </c>
-      <c r="D116" t="s">
-        <v>549</v>
       </c>
       <c r="E116" t="s">
         <v>77</v>
       </c>
       <c r="F116" s="32" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G116" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="H116" s="2" t="s">
         <v>562</v>
-      </c>
-      <c r="H116" s="2" t="s">
-        <v>563</v>
       </c>
       <c r="I116" s="23"/>
       <c r="J116" s="30" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
@@ -5560,22 +5563,22 @@
         <v>9</v>
       </c>
       <c r="C117" t="s">
+        <v>549</v>
+      </c>
+      <c r="D117" t="s">
         <v>550</v>
-      </c>
-      <c r="D117" t="s">
-        <v>551</v>
       </c>
       <c r="E117" t="s">
         <v>77</v>
       </c>
       <c r="F117" s="32" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G117" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="H117" s="2" t="s">
         <v>564</v>
-      </c>
-      <c r="H117" s="2" t="s">
-        <v>565</v>
       </c>
       <c r="I117" s="23"/>
       <c r="J117"/>
@@ -5585,25 +5588,25 @@
         <v>45016</v>
       </c>
       <c r="B118" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C118" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D118" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E118" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F118" s="32" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G118" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="H118" s="2" t="s">
         <v>566</v>
-      </c>
-      <c r="H118" s="2" t="s">
-        <v>567</v>
       </c>
       <c r="I118" s="23"/>
       <c r="J118" s="26"/>
@@ -5613,22 +5616,22 @@
         <v>45037</v>
       </c>
       <c r="B119" t="s">
+        <v>575</v>
+      </c>
+      <c r="C119" t="s">
         <v>576</v>
       </c>
-      <c r="C119" t="s">
-        <v>577</v>
-      </c>
       <c r="D119" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E119" t="s">
         <v>77</v>
       </c>
       <c r="G119" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="H119" s="2" t="s">
         <v>606</v>
-      </c>
-      <c r="H119" s="2" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -5639,25 +5642,25 @@
         <v>31</v>
       </c>
       <c r="C120" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D120" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E120" t="s">
         <v>77</v>
       </c>
       <c r="F120" s="32" t="s">
+        <v>588</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="J120" s="31" t="s">
         <v>589</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="H120" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="J120" s="31" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
@@ -5665,22 +5668,22 @@
         <v>45065</v>
       </c>
       <c r="B121" t="s">
+        <v>568</v>
+      </c>
+      <c r="C121" t="s">
         <v>569</v>
       </c>
-      <c r="C121" t="s">
-        <v>570</v>
-      </c>
       <c r="D121" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E121" t="s">
         <v>77</v>
       </c>
       <c r="G121" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="H121" s="2" t="s">
         <v>602</v>
-      </c>
-      <c r="H121" s="2" t="s">
-        <v>603</v>
       </c>
       <c r="I121" s="23"/>
     </row>
@@ -5692,19 +5695,19 @@
         <v>20</v>
       </c>
       <c r="C122" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D122" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E122" t="s">
         <v>74</v>
       </c>
       <c r="G122" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="H122" s="2" t="s">
         <v>600</v>
-      </c>
-      <c r="H122" s="2" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="53" customHeight="1" x14ac:dyDescent="0.2">
@@ -5712,25 +5715,25 @@
         <v>45086</v>
       </c>
       <c r="B123" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C123" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D123" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E123" t="s">
         <v>76</v>
       </c>
       <c r="G123" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="H123" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="H123" s="2" t="s">
-        <v>599</v>
-      </c>
       <c r="J123" s="8" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
@@ -5741,13 +5744,13 @@
         <v>65</v>
       </c>
       <c r="C124" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D124" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E124" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
@@ -5758,22 +5761,22 @@
         <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D125" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E125" t="s">
         <v>77</v>
       </c>
       <c r="F125" s="32" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G125" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="H125" s="2" t="s">
         <v>624</v>
-      </c>
-      <c r="H125" s="2" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
@@ -5781,22 +5784,22 @@
         <v>45121</v>
       </c>
       <c r="B126" t="s">
+        <v>572</v>
+      </c>
+      <c r="C126" t="s">
         <v>573</v>
       </c>
-      <c r="C126" t="s">
-        <v>574</v>
-      </c>
       <c r="D126" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E126" t="s">
         <v>74</v>
       </c>
       <c r="G126" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="H126" s="2" t="s">
         <v>622</v>
-      </c>
-      <c r="H126" s="2" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
@@ -5804,25 +5807,25 @@
         <v>45135</v>
       </c>
       <c r="B127" t="s">
+        <v>592</v>
+      </c>
+      <c r="C127" t="s">
         <v>593</v>
       </c>
-      <c r="C127" t="s">
-        <v>594</v>
-      </c>
       <c r="D127" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E127" t="s">
         <v>77</v>
       </c>
       <c r="F127" s="32" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G127" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H127" s="2" t="s">
         <v>620</v>
-      </c>
-      <c r="H127" s="2" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
@@ -5830,22 +5833,22 @@
         <v>45142</v>
       </c>
       <c r="B128" t="s">
+        <v>607</v>
+      </c>
+      <c r="C128" t="s">
         <v>608</v>
       </c>
-      <c r="C128" t="s">
-        <v>609</v>
-      </c>
       <c r="D128" t="s">
+        <v>616</v>
+      </c>
+      <c r="E128" t="s">
+        <v>343</v>
+      </c>
+      <c r="G128" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="E128" t="s">
-        <v>344</v>
-      </c>
-      <c r="G128" s="2" t="s">
+      <c r="H128" s="2" t="s">
         <v>618</v>
-      </c>
-      <c r="H128" s="2" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
@@ -5853,16 +5856,16 @@
         <v>45156</v>
       </c>
       <c r="B129" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C129" t="s">
+        <v>609</v>
+      </c>
+      <c r="D129" t="s">
         <v>610</v>
       </c>
-      <c r="D129" t="s">
-        <v>611</v>
-      </c>
       <c r="E129" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
@@ -5873,22 +5876,22 @@
         <v>0</v>
       </c>
       <c r="C130" t="s">
+        <v>612</v>
+      </c>
+      <c r="D130" t="s">
         <v>613</v>
-      </c>
-      <c r="D130" t="s">
-        <v>614</v>
       </c>
       <c r="E130" t="s">
         <v>74</v>
       </c>
       <c r="F130" s="33" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G130" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="H130" s="2" t="s">
         <v>636</v>
-      </c>
-      <c r="H130" s="2" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
@@ -5899,10 +5902,10 @@
         <v>15</v>
       </c>
       <c r="C131" t="s">
+        <v>614</v>
+      </c>
+      <c r="D131" t="s">
         <v>615</v>
-      </c>
-      <c r="D131" t="s">
-        <v>616</v>
       </c>
       <c r="E131" t="s">
         <v>74</v>
@@ -5914,25 +5917,25 @@
         <v>45212</v>
       </c>
       <c r="B132" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C132" t="s">
+        <v>626</v>
+      </c>
+      <c r="D132" t="s">
         <v>627</v>
       </c>
-      <c r="D132" t="s">
+      <c r="E132" t="s">
+        <v>130</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="J132" s="8" t="s">
         <v>628</v>
-      </c>
-      <c r="E132" t="s">
-        <v>131</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="H132" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="J132" s="8" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
@@ -5940,19 +5943,19 @@
         <v>45240</v>
       </c>
       <c r="B133" t="s">
+        <v>630</v>
+      </c>
+      <c r="C133" t="s">
         <v>631</v>
       </c>
-      <c r="C133" t="s">
-        <v>632</v>
-      </c>
       <c r="D133" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E133" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F133" s="33" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I133" s="23"/>
     </row>
@@ -5964,13 +5967,13 @@
         <v>4</v>
       </c>
       <c r="C134" t="s">
+        <v>637</v>
+      </c>
+      <c r="D134" t="s">
         <v>638</v>
       </c>
-      <c r="D134" t="s">
-        <v>639</v>
-      </c>
       <c r="E134" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I134" s="23"/>
     </row>
@@ -5982,22 +5985,22 @@
         <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D135" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E135" t="s">
         <v>77</v>
       </c>
       <c r="F135" s="37" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G135" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="H135" s="2" t="s">
         <v>652</v>
-      </c>
-      <c r="H135" s="2" t="s">
-        <v>653</v>
       </c>
       <c r="I135" s="23"/>
     </row>
@@ -6009,22 +6012,22 @@
         <v>31</v>
       </c>
       <c r="C136" t="s">
+        <v>639</v>
+      </c>
+      <c r="D136" t="s">
         <v>640</v>
-      </c>
-      <c r="D136" t="s">
-        <v>641</v>
       </c>
       <c r="E136" t="s">
         <v>77</v>
       </c>
       <c r="F136" s="32" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G136" s="32" t="s">
+        <v>649</v>
+      </c>
+      <c r="H136" s="2" t="s">
         <v>650</v>
-      </c>
-      <c r="H136" s="2" t="s">
-        <v>651</v>
       </c>
       <c r="I136" s="23"/>
     </row>
@@ -6033,25 +6036,25 @@
         <v>45324</v>
       </c>
       <c r="B137" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C137" t="s">
+        <v>642</v>
+      </c>
+      <c r="D137" t="s">
         <v>643</v>
       </c>
-      <c r="D137" t="s">
-        <v>644</v>
-      </c>
       <c r="E137" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F137" s="32" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G137" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="H137" s="2" t="s">
         <v>692</v>
-      </c>
-      <c r="H137" s="2" t="s">
-        <v>693</v>
       </c>
       <c r="I137" s="23"/>
     </row>
@@ -6060,25 +6063,25 @@
         <v>45345</v>
       </c>
       <c r="B138" t="s">
+        <v>665</v>
+      </c>
+      <c r="C138" t="s">
+        <v>644</v>
+      </c>
+      <c r="D138" t="s">
+        <v>157</v>
+      </c>
+      <c r="E138" t="s">
+        <v>130</v>
+      </c>
+      <c r="F138" s="32" t="s">
         <v>666</v>
       </c>
-      <c r="C138" t="s">
-        <v>645</v>
-      </c>
-      <c r="D138" t="s">
-        <v>158</v>
-      </c>
-      <c r="E138" t="s">
-        <v>131</v>
-      </c>
-      <c r="F138" s="32" t="s">
-        <v>667</v>
-      </c>
       <c r="G138" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="H138" s="2" t="s">
         <v>690</v>
-      </c>
-      <c r="H138" s="2" t="s">
-        <v>691</v>
       </c>
       <c r="I138" s="23"/>
     </row>
@@ -6087,25 +6090,25 @@
         <v>45352</v>
       </c>
       <c r="B139" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C139" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D139" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E139" t="s">
         <v>77</v>
       </c>
       <c r="F139" s="32" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G139" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="H139" s="2" t="s">
         <v>688</v>
-      </c>
-      <c r="H139" s="2" t="s">
-        <v>689</v>
       </c>
       <c r="I139" s="23"/>
     </row>
@@ -6114,25 +6117,25 @@
         <v>45359</v>
       </c>
       <c r="B140" t="s">
+        <v>655</v>
+      </c>
+      <c r="C140" t="s">
         <v>656</v>
       </c>
-      <c r="C140" t="s">
-        <v>657</v>
-      </c>
       <c r="D140" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E140" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F140" s="32" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="G140" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="H140" s="2" t="s">
         <v>686</v>
-      </c>
-      <c r="H140" s="2" t="s">
-        <v>687</v>
       </c>
       <c r="I140" s="23"/>
     </row>
@@ -6141,25 +6144,25 @@
         <v>45366</v>
       </c>
       <c r="B141" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C141" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D141" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E141" t="s">
         <v>77</v>
       </c>
       <c r="F141" s="32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="G141" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="H141" s="2" t="s">
         <v>684</v>
-      </c>
-      <c r="H141" s="2" t="s">
-        <v>685</v>
       </c>
       <c r="I141" s="23"/>
     </row>
@@ -6171,22 +6174,22 @@
         <v>31</v>
       </c>
       <c r="C142" t="s">
+        <v>661</v>
+      </c>
+      <c r="D142" t="s">
         <v>662</v>
-      </c>
-      <c r="D142" t="s">
-        <v>663</v>
       </c>
       <c r="E142" t="s">
         <v>77</v>
       </c>
       <c r="F142" s="32" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G142" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="H142" s="2" t="s">
         <v>682</v>
-      </c>
-      <c r="H142" s="2" t="s">
-        <v>683</v>
       </c>
       <c r="I142" s="23"/>
     </row>
@@ -6195,25 +6198,25 @@
         <v>45408</v>
       </c>
       <c r="B143" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C143" t="s">
+        <v>663</v>
+      </c>
+      <c r="D143" t="s">
         <v>664</v>
-      </c>
-      <c r="D143" t="s">
-        <v>665</v>
       </c>
       <c r="E143" t="s">
         <v>77</v>
       </c>
       <c r="F143" s="32" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="G143" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="H143" s="2" t="s">
         <v>680</v>
-      </c>
-      <c r="H143" s="2" t="s">
-        <v>681</v>
       </c>
       <c r="I143" s="23"/>
     </row>
@@ -6225,22 +6228,22 @@
         <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D144" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E144" t="s">
         <v>77</v>
       </c>
       <c r="F144" s="32" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G144" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="H144" s="2" t="s">
         <v>696</v>
-      </c>
-      <c r="H144" s="2" t="s">
-        <v>697</v>
       </c>
       <c r="I144" s="23"/>
     </row>
@@ -6249,22 +6252,22 @@
         <v>45436</v>
       </c>
       <c r="B145" t="s">
+        <v>669</v>
+      </c>
+      <c r="C145" t="s">
         <v>670</v>
       </c>
-      <c r="C145" t="s">
-        <v>671</v>
-      </c>
       <c r="D145" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E145" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G145" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="H145" s="2" t="s">
         <v>694</v>
-      </c>
-      <c r="H145" s="2" t="s">
-        <v>695</v>
       </c>
       <c r="I145" s="23"/>
     </row>
@@ -6273,19 +6276,25 @@
         <v>45450</v>
       </c>
       <c r="B146" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C146" t="s">
+        <v>671</v>
+      </c>
+      <c r="D146" t="s">
         <v>672</v>
-      </c>
-      <c r="D146" t="s">
-        <v>673</v>
       </c>
       <c r="E146" t="s">
         <v>77</v>
       </c>
       <c r="F146" s="32" t="s">
-        <v>698</v>
+        <v>697</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="H146" s="2" t="s">
+        <v>700</v>
       </c>
       <c r="I146" s="23"/>
     </row>
@@ -6300,14 +6309,12 @@
         <v>66</v>
       </c>
       <c r="D147" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E147" t="s">
-        <v>130</v>
-      </c>
-      <c r="I147" s="23">
-        <v>0.8125</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="I147" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>

--- a/alumni_seminars.xlsx
+++ b/alumni_seminars.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minhe/wulibeida79/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224E01EC-A434-0F4F-BE2E-E179AD7440E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37E8B74-5288-4445-9F9E-20564C1FFF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8340" yWindow="3360" windowWidth="51200" windowHeight="26600" xr2:uid="{700D315C-D919-4596-880F-1F597F7C3FD0}"/>
+    <workbookView xWindow="5520" yWindow="4440" windowWidth="51200" windowHeight="26600" xr2:uid="{700D315C-D919-4596-880F-1F597F7C3FD0}"/>
   </bookViews>
   <sheets>
     <sheet name="alumni_seminars" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="724">
   <si>
     <t>贺敏</t>
   </si>
@@ -2146,6 +2146,75 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1hUSNRk8mPKnNwKGIdylBcTKVWFtc9HN9/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>万维钢</t>
+  </si>
+  <si>
+    <t>AI 奇点降至？</t>
+  </si>
+  <si>
+    <t>比才和他的歌剧《卡门》</t>
+  </si>
+  <si>
+    <t>Surprise Topic</t>
+  </si>
+  <si>
+    <t>img/AI奇点.jpg</t>
+  </si>
+  <si>
+    <t>img/Opera-Carmen.jpg</t>
+  </si>
+  <si>
+    <t>img/suprise.jpg</t>
+  </si>
+  <si>
+    <t>img/jazz.jpg</t>
+  </si>
+  <si>
+    <t>National Association of Realtors Settlement and Impacts</t>
+  </si>
+  <si>
+    <t>img/NAR-settlement-impact.jpg</t>
+  </si>
+  <si>
+    <t>Upcoming</t>
+  </si>
+  <si>
+    <t>李惠南</t>
+  </si>
+  <si>
+    <t>老年痴呆和干细胞研究最新进展</t>
+  </si>
+  <si>
+    <t>Jazz， Ultimate American Art Form 1:  an Emotion Conduit</t>
+  </si>
+  <si>
+    <t>物理博士， 著名科普畅销书作家，得到APP《精英日课》专栏作家</t>
+  </si>
+  <si>
+    <t>Group lead in Neuroscience, UCSF基因筛查中心， 分别师从老年痴呆研究和干细胞研究获得者</t>
+  </si>
+  <si>
+    <t>img/stemcells.jpg</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/15E2JeMmO88Uq6BTzopYpKA53qP-Wt3wC/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1bVpg6sKSiF6s-sWR2xa5yLrzFH702mOv/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1tsBLYmPLeryg6eZnkbqjSFWZumnHLA6v/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/17kWjulICpxc-TtfSNyCA2UO-0Vutg5rU/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1bAEN5lZrCAwWrvQwrCsCdt2ChYOJud5A/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/12q6WI1EzH89J5bGpXVNpkATvK1v8Y2Se/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -2725,10 +2794,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{125ED64C-CBBF-451D-8A64-D0747896E26B}">
-  <dimension ref="A1:J147"/>
+  <dimension ref="A1:J153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="A147" sqref="A147:XFD147"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="A151" sqref="A151:XFD151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6247,7 +6316,7 @@
       </c>
       <c r="I144" s="23"/>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>45436</v>
       </c>
@@ -6271,7 +6340,7 @@
       </c>
       <c r="I145" s="23"/>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>45450</v>
       </c>
@@ -6298,7 +6367,7 @@
       </c>
       <c r="I146" s="23"/>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>45457</v>
       </c>
@@ -6315,6 +6384,144 @@
         <v>77</v>
       </c>
       <c r="I147" s="23"/>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A148" s="1">
+        <v>45499</v>
+      </c>
+      <c r="B148" t="s">
+        <v>701</v>
+      </c>
+      <c r="C148" t="s">
+        <v>702</v>
+      </c>
+      <c r="D148" t="s">
+        <v>705</v>
+      </c>
+      <c r="E148" t="s">
+        <v>74</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="I148" s="23"/>
+      <c r="J148" s="8" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A149" s="1">
+        <v>45513</v>
+      </c>
+      <c r="B149" t="s">
+        <v>592</v>
+      </c>
+      <c r="C149" t="s">
+        <v>703</v>
+      </c>
+      <c r="D149" t="s">
+        <v>706</v>
+      </c>
+      <c r="E149" t="s">
+        <v>77</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="I149" s="23"/>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A150" s="1">
+        <v>45527</v>
+      </c>
+      <c r="B150" t="s">
+        <v>46</v>
+      </c>
+      <c r="C150" t="s">
+        <v>704</v>
+      </c>
+      <c r="D150" t="s">
+        <v>707</v>
+      </c>
+      <c r="E150" t="s">
+        <v>130</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="H150" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="I150" s="23"/>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A151" s="1">
+        <v>45541</v>
+      </c>
+      <c r="B151" t="s">
+        <v>8</v>
+      </c>
+      <c r="C151" t="s">
+        <v>709</v>
+      </c>
+      <c r="D151" t="s">
+        <v>710</v>
+      </c>
+      <c r="E151" t="s">
+        <v>711</v>
+      </c>
+      <c r="I151" s="23">
+        <v>0.8125</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A152" s="1">
+        <v>45549</v>
+      </c>
+      <c r="B152" t="s">
+        <v>712</v>
+      </c>
+      <c r="C152" t="s">
+        <v>713</v>
+      </c>
+      <c r="D152" t="s">
+        <v>717</v>
+      </c>
+      <c r="E152" t="s">
+        <v>711</v>
+      </c>
+      <c r="I152" s="23">
+        <v>0.8125</v>
+      </c>
+      <c r="J152" s="8" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A153" s="1">
+        <v>45555</v>
+      </c>
+      <c r="B153" t="s">
+        <v>31</v>
+      </c>
+      <c r="C153" t="s">
+        <v>714</v>
+      </c>
+      <c r="D153" t="s">
+        <v>708</v>
+      </c>
+      <c r="E153" t="s">
+        <v>711</v>
+      </c>
+      <c r="I153" s="23">
+        <v>0.8125</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>

--- a/alumni_seminars.xlsx
+++ b/alumni_seminars.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minhe/wulibeida79/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37E8B74-5288-4445-9F9E-20564C1FFF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77B01E8-B62D-BB44-BB03-D4E003E2D403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5520" yWindow="4440" windowWidth="51200" windowHeight="26600" xr2:uid="{700D315C-D919-4596-880F-1F597F7C3FD0}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="725">
   <si>
     <t>贺敏</t>
   </si>
@@ -2215,6 +2215,9 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/12q6WI1EzH89J5bGpXVNpkATvK1v8Y2Se/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/138KoqMJ1QrnO7zjsMOLWaL5P3U8eWB1I/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -2797,7 +2800,7 @@
   <dimension ref="A1:J153"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A106" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="A151" sqref="A151:XFD151"/>
+      <selection activeCell="F151" sqref="F151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6451,6 +6454,9 @@
       </c>
       <c r="E150" t="s">
         <v>130</v>
+      </c>
+      <c r="F150" s="32" t="s">
+        <v>724</v>
       </c>
       <c r="G150" s="2" t="s">
         <v>722</v>

--- a/alumni_seminars.xlsx
+++ b/alumni_seminars.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minhe/wulibeida79/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77B01E8-B62D-BB44-BB03-D4E003E2D403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12940ECA-A201-734A-801D-7EA2957FD58C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5520" yWindow="4440" windowWidth="51200" windowHeight="26600" xr2:uid="{700D315C-D919-4596-880F-1F597F7C3FD0}"/>
+    <workbookView xWindow="3220" yWindow="2140" windowWidth="51200" windowHeight="26600" xr2:uid="{700D315C-D919-4596-880F-1F597F7C3FD0}"/>
   </bookViews>
   <sheets>
     <sheet name="alumni_seminars" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="734">
   <si>
     <t>贺敏</t>
   </si>
@@ -2218,6 +2218,33 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/138KoqMJ1QrnO7zjsMOLWaL5P3U8eWB1I/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Dave Vrane</t>
+  </si>
+  <si>
+    <t>历史15: 以色列历史-1</t>
+  </si>
+  <si>
+    <t>历史16:以色列历史-2</t>
+  </si>
+  <si>
+    <t>退休后旅居生活， 从沿海到边陲，从繁华到中国最大无人区</t>
+  </si>
+  <si>
+    <t>Recreational Auto Racing</t>
+  </si>
+  <si>
+    <t>img/israel_his_1.jpg</t>
+  </si>
+  <si>
+    <t>img/israel_history.jpg</t>
+  </si>
+  <si>
+    <t>img/roadtrip.jpg</t>
+  </si>
+  <si>
+    <t>img/auto_racing.jpg</t>
   </si>
 </sst>
 </file>
@@ -2797,10 +2824,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{125ED64C-CBBF-451D-8A64-D0747896E26B}">
-  <dimension ref="A1:J153"/>
+  <dimension ref="A1:J157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="F151" sqref="F151"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="E152" sqref="E152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6480,11 +6507,9 @@
         <v>710</v>
       </c>
       <c r="E151" t="s">
-        <v>711</v>
-      </c>
-      <c r="I151" s="23">
-        <v>0.8125</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="I151" s="23"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
@@ -6500,11 +6525,9 @@
         <v>717</v>
       </c>
       <c r="E152" t="s">
-        <v>711</v>
-      </c>
-      <c r="I152" s="23">
-        <v>0.8125</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="I152" s="23"/>
       <c r="J152" s="8" t="s">
         <v>716</v>
       </c>
@@ -6526,6 +6549,86 @@
         <v>711</v>
       </c>
       <c r="I153" s="23">
+        <v>0.8125</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A154" s="1">
+        <v>45569</v>
+      </c>
+      <c r="B154" t="s">
+        <v>197</v>
+      </c>
+      <c r="C154" t="s">
+        <v>726</v>
+      </c>
+      <c r="D154" t="s">
+        <v>730</v>
+      </c>
+      <c r="E154" t="s">
+        <v>711</v>
+      </c>
+      <c r="I154" s="23">
+        <v>0.8125</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A155" s="1">
+        <v>45583</v>
+      </c>
+      <c r="B155" t="s">
+        <v>197</v>
+      </c>
+      <c r="C155" t="s">
+        <v>727</v>
+      </c>
+      <c r="D155" t="s">
+        <v>731</v>
+      </c>
+      <c r="E155" t="s">
+        <v>711</v>
+      </c>
+      <c r="I155" s="23">
+        <v>0.8125</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A156" s="1">
+        <v>45597</v>
+      </c>
+      <c r="B156" t="s">
+        <v>494</v>
+      </c>
+      <c r="C156" t="s">
+        <v>728</v>
+      </c>
+      <c r="D156" t="s">
+        <v>732</v>
+      </c>
+      <c r="E156" t="s">
+        <v>711</v>
+      </c>
+      <c r="I156" s="23">
+        <v>0.8125</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A157" s="1">
+        <v>45611</v>
+      </c>
+      <c r="B157" t="s">
+        <v>725</v>
+      </c>
+      <c r="C157" t="s">
+        <v>729</v>
+      </c>
+      <c r="D157" t="s">
+        <v>733</v>
+      </c>
+      <c r="E157" t="s">
+        <v>711</v>
+      </c>
+      <c r="I157" s="23">
         <v>0.8125</v>
       </c>
     </row>

--- a/alumni_seminars.xlsx
+++ b/alumni_seminars.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minhe/wulibeida79/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12940ECA-A201-734A-801D-7EA2957FD58C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78191C79-5B6A-4C42-B065-D8001346F04F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3220" yWindow="2140" windowWidth="51200" windowHeight="26600" xr2:uid="{700D315C-D919-4596-880F-1F597F7C3FD0}"/>
+    <workbookView xWindow="7340" yWindow="580" windowWidth="51200" windowHeight="26600" xr2:uid="{700D315C-D919-4596-880F-1F597F7C3FD0}"/>
   </bookViews>
   <sheets>
     <sheet name="alumni_seminars" sheetId="1" r:id="rId1"/>
@@ -2187,9 +2187,6 @@
     <t>老年痴呆和干细胞研究最新进展</t>
   </si>
   <si>
-    <t>Jazz， Ultimate American Art Form 1:  an Emotion Conduit</t>
-  </si>
-  <si>
     <t>物理博士， 著名科普畅销书作家，得到APP《精英日课》专栏作家</t>
   </si>
   <si>
@@ -2229,9 +2226,6 @@
     <t>历史16:以色列历史-2</t>
   </si>
   <si>
-    <t>退休后旅居生活， 从沿海到边陲，从繁华到中国最大无人区</t>
-  </si>
-  <si>
     <t>Recreational Auto Racing</t>
   </si>
   <si>
@@ -2241,10 +2235,16 @@
     <t>img/israel_history.jpg</t>
   </si>
   <si>
-    <t>img/roadtrip.jpg</t>
-  </si>
-  <si>
     <t>img/auto_racing.jpg</t>
+  </si>
+  <si>
+    <t>Jazz， the Ultimate American Art Form 1:  an Emotion Conduit</t>
+  </si>
+  <si>
+    <t>Jazz, the Ultimate American Art Form 2: a Freedom Rider</t>
+  </si>
+  <si>
+    <t>img/jazz2.jpg</t>
   </si>
 </sst>
 </file>
@@ -2826,8 +2826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{125ED64C-CBBF-451D-8A64-D0747896E26B}">
   <dimension ref="A1:J157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="E152" sqref="E152"/>
+    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="D156" sqref="D156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6432,14 +6432,14 @@
         <v>74</v>
       </c>
       <c r="G148" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="H148" s="2" t="s">
         <v>718</v>
-      </c>
-      <c r="H148" s="2" t="s">
-        <v>719</v>
       </c>
       <c r="I148" s="23"/>
       <c r="J148" s="8" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.2">
@@ -6459,10 +6459,10 @@
         <v>77</v>
       </c>
       <c r="G149" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="H149" s="2" t="s">
         <v>720</v>
-      </c>
-      <c r="H149" s="2" t="s">
-        <v>721</v>
       </c>
       <c r="I149" s="23"/>
     </row>
@@ -6483,13 +6483,13 @@
         <v>130</v>
       </c>
       <c r="F150" s="32" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G150" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="H150" s="2" t="s">
         <v>722</v>
-      </c>
-      <c r="H150" s="2" t="s">
-        <v>723</v>
       </c>
       <c r="I150" s="23"/>
     </row>
@@ -6522,14 +6522,14 @@
         <v>713</v>
       </c>
       <c r="D152" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E152" t="s">
         <v>179</v>
       </c>
       <c r="I152" s="23"/>
       <c r="J152" s="8" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.2">
@@ -6540,7 +6540,7 @@
         <v>31</v>
       </c>
       <c r="C153" t="s">
-        <v>714</v>
+        <v>731</v>
       </c>
       <c r="D153" t="s">
         <v>708</v>
@@ -6560,10 +6560,10 @@
         <v>197</v>
       </c>
       <c r="C154" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D154" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="E154" t="s">
         <v>711</v>
@@ -6580,10 +6580,10 @@
         <v>197</v>
       </c>
       <c r="C155" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D155" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="E155" t="s">
         <v>711</v>
@@ -6597,13 +6597,13 @@
         <v>45597</v>
       </c>
       <c r="B156" t="s">
-        <v>494</v>
+        <v>31</v>
       </c>
       <c r="C156" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="D156" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="E156" t="s">
         <v>711</v>
@@ -6617,13 +6617,13 @@
         <v>45611</v>
       </c>
       <c r="B157" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C157" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D157" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="E157" t="s">
         <v>711</v>

--- a/alumni_seminars.xlsx
+++ b/alumni_seminars.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minhe/wulibeida79/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78191C79-5B6A-4C42-B065-D8001346F04F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD3E230-4645-354A-83DB-682952DF7F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7340" yWindow="580" windowWidth="51200" windowHeight="26600" xr2:uid="{700D315C-D919-4596-880F-1F597F7C3FD0}"/>
+    <workbookView xWindow="2160" yWindow="500" windowWidth="51200" windowHeight="26600" xr2:uid="{700D315C-D919-4596-880F-1F597F7C3FD0}"/>
   </bookViews>
   <sheets>
     <sheet name="alumni_seminars" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="739">
   <si>
     <t>贺敏</t>
   </si>
@@ -2181,18 +2181,12 @@
     <t>Upcoming</t>
   </si>
   <si>
-    <t>李惠南</t>
-  </si>
-  <si>
     <t>老年痴呆和干细胞研究最新进展</t>
   </si>
   <si>
     <t>物理博士， 著名科普畅销书作家，得到APP《精英日课》专栏作家</t>
   </si>
   <si>
-    <t>Group lead in Neuroscience, UCSF基因筛查中心， 分别师从老年痴呆研究和干细胞研究获得者</t>
-  </si>
-  <si>
     <t>img/stemcells.jpg</t>
   </si>
   <si>
@@ -2245,6 +2239,27 @@
   </si>
   <si>
     <t>img/jazz2.jpg</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1gF0yns8Z-adP0_bRPHtRIe_sgAHGC09Y/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/16EJyaUK9831twf4ll7ojmET_dG0CfM3z/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1XxnSR5Gvvg744zjIJp-g_6IcEjspNv1i/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1imzHHxtrqU6HH2Ugm1Hpvqcv3P0q0Ont/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/1kjyX0wIGj-sjcAHYLY-NNhSr2-n4u82S/edit?usp=sharing&amp;ouid=118189640657796082890&amp;rtpof=true&amp;sd=true</t>
+  </si>
+  <si>
+    <t>李惠男 （Marcus Li， Ph D）</t>
+  </si>
+  <si>
+    <t>Group lead in Neuroscience, UCSF基因筛查中心， 从事老年痴呆研究和干细胞研究， 师从两个领域的诺贝尔奖获得者</t>
   </si>
 </sst>
 </file>
@@ -2827,7 +2842,7 @@
   <dimension ref="A1:J157"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A98" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="D156" sqref="D156"/>
+      <selection activeCell="J152" sqref="J152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6432,14 +6447,14 @@
         <v>74</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="I148" s="23"/>
       <c r="J148" s="8" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.2">
@@ -6459,10 +6474,10 @@
         <v>77</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="I149" s="23"/>
     </row>
@@ -6483,13 +6498,13 @@
         <v>130</v>
       </c>
       <c r="F150" s="32" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="I150" s="23"/>
     </row>
@@ -6516,20 +6531,29 @@
         <v>45549</v>
       </c>
       <c r="B152" t="s">
+        <v>737</v>
+      </c>
+      <c r="C152" t="s">
         <v>712</v>
       </c>
-      <c r="C152" t="s">
-        <v>713</v>
-      </c>
       <c r="D152" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E152" t="s">
         <v>179</v>
       </c>
+      <c r="F152" s="32" t="s">
+        <v>736</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="H152" s="2" t="s">
+        <v>735</v>
+      </c>
       <c r="I152" s="23"/>
       <c r="J152" s="8" t="s">
-        <v>715</v>
+        <v>738</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.2">
@@ -6540,17 +6564,21 @@
         <v>31</v>
       </c>
       <c r="C153" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D153" t="s">
         <v>708</v>
       </c>
       <c r="E153" t="s">
-        <v>711</v>
-      </c>
-      <c r="I153" s="23">
-        <v>0.8125</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G153" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="H153" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="I153" s="23"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
@@ -6560,10 +6588,10 @@
         <v>197</v>
       </c>
       <c r="C154" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D154" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="E154" t="s">
         <v>711</v>
@@ -6580,10 +6608,10 @@
         <v>197</v>
       </c>
       <c r="C155" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="D155" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="E155" t="s">
         <v>711</v>
@@ -6600,14 +6628,15 @@
         <v>31</v>
       </c>
       <c r="C156" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D156" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="E156" t="s">
         <v>711</v>
       </c>
+      <c r="G156" s="3"/>
       <c r="I156" s="23">
         <v>0.8125</v>
       </c>
@@ -6617,13 +6646,13 @@
         <v>45611</v>
       </c>
       <c r="B157" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C157" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D157" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="E157" t="s">
         <v>711</v>
@@ -6670,8 +6699,9 @@
     <hyperlink ref="F130" r:id="rId33" xr:uid="{D1C67818-5805-174B-8A82-E05536194B69}"/>
     <hyperlink ref="F135" r:id="rId34" xr:uid="{8F2496B3-A0DB-4143-981E-C7B1CEE28943}"/>
     <hyperlink ref="F133" r:id="rId35" xr:uid="{F9AA8D70-0763-344D-9939-8E687C6CCC2F}"/>
+    <hyperlink ref="G153" r:id="rId36" xr:uid="{DAA35664-8242-174C-9E8D-70693D95DCA5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId36"/>
+  <pageSetup orientation="portrait" r:id="rId37"/>
 </worksheet>
 </file>
--- a/alumni_seminars.xlsx
+++ b/alumni_seminars.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minhe/wulibeida79/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD3E230-4645-354A-83DB-682952DF7F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3A69F5-F6F1-7B41-A95C-12309D75B039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="500" windowWidth="51200" windowHeight="26600" xr2:uid="{700D315C-D919-4596-880F-1F597F7C3FD0}"/>
+    <workbookView xWindow="8140" yWindow="620" windowWidth="51200" windowHeight="26600" xr2:uid="{700D315C-D919-4596-880F-1F597F7C3FD0}"/>
   </bookViews>
   <sheets>
     <sheet name="alumni_seminars" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="740">
   <si>
     <t>贺敏</t>
   </si>
@@ -2260,6 +2260,9 @@
   </si>
   <si>
     <t>Group lead in Neuroscience, UCSF基因筛查中心， 从事老年痴呆研究和干细胞研究， 师从两个领域的诺贝尔奖获得者</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Kyoh20X85l7786qwz5eId_FodzU84KzQ/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -2842,7 +2845,7 @@
   <dimension ref="A1:J157"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A98" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="J152" sqref="J152"/>
+      <selection activeCell="F154" sqref="F154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6571,6 +6574,9 @@
       </c>
       <c r="E153" t="s">
         <v>77</v>
+      </c>
+      <c r="F153" s="32" t="s">
+        <v>739</v>
       </c>
       <c r="G153" s="3" t="s">
         <v>732</v>

--- a/alumni_seminars.xlsx
+++ b/alumni_seminars.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minhe/wulibeida79/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3A69F5-F6F1-7B41-A95C-12309D75B039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B40AFE-CB65-C34B-8CD6-692B791565B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8140" yWindow="620" windowWidth="51200" windowHeight="26600" xr2:uid="{700D315C-D919-4596-880F-1F597F7C3FD0}"/>
+    <workbookView xWindow="4720" yWindow="840" windowWidth="51200" windowHeight="26600" xr2:uid="{700D315C-D919-4596-880F-1F597F7C3FD0}"/>
   </bookViews>
   <sheets>
     <sheet name="alumni_seminars" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="743">
   <si>
     <t>贺敏</t>
   </si>
@@ -2263,6 +2263,15 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1Kyoh20X85l7786qwz5eId_FodzU84KzQ/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1rEd0Re54mz0enuj8bCiFh3rwHA47XfCu/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1uefrX2lyhdhbPOps9usCFw6t-VgdoGl6/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1CZpHaEYBZdiKOZ7tkSodUJ1MrwApP0BF/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -2845,7 +2854,7 @@
   <dimension ref="A1:J157"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A98" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="F154" sqref="F154"/>
+      <selection activeCell="H154" sqref="H154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6600,11 +6609,18 @@
         <v>726</v>
       </c>
       <c r="E154" t="s">
-        <v>711</v>
-      </c>
-      <c r="I154" s="23">
-        <v>0.8125</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="F154" s="32" t="s">
+        <v>740</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="H154" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="I154" s="23"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
@@ -6706,8 +6722,9 @@
     <hyperlink ref="F135" r:id="rId34" xr:uid="{8F2496B3-A0DB-4143-981E-C7B1CEE28943}"/>
     <hyperlink ref="F133" r:id="rId35" xr:uid="{F9AA8D70-0763-344D-9939-8E687C6CCC2F}"/>
     <hyperlink ref="G153" r:id="rId36" xr:uid="{DAA35664-8242-174C-9E8D-70693D95DCA5}"/>
+    <hyperlink ref="H154" r:id="rId37" xr:uid="{D207DB7E-0908-6741-A838-3D8B434F932B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId37"/>
+  <pageSetup orientation="portrait" r:id="rId38"/>
 </worksheet>
 </file>
--- a/alumni_seminars.xlsx
+++ b/alumni_seminars.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minhe/wulibeida79/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B40AFE-CB65-C34B-8CD6-692B791565B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2FC871-0FFF-C34B-B21F-4DFAC1FFFF41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4720" yWindow="840" windowWidth="51200" windowHeight="26600" xr2:uid="{700D315C-D919-4596-880F-1F597F7C3FD0}"/>
+    <workbookView xWindow="5120" yWindow="1960" windowWidth="51200" windowHeight="26600" xr2:uid="{700D315C-D919-4596-880F-1F597F7C3FD0}"/>
   </bookViews>
   <sheets>
     <sheet name="alumni_seminars" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="748">
   <si>
     <t>贺敏</t>
   </si>
@@ -2223,12 +2223,6 @@
     <t>Recreational Auto Racing</t>
   </si>
   <si>
-    <t>img/israel_his_1.jpg</t>
-  </si>
-  <si>
-    <t>img/israel_history.jpg</t>
-  </si>
-  <si>
     <t>img/auto_racing.jpg</t>
   </si>
   <si>
@@ -2272,6 +2266,27 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1CZpHaEYBZdiKOZ7tkSodUJ1MrwApP0BF/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1cU45JweWvdkd6LJp5hCnVBMi9h__ZSVt/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1uDHn-1NvaKcAkOGJE2sqlie1-sKXwwmi/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1vveFppofSbpCfcvUDZFxcApRvjnlfxwZ/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>天文 3</t>
+  </si>
+  <si>
+    <t>img/astronomy3.jpg</t>
+  </si>
+  <si>
+    <t>img/israelhistory_1.jpg</t>
+  </si>
+  <si>
+    <t>img/israelhistory_2.jpg</t>
   </si>
 </sst>
 </file>
@@ -2851,10 +2866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{125ED64C-CBBF-451D-8A64-D0747896E26B}">
-  <dimension ref="A1:J157"/>
+  <dimension ref="A1:J158"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A98" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="H154" sqref="H154"/>
+      <selection activeCell="D156" sqref="D156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6543,7 +6558,7 @@
         <v>45549</v>
       </c>
       <c r="B152" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C152" t="s">
         <v>712</v>
@@ -6555,17 +6570,17 @@
         <v>179</v>
       </c>
       <c r="F152" s="32" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="I152" s="23"/>
       <c r="J152" s="8" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.2">
@@ -6576,7 +6591,7 @@
         <v>31</v>
       </c>
       <c r="C153" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D153" t="s">
         <v>708</v>
@@ -6585,13 +6600,13 @@
         <v>77</v>
       </c>
       <c r="F153" s="32" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="I153" s="23"/>
     </row>
@@ -6606,19 +6621,19 @@
         <v>723</v>
       </c>
       <c r="D154" t="s">
-        <v>726</v>
+        <v>746</v>
       </c>
       <c r="E154" t="s">
         <v>76</v>
       </c>
       <c r="F154" s="32" t="s">
+        <v>738</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="H154" s="3" t="s">
         <v>740</v>
-      </c>
-      <c r="G154" s="2" t="s">
-        <v>741</v>
-      </c>
-      <c r="H154" s="3" t="s">
-        <v>742</v>
       </c>
       <c r="I154" s="23"/>
     </row>
@@ -6633,14 +6648,21 @@
         <v>724</v>
       </c>
       <c r="D155" t="s">
-        <v>727</v>
+        <v>747</v>
       </c>
       <c r="E155" t="s">
-        <v>711</v>
-      </c>
-      <c r="I155" s="23">
-        <v>0.8125</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="F155" s="32" t="s">
+        <v>743</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="H155" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="I155" s="23"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
@@ -6650,10 +6672,10 @@
         <v>31</v>
       </c>
       <c r="C156" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D156" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="E156" t="s">
         <v>711</v>
@@ -6674,12 +6696,32 @@
         <v>725</v>
       </c>
       <c r="D157" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="E157" t="s">
         <v>711</v>
       </c>
       <c r="I157" s="23">
+        <v>0.8125</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A158" s="1">
+        <v>45639</v>
+      </c>
+      <c r="B158" t="s">
+        <v>8</v>
+      </c>
+      <c r="C158" t="s">
+        <v>744</v>
+      </c>
+      <c r="D158" t="s">
+        <v>745</v>
+      </c>
+      <c r="E158" t="s">
+        <v>711</v>
+      </c>
+      <c r="I158" s="23">
         <v>0.8125</v>
       </c>
     </row>

--- a/alumni_seminars.xlsx
+++ b/alumni_seminars.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minhe/wulibeida79/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2FC871-0FFF-C34B-B21F-4DFAC1FFFF41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9A39F1-A7BB-9943-BFE1-06D3EEEF71C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5120" yWindow="1960" windowWidth="51200" windowHeight="26600" xr2:uid="{700D315C-D919-4596-880F-1F597F7C3FD0}"/>
+    <workbookView xWindow="12940" yWindow="4540" windowWidth="51200" windowHeight="26600" xr2:uid="{700D315C-D919-4596-880F-1F597F7C3FD0}"/>
   </bookViews>
   <sheets>
     <sheet name="alumni_seminars" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="759">
   <si>
     <t>贺敏</t>
   </si>
@@ -2287,6 +2287,39 @@
   </si>
   <si>
     <t>img/israelhistory_2.jpg</t>
+  </si>
+  <si>
+    <t>退休后的旅居生活， 从沿海到边陲， 从繁华到中国最大的无人区</t>
+  </si>
+  <si>
+    <t>古寨静谧如画卷，寻访村民烟火间</t>
+  </si>
+  <si>
+    <t>Nicole He （贺敏女儿）</t>
+  </si>
+  <si>
+    <t>My Journey to become an indie game creative director</t>
+  </si>
+  <si>
+    <t>回忆赵凯华老师和我们度过的岁月</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1LmHG8xGkfzdHotG3otUN5AWNG35KFKi4/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1WJ50WB2SARj-GEoFfLJQCuFgqsnqXZJr/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1DN3BZNtkXseE0CxtWLzmePr_5Npwn_gQ/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>img/旅居生活.jpg</t>
+  </si>
+  <si>
+    <t>img/古寨.jpg</t>
+  </si>
+  <si>
+    <t>img/crush_house_2.jpg</t>
   </si>
 </sst>
 </file>
@@ -2866,10 +2899,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{125ED64C-CBBF-451D-8A64-D0747896E26B}">
-  <dimension ref="A1:J158"/>
+  <dimension ref="A1:J162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="D156" sqref="D156"/>
+    <sheetView tabSelected="1" topLeftCell="A135" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="I163" sqref="I163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6678,12 +6711,18 @@
         <v>729</v>
       </c>
       <c r="E156" t="s">
-        <v>711</v>
-      </c>
-      <c r="G156" s="3"/>
-      <c r="I156" s="23">
-        <v>0.8125</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="F156" s="32" t="s">
+        <v>753</v>
+      </c>
+      <c r="G156" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="H156" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="I156" s="23"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
@@ -6699,29 +6738,105 @@
         <v>726</v>
       </c>
       <c r="E157" t="s">
-        <v>711</v>
-      </c>
-      <c r="I157" s="23">
-        <v>0.8125</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="I157" s="23"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
+        <v>45618</v>
+      </c>
+      <c r="B158" t="s">
+        <v>65</v>
+      </c>
+      <c r="C158" t="s">
+        <v>752</v>
+      </c>
+      <c r="D158" t="s">
+        <v>437</v>
+      </c>
+      <c r="E158" t="s">
+        <v>130</v>
+      </c>
+      <c r="I158" s="23"/>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A159" s="1">
         <v>45639</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B159" t="s">
+        <v>494</v>
+      </c>
+      <c r="C159" t="s">
+        <v>748</v>
+      </c>
+      <c r="D159" t="s">
+        <v>756</v>
+      </c>
+      <c r="E159" t="s">
+        <v>711</v>
+      </c>
+      <c r="I159" s="23">
+        <v>0.8125</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A160" s="1">
+        <v>45667</v>
+      </c>
+      <c r="B160" t="s">
+        <v>2</v>
+      </c>
+      <c r="C160" t="s">
+        <v>749</v>
+      </c>
+      <c r="D160" t="s">
+        <v>757</v>
+      </c>
+      <c r="E160" t="s">
+        <v>711</v>
+      </c>
+      <c r="I160" s="23">
+        <v>0.8125</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A161" s="1">
+        <v>45681</v>
+      </c>
+      <c r="B161" t="s">
         <v>8</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C161" t="s">
         <v>744</v>
       </c>
-      <c r="D158" t="s">
+      <c r="D161" t="s">
         <v>745</v>
       </c>
-      <c r="E158" t="s">
+      <c r="E161" t="s">
         <v>711</v>
       </c>
-      <c r="I158" s="23">
+      <c r="I161" s="23">
+        <v>0.8125</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A162" s="1">
+        <v>45695</v>
+      </c>
+      <c r="B162" t="s">
+        <v>750</v>
+      </c>
+      <c r="C162" t="s">
+        <v>751</v>
+      </c>
+      <c r="D162" t="s">
+        <v>758</v>
+      </c>
+      <c r="E162" t="s">
+        <v>711</v>
+      </c>
+      <c r="I162" s="23">
         <v>0.8125</v>
       </c>
     </row>

--- a/alumni_seminars.xlsx
+++ b/alumni_seminars.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minhe/wulibeida79/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9A39F1-A7BB-9943-BFE1-06D3EEEF71C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9145FB6-C037-724D-BA54-767724F05207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12940" yWindow="4540" windowWidth="51200" windowHeight="26600" xr2:uid="{700D315C-D919-4596-880F-1F597F7C3FD0}"/>
+    <workbookView xWindow="7140" yWindow="4820" windowWidth="51200" windowHeight="26600" xr2:uid="{700D315C-D919-4596-880F-1F597F7C3FD0}"/>
   </bookViews>
   <sheets>
     <sheet name="alumni_seminars" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="760">
   <si>
     <t>贺敏</t>
   </si>
@@ -2320,6 +2320,9 @@
   </si>
   <si>
     <t>img/crush_house_2.jpg</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Lwskc23BNRQ4S6KECppFUz8sKtODtVPy/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -2902,7 +2905,7 @@
   <dimension ref="A1:J162"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A135" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="I163" sqref="I163"/>
+      <selection activeCell="F158" sqref="F158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6739,6 +6742,9 @@
       </c>
       <c r="E157" t="s">
         <v>77</v>
+      </c>
+      <c r="F157" s="33" t="s">
+        <v>759</v>
       </c>
       <c r="I157" s="23"/>
     </row>
@@ -6880,8 +6886,9 @@
     <hyperlink ref="F133" r:id="rId35" xr:uid="{F9AA8D70-0763-344D-9939-8E687C6CCC2F}"/>
     <hyperlink ref="G153" r:id="rId36" xr:uid="{DAA35664-8242-174C-9E8D-70693D95DCA5}"/>
     <hyperlink ref="H154" r:id="rId37" xr:uid="{D207DB7E-0908-6741-A838-3D8B434F932B}"/>
+    <hyperlink ref="F157" r:id="rId38" xr:uid="{06586D6A-D0F2-384B-80BD-D06EB3CDBDDC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId38"/>
+  <pageSetup orientation="portrait" r:id="rId39"/>
 </worksheet>
 </file>
--- a/alumni_seminars.xlsx
+++ b/alumni_seminars.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minhe/wulibeida79/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9145FB6-C037-724D-BA54-767724F05207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63DB271-75C6-1540-8571-F87D26A95DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7140" yWindow="4820" windowWidth="51200" windowHeight="26600" xr2:uid="{700D315C-D919-4596-880F-1F597F7C3FD0}"/>
+    <workbookView xWindow="3780" yWindow="6940" windowWidth="51200" windowHeight="26600" xr2:uid="{700D315C-D919-4596-880F-1F597F7C3FD0}"/>
   </bookViews>
   <sheets>
     <sheet name="alumni_seminars" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="760">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="768">
   <si>
     <t>贺敏</t>
   </si>
@@ -2322,7 +2322,31 @@
     <t>img/crush_house_2.jpg</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1Lwskc23BNRQ4S6KECppFUz8sKtODtVPy/view?usp=sharing</t>
+    <t>https://drive.google.com/file/d/1Ae6plUc56Ndu3dfFzudzYYWrTUQb5fEZ/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/16HmXfjAqYaWFXMFTMbB6LiXGosziqRuX/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1zyy0Y8DPUwNufT1xqgq7LculX6EqSAZ3/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1rZiV7kJSNPMBM6EOTV8IiTzFsDa1-cgQ/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1VxTzegXnAcdvenncMRvRYdnj2yruwAJQ/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1m8MgvkvpaaKnHQiyt2rFZ-rwNAg9MXu5/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>渠志灿博士</t>
+  </si>
+  <si>
+    <t>漫谈纳安抗癌新药的发展历程</t>
+  </si>
+  <si>
+    <t>img/纳安抗癌药物.jpg</t>
   </si>
 </sst>
 </file>
@@ -2902,10 +2926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{125ED64C-CBBF-451D-8A64-D0747896E26B}">
-  <dimension ref="A1:J162"/>
+  <dimension ref="A1:J163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="F158" sqref="F158"/>
+    <sheetView tabSelected="1" topLeftCell="A117" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="D164" sqref="D164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6744,7 +6768,13 @@
         <v>77</v>
       </c>
       <c r="F157" s="33" t="s">
+        <v>763</v>
+      </c>
+      <c r="G157" s="2" t="s">
         <v>759</v>
+      </c>
+      <c r="H157" s="2" t="s">
+        <v>760</v>
       </c>
       <c r="I157" s="23"/>
     </row>
@@ -6764,6 +6794,12 @@
       <c r="E158" t="s">
         <v>130</v>
       </c>
+      <c r="G158" s="32" t="s">
+        <v>763</v>
+      </c>
+      <c r="H158" s="2" t="s">
+        <v>764</v>
+      </c>
       <c r="I158" s="23"/>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.2">
@@ -6780,11 +6816,15 @@
         <v>756</v>
       </c>
       <c r="E159" t="s">
-        <v>711</v>
-      </c>
-      <c r="I159" s="23">
-        <v>0.8125</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G159" s="32" t="s">
+        <v>761</v>
+      </c>
+      <c r="H159" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="I159" s="23"/>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
@@ -6843,6 +6883,26 @@
         <v>711</v>
       </c>
       <c r="I162" s="23">
+        <v>0.8125</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A163" s="1">
+        <v>45703</v>
+      </c>
+      <c r="B163" t="s">
+        <v>765</v>
+      </c>
+      <c r="C163" t="s">
+        <v>766</v>
+      </c>
+      <c r="D163" t="s">
+        <v>767</v>
+      </c>
+      <c r="E163" t="s">
+        <v>711</v>
+      </c>
+      <c r="I163" s="23">
         <v>0.8125</v>
       </c>
     </row>
@@ -6886,9 +6946,8 @@
     <hyperlink ref="F133" r:id="rId35" xr:uid="{F9AA8D70-0763-344D-9939-8E687C6CCC2F}"/>
     <hyperlink ref="G153" r:id="rId36" xr:uid="{DAA35664-8242-174C-9E8D-70693D95DCA5}"/>
     <hyperlink ref="H154" r:id="rId37" xr:uid="{D207DB7E-0908-6741-A838-3D8B434F932B}"/>
-    <hyperlink ref="F157" r:id="rId38" xr:uid="{06586D6A-D0F2-384B-80BD-D06EB3CDBDDC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId39"/>
+  <pageSetup orientation="portrait" r:id="rId38"/>
 </worksheet>
 </file>
--- a/alumni_seminars.xlsx
+++ b/alumni_seminars.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minhe/wulibeida79/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63DB271-75C6-1540-8571-F87D26A95DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C38A3E-3B31-C540-8FAD-C81796E5C072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="6940" windowWidth="51200" windowHeight="26600" xr2:uid="{700D315C-D919-4596-880F-1F597F7C3FD0}"/>
+    <workbookView xWindow="12440" yWindow="1660" windowWidth="51200" windowHeight="26600" xr2:uid="{700D315C-D919-4596-880F-1F597F7C3FD0}"/>
   </bookViews>
   <sheets>
     <sheet name="alumni_seminars" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="770">
   <si>
     <t>贺敏</t>
   </si>
@@ -2295,12 +2295,6 @@
     <t>古寨静谧如画卷，寻访村民烟火间</t>
   </si>
   <si>
-    <t>Nicole He （贺敏女儿）</t>
-  </si>
-  <si>
-    <t>My Journey to become an indie game creative director</t>
-  </si>
-  <si>
     <t>回忆赵凯华老师和我们度过的岁月</t>
   </si>
   <si>
@@ -2319,9 +2313,6 @@
     <t>img/古寨.jpg</t>
   </si>
   <si>
-    <t>img/crush_house_2.jpg</t>
-  </si>
-  <si>
     <t>https://drive.google.com/file/d/1Ae6plUc56Ndu3dfFzudzYYWrTUQb5fEZ/view?usp=sharing</t>
   </si>
   <si>
@@ -2347,6 +2338,21 @@
   </si>
   <si>
     <t>img/纳安抗癌药物.jpg</t>
+  </si>
+  <si>
+    <t>Holiday Experience Sharing 1： Australia， China， Key West</t>
+  </si>
+  <si>
+    <t>甘舒，马京生，何晖，贺敏</t>
+  </si>
+  <si>
+    <t>img/vacation.jpg</t>
+  </si>
+  <si>
+    <t>张越， 郭信生， 贺敏</t>
+  </si>
+  <si>
+    <t>Holiday Experience Sharing 2： Japan,  Thailand, Malaysia, Vietnam</t>
   </si>
 </sst>
 </file>
@@ -2926,10 +2932,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{125ED64C-CBBF-451D-8A64-D0747896E26B}">
-  <dimension ref="A1:J163"/>
+  <dimension ref="A1:J164"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A117" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="D164" sqref="D164"/>
+      <selection activeCell="C168" sqref="C168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6741,13 +6747,13 @@
         <v>77</v>
       </c>
       <c r="F156" s="32" t="s">
+        <v>751</v>
+      </c>
+      <c r="G156" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="H156" s="2" t="s">
         <v>753</v>
-      </c>
-      <c r="G156" s="3" t="s">
-        <v>754</v>
-      </c>
-      <c r="H156" s="2" t="s">
-        <v>755</v>
       </c>
       <c r="I156" s="23"/>
     </row>
@@ -6768,13 +6774,13 @@
         <v>77</v>
       </c>
       <c r="F157" s="33" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="H157" s="2" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="I157" s="23"/>
     </row>
@@ -6786,7 +6792,7 @@
         <v>65</v>
       </c>
       <c r="C158" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D158" t="s">
         <v>437</v>
@@ -6795,10 +6801,10 @@
         <v>130</v>
       </c>
       <c r="G158" s="32" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="I158" s="23"/>
     </row>
@@ -6813,16 +6819,16 @@
         <v>748</v>
       </c>
       <c r="D159" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="E159" t="s">
         <v>77</v>
       </c>
       <c r="G159" s="32" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="I159" s="23"/>
     </row>
@@ -6831,20 +6837,18 @@
         <v>45667</v>
       </c>
       <c r="B160" t="s">
-        <v>2</v>
+        <v>766</v>
       </c>
       <c r="C160" t="s">
-        <v>749</v>
+        <v>765</v>
       </c>
       <c r="D160" t="s">
-        <v>757</v>
+        <v>767</v>
       </c>
       <c r="E160" t="s">
-        <v>711</v>
-      </c>
-      <c r="I160" s="23">
-        <v>0.8125</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="I160" s="23"/>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
@@ -6868,16 +6872,16 @@
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
-        <v>45695</v>
+        <v>45329</v>
       </c>
       <c r="B162" t="s">
-        <v>750</v>
+        <v>2</v>
       </c>
       <c r="C162" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="D162" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="E162" t="s">
         <v>711</v>
@@ -6888,21 +6892,41 @@
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
-        <v>45703</v>
+        <v>45709</v>
       </c>
       <c r="B163" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="C163" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="D163" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="E163" t="s">
         <v>711</v>
       </c>
       <c r="I163" s="23">
+        <v>0.8125</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A164" s="1">
+        <v>45723</v>
+      </c>
+      <c r="B164" t="s">
+        <v>768</v>
+      </c>
+      <c r="C164" t="s">
+        <v>769</v>
+      </c>
+      <c r="D164" t="s">
+        <v>767</v>
+      </c>
+      <c r="E164" t="s">
+        <v>711</v>
+      </c>
+      <c r="I164" s="23">
         <v>0.8125</v>
       </c>
     </row>

--- a/alumni_seminars.xlsx
+++ b/alumni_seminars.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minhe/wulibeida79/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C38A3E-3B31-C540-8FAD-C81796E5C072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC241A76-285F-2148-B543-6FE0CBD24945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12440" yWindow="1660" windowWidth="51200" windowHeight="26600" xr2:uid="{700D315C-D919-4596-880F-1F597F7C3FD0}"/>
+    <workbookView xWindow="3880" yWindow="1600" windowWidth="51200" windowHeight="26600" xr2:uid="{700D315C-D919-4596-880F-1F597F7C3FD0}"/>
   </bookViews>
   <sheets>
     <sheet name="alumni_seminars" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="783">
   <si>
     <t>贺敏</t>
   </si>
@@ -2353,6 +2353,45 @@
   </si>
   <si>
     <t>Holiday Experience Sharing 2： Japan,  Thailand, Malaysia, Vietnam</t>
+  </si>
+  <si>
+    <t>Nicole He (贺敏女儿）</t>
+  </si>
+  <si>
+    <t>My Journey to become an indie game creative director</t>
+  </si>
+  <si>
+    <t>退休理财</t>
+  </si>
+  <si>
+    <t>Jazz, the Ultimate American Art Form 3: American Fingerprints in World Music -- Rhapsody in Blue</t>
+  </si>
+  <si>
+    <t>DIY Camper Van V2</t>
+  </si>
+  <si>
+    <t>Group Discussion： AI Showdown</t>
+  </si>
+  <si>
+    <t>img/llm.jpg</t>
+  </si>
+  <si>
+    <t>img/crush_house_2.jpg</t>
+  </si>
+  <si>
+    <t>img/Rhapsody_in_Blue.jpg</t>
+  </si>
+  <si>
+    <t>img/sprinter.jpg</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1zFbwPYOmEm_ZWZufI--kmHDSrexBxanj/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1AjN265P6piJZT3giFxbIY0kG1Om_-mtO/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/1BlgSDMJ9v1wPUAwnHFZS4n5cDc6EPOoy/edit?usp=sharing&amp;ouid=118189640657796082890&amp;rtpof=true&amp;sd=true</t>
   </si>
 </sst>
 </file>
@@ -2517,7 +2556,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2587,7 +2626,6 @@
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2615,6 +2653,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2932,20 +2982,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{125ED64C-CBBF-451D-8A64-D0747896E26B}">
-  <dimension ref="A1:J164"/>
+  <dimension ref="A1:J169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="C168" sqref="C168"/>
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="G185" sqref="G185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.5" customWidth="1"/>
-    <col min="3" max="3" width="62.33203125" customWidth="1"/>
+    <col min="3" max="3" width="62.33203125" style="37" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
     <col min="5" max="5" width="16.1640625" customWidth="1"/>
-    <col min="6" max="6" width="73.83203125" style="32" customWidth="1"/>
+    <col min="6" max="6" width="73.83203125" style="31" customWidth="1"/>
     <col min="7" max="7" width="59" style="2" customWidth="1"/>
     <col min="8" max="8" width="22.33203125" style="2" customWidth="1"/>
     <col min="9" max="9" width="22.33203125" style="19" customWidth="1"/>
@@ -2984,14 +3034,14 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>44004</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="37" t="s">
         <v>1</v>
       </c>
       <c r="D2" t="s">
@@ -3000,18 +3050,18 @@
       <c r="E2" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="31" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44015</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="37" t="s">
         <v>3</v>
       </c>
       <c r="D3" t="s">
@@ -3021,14 +3071,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44022</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="37" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="s">
@@ -3038,14 +3088,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44029</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="37" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
@@ -3054,18 +3104,18 @@
       <c r="E5" t="s">
         <v>130</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="31" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>44036</v>
       </c>
       <c r="B6" t="s">
         <v>197</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="37" t="s">
         <v>198</v>
       </c>
       <c r="D6" t="s">
@@ -3074,21 +3124,21 @@
       <c r="E6" t="s">
         <v>76</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="32" t="s">
         <v>78</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="20"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>44043</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="37" t="s">
         <v>18</v>
       </c>
       <c r="D7" t="s">
@@ -3098,14 +3148,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>44050</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="37" t="s">
         <v>12</v>
       </c>
       <c r="D8" t="s">
@@ -3114,18 +3164,18 @@
       <c r="E8" t="s">
         <v>77</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="F8" s="31" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>44057</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="37" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
@@ -3134,18 +3184,18 @@
       <c r="E9" t="s">
         <v>77</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="32" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>44071</v>
       </c>
       <c r="B10" t="s">
         <v>46</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="37" t="s">
         <v>193</v>
       </c>
       <c r="D10" t="s">
@@ -3154,18 +3204,18 @@
       <c r="E10" t="s">
         <v>76</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="F10" s="31" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>44078</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="37" t="s">
         <v>16</v>
       </c>
       <c r="D11" t="s">
@@ -3174,18 +3224,18 @@
       <c r="E11" t="s">
         <v>74</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="31" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>44085</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="37" t="s">
         <v>27</v>
       </c>
       <c r="D12" t="s">
@@ -3195,14 +3245,14 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>44092</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="37" t="s">
         <v>14</v>
       </c>
       <c r="D13" t="s">
@@ -3212,14 +3262,14 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>44099</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="37" t="s">
         <v>19</v>
       </c>
       <c r="D14" t="s">
@@ -3228,18 +3278,18 @@
       <c r="E14" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="33" t="s">
+      <c r="F14" s="32" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>44106</v>
       </c>
       <c r="B15" t="s">
         <v>21</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="37" t="s">
         <v>22</v>
       </c>
       <c r="D15" t="s">
@@ -3248,18 +3298,18 @@
       <c r="E15" t="s">
         <v>77</v>
       </c>
-      <c r="F15" s="33" t="s">
+      <c r="F15" s="32" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>44113</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="37" t="s">
         <v>28</v>
       </c>
       <c r="D16" t="s">
@@ -3268,18 +3318,18 @@
       <c r="E16" t="s">
         <v>130</v>
       </c>
-      <c r="F16" s="32" t="s">
+      <c r="F16" s="31" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>44120</v>
       </c>
       <c r="B17" t="s">
         <v>197</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="37" t="s">
         <v>29</v>
       </c>
       <c r="D17" t="s">
@@ -3288,21 +3338,21 @@
       <c r="E17" t="s">
         <v>76</v>
       </c>
-      <c r="F17" s="32" t="s">
+      <c r="F17" s="31" t="s">
         <v>117</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>44127</v>
       </c>
       <c r="B18" t="s">
         <v>23</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="37" t="s">
         <v>26</v>
       </c>
       <c r="D18" t="s">
@@ -3312,14 +3362,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>44134</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="37" t="s">
         <v>24</v>
       </c>
       <c r="D19" t="s">
@@ -3328,7 +3378,7 @@
       <c r="E19" t="s">
         <v>74</v>
       </c>
-      <c r="F19" s="32" t="s">
+      <c r="F19" s="31" t="s">
         <v>119</v>
       </c>
     </row>
@@ -3339,7 +3389,7 @@
       <c r="B20" t="s">
         <v>2</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="37" t="s">
         <v>30</v>
       </c>
       <c r="D20" t="s">
@@ -3356,7 +3406,7 @@
       <c r="B21" t="s">
         <v>31</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="37" t="s">
         <v>35</v>
       </c>
       <c r="D21" t="s">
@@ -3365,21 +3415,21 @@
       <c r="E21" t="s">
         <v>130</v>
       </c>
-      <c r="F21" s="33" t="s">
+      <c r="F21" s="32" t="s">
         <v>188</v>
       </c>
       <c r="J21" s="13" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>44155</v>
       </c>
       <c r="B22" t="s">
         <v>31</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="37" t="s">
         <v>34</v>
       </c>
       <c r="D22" t="s">
@@ -3388,21 +3438,21 @@
       <c r="E22" t="s">
         <v>77</v>
       </c>
-      <c r="F22" s="33" t="s">
+      <c r="F22" s="32" t="s">
         <v>112</v>
       </c>
       <c r="J22" s="8" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>44169</v>
       </c>
       <c r="B23" t="s">
         <v>32</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="37" t="s">
         <v>33</v>
       </c>
       <c r="D23" t="s">
@@ -3412,14 +3462,14 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>44176</v>
       </c>
       <c r="B24" t="s">
         <v>46</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="37" t="s">
         <v>194</v>
       </c>
       <c r="D24" t="s">
@@ -3428,7 +3478,7 @@
       <c r="E24" t="s">
         <v>76</v>
       </c>
-      <c r="F24" s="32" t="s">
+      <c r="F24" s="31" t="s">
         <v>113</v>
       </c>
       <c r="G24" s="3" t="s">
@@ -3438,14 +3488,14 @@
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>44183</v>
       </c>
       <c r="B25" t="s">
         <v>13</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="37" t="s">
         <v>25</v>
       </c>
       <c r="D25" t="s">
@@ -3455,14 +3505,14 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>44204</v>
       </c>
       <c r="B26" t="s">
         <v>197</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="37" t="s">
         <v>195</v>
       </c>
       <c r="D26" t="s">
@@ -3471,21 +3521,21 @@
       <c r="E26" t="s">
         <v>76</v>
       </c>
-      <c r="F26" s="32" t="s">
+      <c r="F26" s="31" t="s">
         <v>115</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>44211</v>
       </c>
       <c r="B27" t="s">
         <v>2</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="37" t="s">
         <v>43</v>
       </c>
       <c r="D27" t="s">
@@ -3495,14 +3545,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>44218</v>
       </c>
       <c r="B28" t="s">
         <v>37</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="37" t="s">
         <v>38</v>
       </c>
       <c r="D28" t="s">
@@ -3511,18 +3561,18 @@
       <c r="E28" t="s">
         <v>77</v>
       </c>
-      <c r="F28" s="32" t="s">
+      <c r="F28" s="31" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>44225</v>
       </c>
       <c r="B29" t="s">
         <v>46</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="37" t="s">
         <v>47</v>
       </c>
       <c r="D29" t="s">
@@ -3531,7 +3581,7 @@
       <c r="E29" t="s">
         <v>74</v>
       </c>
-      <c r="F29" s="33" t="s">
+      <c r="F29" s="32" t="s">
         <v>121</v>
       </c>
       <c r="G29" s="3" t="s">
@@ -3542,14 +3592,14 @@
       </c>
       <c r="I29" s="20"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>44232</v>
       </c>
       <c r="B30" t="s">
         <v>39</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="37" t="s">
         <v>40</v>
       </c>
       <c r="D30" t="s">
@@ -3558,18 +3608,18 @@
       <c r="E30" t="s">
         <v>77</v>
       </c>
-      <c r="F30" s="32" t="s">
+      <c r="F30" s="31" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>44239</v>
       </c>
       <c r="B31" t="s">
         <v>41</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D31" t="s">
@@ -3585,14 +3635,14 @@
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>44246</v>
       </c>
       <c r="B32" t="s">
         <v>197</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="37" t="s">
         <v>196</v>
       </c>
       <c r="D32" t="s">
@@ -3601,21 +3651,21 @@
       <c r="E32" t="s">
         <v>76</v>
       </c>
-      <c r="F32" s="32" t="s">
+      <c r="F32" s="31" t="s">
         <v>114</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>44253</v>
       </c>
       <c r="B33" t="s">
         <v>44</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="37" t="s">
         <v>45</v>
       </c>
       <c r="D33" t="s">
@@ -3638,7 +3688,7 @@
       <c r="B34" t="s">
         <v>49</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="37" t="s">
         <v>50</v>
       </c>
       <c r="D34" t="s">
@@ -3647,7 +3697,7 @@
       <c r="E34" t="s">
         <v>74</v>
       </c>
-      <c r="F34" s="32" t="s">
+      <c r="F34" s="31" t="s">
         <v>181</v>
       </c>
       <c r="G34" s="3" t="s">
@@ -3660,14 +3710,14 @@
         <v>185</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>44267</v>
       </c>
       <c r="B35" t="s">
         <v>8</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="37" t="s">
         <v>36</v>
       </c>
       <c r="D35" t="s">
@@ -3676,7 +3726,7 @@
       <c r="E35" t="s">
         <v>77</v>
       </c>
-      <c r="F35" s="33" t="s">
+      <c r="F35" s="32" t="s">
         <v>127</v>
       </c>
       <c r="G35" s="2" t="s">
@@ -3686,14 +3736,14 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>44274</v>
       </c>
       <c r="B36" t="s">
         <v>197</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="37" t="s">
         <v>51</v>
       </c>
       <c r="D36" t="s">
@@ -3702,21 +3752,21 @@
       <c r="E36" t="s">
         <v>76</v>
       </c>
-      <c r="F36" s="32" t="s">
+      <c r="F36" s="31" t="s">
         <v>118</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>44281</v>
       </c>
       <c r="B37" t="s">
         <v>20</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="37" t="s">
         <v>42</v>
       </c>
       <c r="D37" t="s">
@@ -3725,7 +3775,7 @@
       <c r="E37" t="s">
         <v>74</v>
       </c>
-      <c r="F37" s="32" t="s">
+      <c r="F37" s="31" t="s">
         <v>120</v>
       </c>
       <c r="G37" s="2" t="s">
@@ -3735,14 +3785,14 @@
         <v>93</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>44288</v>
       </c>
       <c r="B38" t="s">
         <v>52</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="37" t="s">
         <v>53</v>
       </c>
       <c r="D38" t="s">
@@ -3751,7 +3801,7 @@
       <c r="E38" t="s">
         <v>74</v>
       </c>
-      <c r="F38" s="32" t="s">
+      <c r="F38" s="31" t="s">
         <v>128</v>
       </c>
       <c r="G38" s="2" t="s">
@@ -3761,14 +3811,14 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>44295</v>
       </c>
       <c r="B39" t="s">
         <v>0</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="37" t="s">
         <v>54</v>
       </c>
       <c r="D39" t="s">
@@ -3777,7 +3827,7 @@
       <c r="E39" t="s">
         <v>74</v>
       </c>
-      <c r="F39" s="32" t="s">
+      <c r="F39" s="31" t="s">
         <v>126</v>
       </c>
       <c r="G39" s="2" t="s">
@@ -3787,14 +3837,14 @@
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>44302</v>
       </c>
       <c r="B40" t="s">
         <v>46</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="37" t="s">
         <v>56</v>
       </c>
       <c r="D40" t="s">
@@ -3803,7 +3853,7 @@
       <c r="E40" t="s">
         <v>76</v>
       </c>
-      <c r="F40" s="33" t="s">
+      <c r="F40" s="32" t="s">
         <v>205</v>
       </c>
       <c r="G40" s="2" t="s">
@@ -3813,14 +3863,14 @@
         <v>99</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>44309</v>
       </c>
       <c r="B41" t="s">
         <v>55</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="37" t="s">
         <v>59</v>
       </c>
       <c r="D41" t="s">
@@ -3829,7 +3879,7 @@
       <c r="E41" t="s">
         <v>77</v>
       </c>
-      <c r="F41" s="32" t="s">
+      <c r="F41" s="31" t="s">
         <v>186</v>
       </c>
       <c r="G41" s="2" t="s">
@@ -3839,14 +3889,14 @@
         <v>101</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>44316</v>
       </c>
       <c r="B42" t="s">
         <v>57</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="37" t="s">
         <v>58</v>
       </c>
       <c r="D42" t="s">
@@ -3855,7 +3905,7 @@
       <c r="E42" t="s">
         <v>74</v>
       </c>
-      <c r="F42" s="32" t="s">
+      <c r="F42" s="31" t="s">
         <v>123</v>
       </c>
       <c r="G42" s="2" t="s">
@@ -3865,14 +3915,14 @@
         <v>103</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>44323</v>
       </c>
       <c r="B43" t="s">
         <v>65</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="37" t="s">
         <v>60</v>
       </c>
       <c r="D43" t="s">
@@ -3882,14 +3932,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>44330</v>
       </c>
       <c r="B44" t="s">
         <v>46</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="37" t="s">
         <v>61</v>
       </c>
       <c r="D44" t="s">
@@ -3898,7 +3948,7 @@
       <c r="E44" t="s">
         <v>76</v>
       </c>
-      <c r="F44" s="33" t="s">
+      <c r="F44" s="32" t="s">
         <v>206</v>
       </c>
       <c r="G44" s="2" t="s">
@@ -3908,14 +3958,14 @@
         <v>105</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44337</v>
       </c>
       <c r="B45" t="s">
         <v>0</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="37" t="s">
         <v>75</v>
       </c>
       <c r="D45" t="s">
@@ -3924,7 +3974,7 @@
       <c r="E45" t="s">
         <v>74</v>
       </c>
-      <c r="F45" s="33" t="s">
+      <c r="F45" s="32" t="s">
         <v>125</v>
       </c>
       <c r="G45" s="2" t="s">
@@ -3941,7 +3991,7 @@
       <c r="B46" t="s">
         <v>62</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="37" t="s">
         <v>63</v>
       </c>
       <c r="D46" t="s">
@@ -3954,14 +4004,14 @@
         <v>231</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>44351</v>
       </c>
       <c r="B47" t="s">
         <v>9</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="37" t="s">
         <v>64</v>
       </c>
       <c r="D47" t="s">
@@ -3970,7 +4020,7 @@
       <c r="E47" t="s">
         <v>77</v>
       </c>
-      <c r="F47" s="32" t="s">
+      <c r="F47" s="31" t="s">
         <v>190</v>
       </c>
       <c r="G47" s="2" t="s">
@@ -3980,14 +4030,14 @@
         <v>109</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="9">
         <v>44365</v>
       </c>
       <c r="B48" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="38" t="s">
         <v>66</v>
       </c>
       <c r="D48" s="10" t="s">
@@ -3996,20 +4046,20 @@
       <c r="E48" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="F48" s="34"/>
+      <c r="F48" s="33"/>
       <c r="G48" s="11"/>
       <c r="H48" s="11"/>
       <c r="I48" s="21"/>
       <c r="J48" s="14"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>44371</v>
       </c>
       <c r="B49" t="s">
         <v>11</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="37" t="s">
         <v>67</v>
       </c>
       <c r="D49" t="s">
@@ -4018,7 +4068,7 @@
       <c r="E49" t="s">
         <v>130</v>
       </c>
-      <c r="F49" s="32" t="s">
+      <c r="F49" s="31" t="s">
         <v>217</v>
       </c>
       <c r="G49" s="2" t="s">
@@ -4028,14 +4078,14 @@
         <v>216</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>44378</v>
       </c>
       <c r="B50" t="s">
         <v>203</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="37" t="s">
         <v>219</v>
       </c>
       <c r="D50" t="s">
@@ -4044,18 +4094,18 @@
       <c r="E50" t="s">
         <v>77</v>
       </c>
-      <c r="F50" s="32" t="s">
+      <c r="F50" s="31" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>44385</v>
       </c>
       <c r="B51" t="s">
         <v>209</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="37" t="s">
         <v>210</v>
       </c>
       <c r="D51" t="s">
@@ -4064,7 +4114,7 @@
       <c r="E51" t="s">
         <v>77</v>
       </c>
-      <c r="F51" s="32" t="s">
+      <c r="F51" s="31" t="s">
         <v>226</v>
       </c>
       <c r="G51" s="2" t="s">
@@ -4074,14 +4124,14 @@
         <v>228</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>44392</v>
       </c>
       <c r="B52" t="s">
         <v>211</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="37" t="s">
         <v>218</v>
       </c>
       <c r="D52" t="s">
@@ -4090,7 +4140,7 @@
       <c r="E52" t="s">
         <v>74</v>
       </c>
-      <c r="F52" s="32" t="s">
+      <c r="F52" s="31" t="s">
         <v>232</v>
       </c>
       <c r="G52" s="2" t="s">
@@ -4100,14 +4150,14 @@
         <v>234</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>44399</v>
       </c>
       <c r="B53" t="s">
         <v>31</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="37" t="s">
         <v>230</v>
       </c>
       <c r="D53" t="s">
@@ -4116,7 +4166,7 @@
       <c r="E53" t="s">
         <v>343</v>
       </c>
-      <c r="F53" s="32" t="s">
+      <c r="F53" s="31" t="s">
         <v>235</v>
       </c>
       <c r="G53" s="2" t="s">
@@ -4129,14 +4179,14 @@
         <v>248</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>44406</v>
       </c>
       <c r="B54" t="s">
         <v>197</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="37" t="s">
         <v>246</v>
       </c>
       <c r="D54" t="s">
@@ -4145,7 +4195,7 @@
       <c r="E54" t="s">
         <v>76</v>
       </c>
-      <c r="F54" s="32" t="s">
+      <c r="F54" s="31" t="s">
         <v>242</v>
       </c>
       <c r="G54" s="2" t="s">
@@ -4159,7 +4209,7 @@
       <c r="B55" t="s">
         <v>223</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="37" t="s">
         <v>224</v>
       </c>
       <c r="D55" t="s">
@@ -4168,7 +4218,7 @@
       <c r="E55" t="s">
         <v>74</v>
       </c>
-      <c r="F55" s="32" t="s">
+      <c r="F55" s="31" t="s">
         <v>251</v>
       </c>
       <c r="G55" s="2" t="s">
@@ -4181,14 +4231,14 @@
         <v>247</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>44427</v>
       </c>
       <c r="B56" t="s">
         <v>209</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="37" t="s">
         <v>236</v>
       </c>
       <c r="D56" t="s">
@@ -4197,7 +4247,7 @@
       <c r="E56" t="s">
         <v>130</v>
       </c>
-      <c r="F56" s="32" t="s">
+      <c r="F56" s="31" t="s">
         <v>253</v>
       </c>
       <c r="G56" s="2" t="s">
@@ -4207,14 +4257,14 @@
         <v>255</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>44441</v>
       </c>
       <c r="B57" t="s">
         <v>13</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="37" t="s">
         <v>222</v>
       </c>
       <c r="D57" t="s">
@@ -4223,7 +4273,7 @@
       <c r="E57" t="s">
         <v>74</v>
       </c>
-      <c r="F57" s="32" t="s">
+      <c r="F57" s="31" t="s">
         <v>258</v>
       </c>
       <c r="G57" s="2" t="s">
@@ -4233,14 +4283,14 @@
         <v>257</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>44455</v>
       </c>
       <c r="B58" t="s">
         <v>260</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="37" t="s">
         <v>238</v>
       </c>
       <c r="D58" t="s">
@@ -4249,7 +4299,7 @@
       <c r="E58" t="s">
         <v>343</v>
       </c>
-      <c r="F58" s="33" t="s">
+      <c r="F58" s="32" t="s">
         <v>268</v>
       </c>
       <c r="G58" s="3" t="s">
@@ -4266,7 +4316,7 @@
       <c r="B59" t="s">
         <v>243</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="37" t="s">
         <v>244</v>
       </c>
       <c r="D59" t="s">
@@ -4275,7 +4325,7 @@
       <c r="E59" t="s">
         <v>74</v>
       </c>
-      <c r="F59" s="32" t="s">
+      <c r="F59" s="31" t="s">
         <v>265</v>
       </c>
       <c r="G59" s="2" t="s">
@@ -4288,14 +4338,14 @@
         <v>259</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>44469</v>
       </c>
       <c r="B60" t="s">
         <v>44</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="37" t="s">
         <v>252</v>
       </c>
       <c r="D60" t="s">
@@ -4311,14 +4361,14 @@
         <v>271</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>44483</v>
       </c>
       <c r="B61" t="s">
         <v>262</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="37" t="s">
         <v>263</v>
       </c>
       <c r="D61" t="s">
@@ -4327,7 +4377,7 @@
       <c r="E61" t="s">
         <v>77</v>
       </c>
-      <c r="F61" s="32" t="s">
+      <c r="F61" s="31" t="s">
         <v>275</v>
       </c>
       <c r="G61" s="2" t="s">
@@ -4338,14 +4388,14 @@
       </c>
       <c r="I61" s="22"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>44490</v>
       </c>
       <c r="B62" t="s">
         <v>278</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="37" t="s">
         <v>279</v>
       </c>
       <c r="D62" t="s">
@@ -4354,7 +4404,7 @@
       <c r="E62" t="s">
         <v>343</v>
       </c>
-      <c r="F62" s="32" t="s">
+      <c r="F62" s="31" t="s">
         <v>280</v>
       </c>
       <c r="G62" s="2" t="s">
@@ -4365,14 +4415,14 @@
       </c>
       <c r="I62" s="22"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>44498</v>
       </c>
       <c r="B63" t="s">
         <v>272</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="37" t="s">
         <v>273</v>
       </c>
       <c r="D63" t="s">
@@ -4381,7 +4431,7 @@
       <c r="E63" t="s">
         <v>77</v>
       </c>
-      <c r="F63" s="33" t="s">
+      <c r="F63" s="32" t="s">
         <v>288</v>
       </c>
       <c r="G63" s="2" t="s">
@@ -4401,7 +4451,7 @@
       <c r="B64" t="s">
         <v>31</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="37" t="s">
         <v>287</v>
       </c>
       <c r="D64" t="s">
@@ -4410,7 +4460,7 @@
       <c r="E64" t="s">
         <v>77</v>
       </c>
-      <c r="F64" s="33" t="s">
+      <c r="F64" s="32" t="s">
         <v>286</v>
       </c>
       <c r="G64" s="3" t="s">
@@ -4423,14 +4473,14 @@
         <v>290</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>44512</v>
       </c>
       <c r="B65" t="s">
         <v>209</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="37" t="s">
         <v>281</v>
       </c>
       <c r="D65" t="s">
@@ -4439,7 +4489,7 @@
       <c r="E65" t="s">
         <v>179</v>
       </c>
-      <c r="F65" s="35" t="s">
+      <c r="F65" s="34" t="s">
         <v>296</v>
       </c>
       <c r="G65" s="17" t="s">
@@ -4449,14 +4499,14 @@
         <v>298</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>44518</v>
       </c>
       <c r="B66" t="s">
         <v>46</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="37" t="s">
         <v>344</v>
       </c>
       <c r="D66" t="s">
@@ -4465,7 +4515,7 @@
       <c r="E66" t="s">
         <v>76</v>
       </c>
-      <c r="F66" s="33" t="s">
+      <c r="F66" s="32" t="s">
         <v>302</v>
       </c>
       <c r="G66" s="3" t="s">
@@ -4475,14 +4525,14 @@
         <v>301</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>44532</v>
       </c>
       <c r="B67" t="s">
         <v>9</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="37" t="s">
         <v>291</v>
       </c>
       <c r="D67" t="s">
@@ -4491,7 +4541,7 @@
       <c r="E67" t="s">
         <v>77</v>
       </c>
-      <c r="F67" s="32" t="s">
+      <c r="F67" s="31" t="s">
         <v>303</v>
       </c>
       <c r="G67" s="2" t="s">
@@ -4501,14 +4551,14 @@
         <v>305</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>44540</v>
       </c>
       <c r="B68" t="s">
         <v>31</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="37" t="s">
         <v>306</v>
       </c>
       <c r="D68" t="s">
@@ -4517,7 +4567,7 @@
       <c r="E68" t="s">
         <v>77</v>
       </c>
-      <c r="F68" s="36" t="s">
+      <c r="F68" s="35" t="s">
         <v>311</v>
       </c>
       <c r="G68" s="2" t="s">
@@ -4530,14 +4580,14 @@
         <v>312</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>44546</v>
       </c>
       <c r="B69" t="s">
         <v>13</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="37" t="s">
         <v>293</v>
       </c>
       <c r="D69" t="s">
@@ -4546,7 +4596,7 @@
       <c r="E69" t="s">
         <v>77</v>
       </c>
-      <c r="F69" s="32" t="s">
+      <c r="F69" s="31" t="s">
         <v>313</v>
       </c>
       <c r="G69" s="2" t="s">
@@ -4563,7 +4613,7 @@
       <c r="B70" t="s">
         <v>320</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="37" t="s">
         <v>319</v>
       </c>
       <c r="D70" t="s">
@@ -4572,7 +4622,7 @@
       <c r="E70" t="s">
         <v>77</v>
       </c>
-      <c r="F70" s="32" t="s">
+      <c r="F70" s="31" t="s">
         <v>331</v>
       </c>
       <c r="G70" s="2" t="s">
@@ -4586,14 +4636,14 @@
         <v>321</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>44575</v>
       </c>
       <c r="B71" t="s">
         <v>317</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="37" t="s">
         <v>342</v>
       </c>
       <c r="D71" t="s">
@@ -4610,14 +4660,14 @@
       </c>
       <c r="I71" s="23"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>44581</v>
       </c>
       <c r="B72" t="s">
         <v>31</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="37" t="s">
         <v>318</v>
       </c>
       <c r="D72" t="s">
@@ -4626,7 +4676,7 @@
       <c r="E72" t="s">
         <v>77</v>
       </c>
-      <c r="F72" s="32" t="s">
+      <c r="F72" s="31" t="s">
         <v>339</v>
       </c>
       <c r="G72" s="2" t="s">
@@ -4640,14 +4690,14 @@
         <v>340</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>44588</v>
       </c>
       <c r="B73" t="s">
         <v>334</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="37" t="s">
         <v>341</v>
       </c>
       <c r="D73" t="s">
@@ -4656,7 +4706,7 @@
       <c r="E73" t="s">
         <v>343</v>
       </c>
-      <c r="F73" s="32" t="s">
+      <c r="F73" s="31" t="s">
         <v>379</v>
       </c>
       <c r="G73" s="2" t="s">
@@ -4666,14 +4716,14 @@
         <v>336</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>44595</v>
       </c>
       <c r="B74" t="s">
         <v>197</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="37" t="s">
         <v>345</v>
       </c>
       <c r="D74" t="s">
@@ -4682,21 +4732,21 @@
       <c r="E74" t="s">
         <v>76</v>
       </c>
-      <c r="F74" s="33" t="s">
+      <c r="F74" s="32" t="s">
         <v>356</v>
       </c>
       <c r="G74" s="3" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>44602</v>
       </c>
       <c r="B75" t="s">
         <v>65</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="37" t="s">
         <v>436</v>
       </c>
       <c r="D75" t="s">
@@ -4705,17 +4755,17 @@
       <c r="E75" t="s">
         <v>130</v>
       </c>
-      <c r="F75" s="33"/>
+      <c r="F75" s="32"/>
       <c r="G75" s="3"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>44609</v>
       </c>
       <c r="B76" t="s">
         <v>354</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="37" t="s">
         <v>325</v>
       </c>
       <c r="D76" t="s">
@@ -4724,7 +4774,7 @@
       <c r="E76" t="s">
         <v>77</v>
       </c>
-      <c r="F76" s="33" t="s">
+      <c r="F76" s="32" t="s">
         <v>381</v>
       </c>
       <c r="G76" s="2" t="s">
@@ -4735,14 +4785,14 @@
       </c>
       <c r="I76" s="22"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>44617</v>
       </c>
       <c r="B77" t="s">
         <v>4</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="37" t="s">
         <v>326</v>
       </c>
       <c r="D77" t="s">
@@ -4752,14 +4802,14 @@
         <v>370</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>44623</v>
       </c>
       <c r="B78" t="s">
         <v>197</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="37" t="s">
         <v>346</v>
       </c>
       <c r="D78" t="s">
@@ -4768,7 +4818,7 @@
       <c r="E78" t="s">
         <v>76</v>
       </c>
-      <c r="F78" s="32" t="s">
+      <c r="F78" s="31" t="s">
         <v>369</v>
       </c>
       <c r="G78" s="2" t="s">
@@ -4778,14 +4828,14 @@
         <v>364</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>44631</v>
       </c>
       <c r="B79" t="s">
         <v>278</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="37" t="s">
         <v>324</v>
       </c>
       <c r="D79" t="s">
@@ -4794,7 +4844,7 @@
       <c r="E79" t="s">
         <v>74</v>
       </c>
-      <c r="F79" s="32" t="s">
+      <c r="F79" s="31" t="s">
         <v>378</v>
       </c>
       <c r="G79" s="2" t="s">
@@ -4811,7 +4861,7 @@
       <c r="B80" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="37" t="s">
         <v>360</v>
       </c>
       <c r="D80" t="s">
@@ -4820,7 +4870,7 @@
       <c r="E80" t="s">
         <v>77</v>
       </c>
-      <c r="F80" s="33" t="s">
+      <c r="F80" s="32" t="s">
         <v>380</v>
       </c>
       <c r="G80" s="2" t="s">
@@ -4830,14 +4880,14 @@
         <v>366</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>44645</v>
       </c>
       <c r="B81" t="s">
         <v>353</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="39" t="s">
         <v>348</v>
       </c>
       <c r="D81" t="s">
@@ -4846,7 +4896,7 @@
       <c r="E81" t="s">
         <v>74</v>
       </c>
-      <c r="F81" s="36" t="s">
+      <c r="F81" s="35" t="s">
         <v>382</v>
       </c>
       <c r="G81" s="2" t="s">
@@ -4866,7 +4916,7 @@
       <c r="B82" t="s">
         <v>349</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="37" t="s">
         <v>350</v>
       </c>
       <c r="D82" t="s">
@@ -4885,14 +4935,14 @@
         <v>454</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>44656</v>
       </c>
       <c r="B83" t="s">
         <v>368</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="37" t="s">
         <v>391</v>
       </c>
       <c r="D83" t="s">
@@ -4902,14 +4952,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>44665</v>
       </c>
       <c r="B84" t="s">
         <v>371</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="37" t="s">
         <v>372</v>
       </c>
       <c r="D84" t="s">
@@ -4925,14 +4975,14 @@
         <v>397</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>44672</v>
       </c>
       <c r="B85" t="s">
         <v>31</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="37" t="s">
         <v>385</v>
       </c>
       <c r="D85" t="s">
@@ -4941,7 +4991,7 @@
       <c r="E85" t="s">
         <v>77</v>
       </c>
-      <c r="F85" s="32" t="s">
+      <c r="F85" s="31" t="s">
         <v>399</v>
       </c>
       <c r="G85" s="2" t="s">
@@ -4954,14 +5004,14 @@
         <v>398</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>44679</v>
       </c>
       <c r="B86" t="s">
         <v>9</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="37" t="s">
         <v>374</v>
       </c>
       <c r="D86" t="s">
@@ -4977,14 +5027,14 @@
         <v>401</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>44687</v>
       </c>
       <c r="B87" t="s">
         <v>0</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="37" t="s">
         <v>373</v>
       </c>
       <c r="D87" t="s">
@@ -4993,7 +5043,7 @@
       <c r="E87" t="s">
         <v>74</v>
       </c>
-      <c r="F87" s="32" t="s">
+      <c r="F87" s="31" t="s">
         <v>406</v>
       </c>
       <c r="G87" s="2" t="s">
@@ -5003,14 +5053,14 @@
         <v>405</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>44694</v>
       </c>
       <c r="B88" t="s">
         <v>197</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="37" t="s">
         <v>420</v>
       </c>
       <c r="D88" t="s">
@@ -5019,7 +5069,7 @@
       <c r="E88" t="s">
         <v>76</v>
       </c>
-      <c r="F88" s="32" t="s">
+      <c r="F88" s="31" t="s">
         <v>520</v>
       </c>
       <c r="G88" s="2" t="s">
@@ -5029,14 +5079,14 @@
         <v>419</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>44701</v>
       </c>
       <c r="B89" t="s">
         <v>407</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="37" t="s">
         <v>408</v>
       </c>
       <c r="D89" t="s">
@@ -5045,7 +5095,7 @@
       <c r="E89" t="s">
         <v>343</v>
       </c>
-      <c r="F89" s="32" t="s">
+      <c r="F89" s="31" t="s">
         <v>429</v>
       </c>
       <c r="G89" s="2" t="s">
@@ -5055,14 +5105,14 @@
         <v>426</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>44708</v>
       </c>
       <c r="B90" t="s">
         <v>388</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="37" t="s">
         <v>389</v>
       </c>
       <c r="D90" t="s">
@@ -5071,7 +5121,7 @@
       <c r="E90" t="s">
         <v>130</v>
       </c>
-      <c r="F90" s="32" t="s">
+      <c r="F90" s="31" t="s">
         <v>430</v>
       </c>
       <c r="G90" s="2" t="s">
@@ -5088,7 +5138,7 @@
       <c r="B91" t="s">
         <v>409</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="37" t="s">
         <v>410</v>
       </c>
       <c r="D91" t="s">
@@ -5111,7 +5161,7 @@
       <c r="B92" t="s">
         <v>9</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="37" t="s">
         <v>417</v>
       </c>
       <c r="D92" t="s">
@@ -5128,14 +5178,14 @@
       </c>
       <c r="J92" s="26"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>44729</v>
       </c>
       <c r="B93" t="s">
         <v>31</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="37" t="s">
         <v>411</v>
       </c>
       <c r="D93" t="s">
@@ -5144,7 +5194,7 @@
       <c r="E93" t="s">
         <v>77</v>
       </c>
-      <c r="F93" s="32" t="s">
+      <c r="F93" s="31" t="s">
         <v>438</v>
       </c>
       <c r="G93" s="2" t="s">
@@ -5164,7 +5214,7 @@
       <c r="B94" t="s">
         <v>31</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="37" t="s">
         <v>412</v>
       </c>
       <c r="D94" t="s">
@@ -5173,7 +5223,7 @@
       <c r="E94" t="s">
         <v>77</v>
       </c>
-      <c r="F94" s="32" t="s">
+      <c r="F94" s="31" t="s">
         <v>445</v>
       </c>
       <c r="G94" s="2" t="s">
@@ -5182,18 +5232,18 @@
       <c r="H94" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="J94" s="28" t="s">
+      <c r="J94" s="27" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>44737</v>
       </c>
       <c r="B95" t="s">
         <v>65</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="37" t="s">
         <v>434</v>
       </c>
       <c r="D95" t="s">
@@ -5202,19 +5252,19 @@
       <c r="E95" t="s">
         <v>77</v>
       </c>
-      <c r="F95" s="32" t="s">
+      <c r="F95" s="31" t="s">
         <v>447</v>
       </c>
       <c r="G95" s="3"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>44750</v>
       </c>
       <c r="B96" t="s">
         <v>421</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="37" t="s">
         <v>433</v>
       </c>
       <c r="D96" t="s">
@@ -5223,7 +5273,7 @@
       <c r="E96" t="s">
         <v>343</v>
       </c>
-      <c r="F96" s="32" t="s">
+      <c r="F96" s="31" t="s">
         <v>451</v>
       </c>
       <c r="G96" s="2" t="s">
@@ -5240,7 +5290,7 @@
       <c r="B97" t="s">
         <v>422</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="37" t="s">
         <v>423</v>
       </c>
       <c r="D97" t="s">
@@ -5249,7 +5299,7 @@
       <c r="E97" t="s">
         <v>74</v>
       </c>
-      <c r="F97" s="32" t="s">
+      <c r="F97" s="31" t="s">
         <v>459</v>
       </c>
       <c r="G97" s="2" t="s">
@@ -5258,18 +5308,18 @@
       <c r="H97" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="J97" s="28" t="s">
+      <c r="J97" s="27" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>44778</v>
       </c>
       <c r="B98" t="s">
         <v>458</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="37" t="s">
         <v>452</v>
       </c>
       <c r="D98" t="s">
@@ -5278,7 +5328,7 @@
       <c r="E98" t="s">
         <v>179</v>
       </c>
-      <c r="F98" s="32" t="s">
+      <c r="F98" s="31" t="s">
         <v>464</v>
       </c>
       <c r="G98" s="2" t="s">
@@ -5288,14 +5338,14 @@
         <v>463</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>44792</v>
       </c>
       <c r="B99" t="s">
         <v>209</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="37" t="s">
         <v>446</v>
       </c>
       <c r="D99" t="s">
@@ -5304,7 +5354,7 @@
       <c r="E99" t="s">
         <v>130</v>
       </c>
-      <c r="F99" s="32" t="s">
+      <c r="F99" s="31" t="s">
         <v>465</v>
       </c>
       <c r="G99" s="2" t="s">
@@ -5321,7 +5371,7 @@
       <c r="B100" t="s">
         <v>31</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="37" t="s">
         <v>468</v>
       </c>
       <c r="D100" t="s">
@@ -5330,7 +5380,7 @@
       <c r="E100" t="s">
         <v>77</v>
       </c>
-      <c r="F100" s="32" t="s">
+      <c r="F100" s="31" t="s">
         <v>470</v>
       </c>
       <c r="G100" s="2" t="s">
@@ -5339,18 +5389,18 @@
       <c r="H100" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="J100" s="29" t="s">
+      <c r="J100" s="28" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>44820</v>
       </c>
       <c r="B101" t="s">
         <v>472</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="37" t="s">
         <v>473</v>
       </c>
       <c r="D101" t="s">
@@ -5359,7 +5409,7 @@
       <c r="E101" t="s">
         <v>179</v>
       </c>
-      <c r="F101" s="32" t="s">
+      <c r="F101" s="31" t="s">
         <v>478</v>
       </c>
       <c r="G101" s="2" t="s">
@@ -5369,14 +5419,14 @@
         <v>480</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>44834</v>
       </c>
       <c r="B102" t="s">
         <v>9</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="37" t="s">
         <v>488</v>
       </c>
       <c r="D102" t="s">
@@ -5385,7 +5435,7 @@
       <c r="E102" t="s">
         <v>77</v>
       </c>
-      <c r="F102" s="32" t="s">
+      <c r="F102" s="31" t="s">
         <v>489</v>
       </c>
       <c r="G102" s="2" t="s">
@@ -5395,14 +5445,14 @@
         <v>482</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>44848</v>
       </c>
       <c r="B103" t="s">
         <v>0</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="37" t="s">
         <v>483</v>
       </c>
       <c r="D103" t="s">
@@ -5411,7 +5461,7 @@
       <c r="E103" t="s">
         <v>74</v>
       </c>
-      <c r="F103" s="32" t="s">
+      <c r="F103" s="31" t="s">
         <v>493</v>
       </c>
       <c r="G103" s="2" t="s">
@@ -5421,14 +5471,14 @@
         <v>492</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>44855</v>
       </c>
       <c r="B104" t="s">
         <v>485</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="37" t="s">
         <v>486</v>
       </c>
       <c r="D104" t="s">
@@ -5437,7 +5487,7 @@
       <c r="E104" t="s">
         <v>130</v>
       </c>
-      <c r="F104" s="33" t="s">
+      <c r="F104" s="32" t="s">
         <v>523</v>
       </c>
       <c r="G104" s="2" t="s">
@@ -5451,7 +5501,7 @@
       <c r="B105" t="s">
         <v>499</v>
       </c>
-      <c r="C105" s="27" t="s">
+      <c r="C105" s="40" t="s">
         <v>500</v>
       </c>
       <c r="D105" t="s">
@@ -5460,7 +5510,7 @@
       <c r="E105" t="s">
         <v>130</v>
       </c>
-      <c r="F105" s="32" t="s">
+      <c r="F105" s="31" t="s">
         <v>506</v>
       </c>
       <c r="G105" s="2" t="s">
@@ -5470,14 +5520,14 @@
         <v>508</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>44869</v>
       </c>
       <c r="B106" t="s">
         <v>496</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="37" t="s">
         <v>497</v>
       </c>
       <c r="D106" t="s">
@@ -5486,7 +5536,7 @@
       <c r="E106" t="s">
         <v>343</v>
       </c>
-      <c r="F106" s="32" t="s">
+      <c r="F106" s="31" t="s">
         <v>521</v>
       </c>
       <c r="G106" s="2" t="s">
@@ -5496,14 +5546,14 @@
         <v>522</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>44876</v>
       </c>
       <c r="B107" t="s">
         <v>494</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="37" t="s">
         <v>495</v>
       </c>
       <c r="D107" t="s">
@@ -5512,7 +5562,7 @@
       <c r="E107" t="s">
         <v>77</v>
       </c>
-      <c r="F107" s="33" t="s">
+      <c r="F107" s="32" t="s">
         <v>505</v>
       </c>
       <c r="G107" s="3" t="s">
@@ -5522,14 +5572,14 @@
         <v>509</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>44897</v>
       </c>
       <c r="B108" t="s">
         <v>197</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="37" t="s">
         <v>519</v>
       </c>
       <c r="D108" t="s">
@@ -5538,7 +5588,7 @@
       <c r="E108" t="s">
         <v>76</v>
       </c>
-      <c r="F108" s="32" t="s">
+      <c r="F108" s="31" t="s">
         <v>513</v>
       </c>
       <c r="G108" s="2" t="s">
@@ -5556,7 +5606,7 @@
       <c r="B109" t="s">
         <v>31</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="37" t="s">
         <v>502</v>
       </c>
       <c r="D109" t="s">
@@ -5565,7 +5615,7 @@
       <c r="E109" t="s">
         <v>77</v>
       </c>
-      <c r="F109" s="32" t="s">
+      <c r="F109" s="31" t="s">
         <v>527</v>
       </c>
       <c r="G109" s="2" t="s">
@@ -5575,18 +5625,18 @@
         <v>525</v>
       </c>
       <c r="I109" s="23"/>
-      <c r="J109" s="29" t="s">
+      <c r="J109" s="28" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>44932</v>
       </c>
       <c r="B110" t="s">
         <v>278</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="37" t="s">
         <v>514</v>
       </c>
       <c r="D110" t="s">
@@ -5595,7 +5645,7 @@
       <c r="E110" t="s">
         <v>74</v>
       </c>
-      <c r="F110" s="32" t="s">
+      <c r="F110" s="31" t="s">
         <v>529</v>
       </c>
       <c r="G110" s="2" t="s">
@@ -5606,14 +5656,14 @@
       </c>
       <c r="I110" s="23"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>44945</v>
       </c>
       <c r="B111" t="s">
         <v>515</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="37" t="s">
         <v>516</v>
       </c>
       <c r="D111" t="s">
@@ -5622,7 +5672,7 @@
       <c r="E111" t="s">
         <v>74</v>
       </c>
-      <c r="F111" s="32" t="s">
+      <c r="F111" s="31" t="s">
         <v>545</v>
       </c>
       <c r="G111" s="2" t="s">
@@ -5633,14 +5683,14 @@
       </c>
       <c r="I111" s="23"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>44953</v>
       </c>
       <c r="B112" t="s">
         <v>0</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="37" t="s">
         <v>534</v>
       </c>
       <c r="D112" t="s">
@@ -5649,7 +5699,7 @@
       <c r="E112" t="s">
         <v>74</v>
       </c>
-      <c r="F112" s="32" t="s">
+      <c r="F112" s="31" t="s">
         <v>540</v>
       </c>
       <c r="G112" s="2" t="s">
@@ -5660,14 +5710,14 @@
       </c>
       <c r="I112" s="23"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>44960</v>
       </c>
       <c r="B113" t="s">
         <v>8</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="37" t="s">
         <v>533</v>
       </c>
       <c r="D113" t="s">
@@ -5684,14 +5734,14 @@
       </c>
       <c r="I113" s="23"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>44967</v>
       </c>
       <c r="B114" t="s">
         <v>557</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="37" t="s">
         <v>556</v>
       </c>
       <c r="D114" t="s">
@@ -5705,14 +5755,14 @@
         <v>559</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>44974</v>
       </c>
       <c r="B115" t="s">
         <v>541</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="37" t="s">
         <v>531</v>
       </c>
       <c r="D115" t="s">
@@ -5721,7 +5771,7 @@
       <c r="E115" t="s">
         <v>130</v>
       </c>
-      <c r="F115" s="32" t="s">
+      <c r="F115" s="31" t="s">
         <v>542</v>
       </c>
       <c r="G115" s="2" t="s">
@@ -5739,7 +5789,7 @@
       <c r="B116" t="s">
         <v>546</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="37" t="s">
         <v>547</v>
       </c>
       <c r="D116" t="s">
@@ -5748,7 +5798,7 @@
       <c r="E116" t="s">
         <v>77</v>
       </c>
-      <c r="F116" s="32" t="s">
+      <c r="F116" s="31" t="s">
         <v>585</v>
       </c>
       <c r="G116" s="2" t="s">
@@ -5758,18 +5808,18 @@
         <v>562</v>
       </c>
       <c r="I116" s="23"/>
-      <c r="J116" s="30" t="s">
+      <c r="J116" s="29" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>45002</v>
       </c>
       <c r="B117" t="s">
         <v>9</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="37" t="s">
         <v>549</v>
       </c>
       <c r="D117" t="s">
@@ -5778,7 +5828,7 @@
       <c r="E117" t="s">
         <v>77</v>
       </c>
-      <c r="F117" s="32" t="s">
+      <c r="F117" s="31" t="s">
         <v>586</v>
       </c>
       <c r="G117" s="2" t="s">
@@ -5797,7 +5847,7 @@
       <c r="B118" t="s">
         <v>590</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118" s="37" t="s">
         <v>560</v>
       </c>
       <c r="D118" t="s">
@@ -5806,7 +5856,7 @@
       <c r="E118" t="s">
         <v>343</v>
       </c>
-      <c r="F118" s="32" t="s">
+      <c r="F118" s="31" t="s">
         <v>587</v>
       </c>
       <c r="G118" s="2" t="s">
@@ -5825,7 +5875,7 @@
       <c r="B119" t="s">
         <v>575</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C119" s="37" t="s">
         <v>576</v>
       </c>
       <c r="D119" t="s">
@@ -5848,7 +5898,7 @@
       <c r="B120" t="s">
         <v>31</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C120" s="37" t="s">
         <v>567</v>
       </c>
       <c r="D120" t="s">
@@ -5857,7 +5907,7 @@
       <c r="E120" t="s">
         <v>77</v>
       </c>
-      <c r="F120" s="32" t="s">
+      <c r="F120" s="31" t="s">
         <v>588</v>
       </c>
       <c r="G120" s="2" t="s">
@@ -5866,18 +5916,18 @@
       <c r="H120" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="J120" s="31" t="s">
+      <c r="J120" s="30" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>45065</v>
       </c>
       <c r="B121" t="s">
         <v>568</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="37" t="s">
         <v>569</v>
       </c>
       <c r="D121" t="s">
@@ -5894,14 +5944,14 @@
       </c>
       <c r="I121" s="23"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>45079</v>
       </c>
       <c r="B122" t="s">
         <v>20</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C122" s="37" t="s">
         <v>570</v>
       </c>
       <c r="D122" t="s">
@@ -5924,7 +5974,7 @@
       <c r="B123" t="s">
         <v>571</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123" s="37" t="s">
         <v>596</v>
       </c>
       <c r="D123" t="s">
@@ -5943,14 +5993,14 @@
         <v>584</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>45093</v>
       </c>
       <c r="B124" t="s">
         <v>65</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C124" s="37" t="s">
         <v>574</v>
       </c>
       <c r="D124" t="s">
@@ -5960,14 +6010,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>45107</v>
       </c>
       <c r="B125" t="s">
         <v>9</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C125" s="37" t="s">
         <v>591</v>
       </c>
       <c r="D125" t="s">
@@ -5976,7 +6026,7 @@
       <c r="E125" t="s">
         <v>77</v>
       </c>
-      <c r="F125" s="32" t="s">
+      <c r="F125" s="31" t="s">
         <v>647</v>
       </c>
       <c r="G125" s="2" t="s">
@@ -5986,14 +6036,14 @@
         <v>624</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>45121</v>
       </c>
       <c r="B126" t="s">
         <v>572</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C126" s="37" t="s">
         <v>573</v>
       </c>
       <c r="D126" t="s">
@@ -6009,14 +6059,14 @@
         <v>622</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>45135</v>
       </c>
       <c r="B127" t="s">
         <v>592</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C127" s="37" t="s">
         <v>593</v>
       </c>
       <c r="D127" t="s">
@@ -6025,7 +6075,7 @@
       <c r="E127" t="s">
         <v>77</v>
       </c>
-      <c r="F127" s="32" t="s">
+      <c r="F127" s="31" t="s">
         <v>625</v>
       </c>
       <c r="G127" s="2" t="s">
@@ -6035,14 +6085,14 @@
         <v>620</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>45142</v>
       </c>
       <c r="B128" t="s">
         <v>607</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C128" s="37" t="s">
         <v>608</v>
       </c>
       <c r="D128" t="s">
@@ -6058,14 +6108,14 @@
         <v>618</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>45156</v>
       </c>
       <c r="B129" t="s">
         <v>611</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C129" s="37" t="s">
         <v>609</v>
       </c>
       <c r="D129" t="s">
@@ -6075,14 +6125,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>45170</v>
       </c>
       <c r="B130" t="s">
         <v>0</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C130" s="37" t="s">
         <v>612</v>
       </c>
       <c r="D130" t="s">
@@ -6091,7 +6141,7 @@
       <c r="E130" t="s">
         <v>74</v>
       </c>
-      <c r="F130" s="33" t="s">
+      <c r="F130" s="32" t="s">
         <v>629</v>
       </c>
       <c r="G130" s="2" t="s">
@@ -6101,14 +6151,14 @@
         <v>636</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>45184</v>
       </c>
       <c r="B131" t="s">
         <v>15</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C131" s="37" t="s">
         <v>614</v>
       </c>
       <c r="D131" t="s">
@@ -6119,14 +6169,14 @@
       </c>
       <c r="I131" s="23"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>45212</v>
       </c>
       <c r="B132" t="s">
         <v>557</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132" s="37" t="s">
         <v>626</v>
       </c>
       <c r="D132" t="s">
@@ -6145,14 +6195,14 @@
         <v>628</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>45240</v>
       </c>
       <c r="B133" t="s">
         <v>630</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C133" s="37" t="s">
         <v>631</v>
       </c>
       <c r="D133" t="s">
@@ -6161,19 +6211,19 @@
       <c r="E133" t="s">
         <v>343</v>
       </c>
-      <c r="F133" s="33" t="s">
+      <c r="F133" s="32" t="s">
         <v>641</v>
       </c>
       <c r="I133" s="23"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>45261</v>
       </c>
       <c r="B134" t="s">
         <v>4</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C134" s="37" t="s">
         <v>637</v>
       </c>
       <c r="D134" t="s">
@@ -6184,14 +6234,14 @@
       </c>
       <c r="I134" s="23"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>45275</v>
       </c>
       <c r="B135" t="s">
         <v>9</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C135" s="37" t="s">
         <v>646</v>
       </c>
       <c r="D135" t="s">
@@ -6200,7 +6250,7 @@
       <c r="E135" t="s">
         <v>77</v>
       </c>
-      <c r="F135" s="37" t="s">
+      <c r="F135" s="36" t="s">
         <v>648</v>
       </c>
       <c r="G135" s="2" t="s">
@@ -6211,14 +6261,14 @@
       </c>
       <c r="I135" s="23"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>45295</v>
       </c>
       <c r="B136" t="s">
         <v>31</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C136" s="37" t="s">
         <v>639</v>
       </c>
       <c r="D136" t="s">
@@ -6227,10 +6277,10 @@
       <c r="E136" t="s">
         <v>77</v>
       </c>
-      <c r="F136" s="32" t="s">
+      <c r="F136" s="31" t="s">
         <v>653</v>
       </c>
-      <c r="G136" s="32" t="s">
+      <c r="G136" s="31" t="s">
         <v>649</v>
       </c>
       <c r="H136" s="2" t="s">
@@ -6238,14 +6288,14 @@
       </c>
       <c r="I136" s="23"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>45324</v>
       </c>
       <c r="B137" t="s">
         <v>645</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C137" s="37" t="s">
         <v>642</v>
       </c>
       <c r="D137" t="s">
@@ -6254,7 +6304,7 @@
       <c r="E137" t="s">
         <v>179</v>
       </c>
-      <c r="F137" s="32" t="s">
+      <c r="F137" s="31" t="s">
         <v>667</v>
       </c>
       <c r="G137" s="2" t="s">
@@ -6265,14 +6315,14 @@
       </c>
       <c r="I137" s="23"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>45345</v>
       </c>
       <c r="B138" t="s">
         <v>665</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C138" s="37" t="s">
         <v>644</v>
       </c>
       <c r="D138" t="s">
@@ -6281,7 +6331,7 @@
       <c r="E138" t="s">
         <v>130</v>
       </c>
-      <c r="F138" s="32" t="s">
+      <c r="F138" s="31" t="s">
         <v>666</v>
       </c>
       <c r="G138" s="2" t="s">
@@ -6292,14 +6342,14 @@
       </c>
       <c r="I138" s="23"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>45352</v>
       </c>
       <c r="B139" t="s">
         <v>197</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C139" s="37" t="s">
         <v>654</v>
       </c>
       <c r="D139" t="s">
@@ -6308,7 +6358,7 @@
       <c r="E139" t="s">
         <v>77</v>
       </c>
-      <c r="F139" s="32" t="s">
+      <c r="F139" s="31" t="s">
         <v>677</v>
       </c>
       <c r="G139" s="2" t="s">
@@ -6319,14 +6369,14 @@
       </c>
       <c r="I139" s="23"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>45359</v>
       </c>
       <c r="B140" t="s">
         <v>655</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C140" s="37" t="s">
         <v>656</v>
       </c>
       <c r="D140" t="s">
@@ -6335,7 +6385,7 @@
       <c r="E140" t="s">
         <v>130</v>
       </c>
-      <c r="F140" s="32" t="s">
+      <c r="F140" s="31" t="s">
         <v>676</v>
       </c>
       <c r="G140" s="2" t="s">
@@ -6346,14 +6396,14 @@
       </c>
       <c r="I140" s="23"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>45366</v>
       </c>
       <c r="B141" t="s">
         <v>494</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C141" s="37" t="s">
         <v>657</v>
       </c>
       <c r="D141" t="s">
@@ -6362,7 +6412,7 @@
       <c r="E141" t="s">
         <v>77</v>
       </c>
-      <c r="F141" s="32" t="s">
+      <c r="F141" s="31" t="s">
         <v>678</v>
       </c>
       <c r="G141" s="2" t="s">
@@ -6373,14 +6423,14 @@
       </c>
       <c r="I141" s="23"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>45387</v>
       </c>
       <c r="B142" t="s">
         <v>31</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C142" s="37" t="s">
         <v>661</v>
       </c>
       <c r="D142" t="s">
@@ -6389,7 +6439,7 @@
       <c r="E142" t="s">
         <v>77</v>
       </c>
-      <c r="F142" s="32" t="s">
+      <c r="F142" s="31" t="s">
         <v>674</v>
       </c>
       <c r="G142" s="2" t="s">
@@ -6400,14 +6450,14 @@
       </c>
       <c r="I142" s="23"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>45408</v>
       </c>
       <c r="B143" t="s">
         <v>572</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C143" s="37" t="s">
         <v>663</v>
       </c>
       <c r="D143" t="s">
@@ -6416,7 +6466,7 @@
       <c r="E143" t="s">
         <v>77</v>
       </c>
-      <c r="F143" s="32" t="s">
+      <c r="F143" s="31" t="s">
         <v>675</v>
       </c>
       <c r="G143" s="2" t="s">
@@ -6427,14 +6477,14 @@
       </c>
       <c r="I143" s="23"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>45422</v>
       </c>
       <c r="B144" t="s">
         <v>9</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C144" s="37" t="s">
         <v>668</v>
       </c>
       <c r="D144" t="s">
@@ -6443,7 +6493,7 @@
       <c r="E144" t="s">
         <v>77</v>
       </c>
-      <c r="F144" s="32" t="s">
+      <c r="F144" s="31" t="s">
         <v>698</v>
       </c>
       <c r="G144" s="2" t="s">
@@ -6454,14 +6504,14 @@
       </c>
       <c r="I144" s="23"/>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>45436</v>
       </c>
       <c r="B145" t="s">
         <v>669</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C145" s="37" t="s">
         <v>670</v>
       </c>
       <c r="D145" t="s">
@@ -6478,14 +6528,14 @@
       </c>
       <c r="I145" s="23"/>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>45450</v>
       </c>
       <c r="B146" t="s">
         <v>541</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C146" s="37" t="s">
         <v>671</v>
       </c>
       <c r="D146" t="s">
@@ -6494,7 +6544,7 @@
       <c r="E146" t="s">
         <v>77</v>
       </c>
-      <c r="F146" s="32" t="s">
+      <c r="F146" s="31" t="s">
         <v>697</v>
       </c>
       <c r="G146" s="2" t="s">
@@ -6505,14 +6555,14 @@
       </c>
       <c r="I146" s="23"/>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>45457</v>
       </c>
       <c r="B147" t="s">
         <v>65</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C147" s="37" t="s">
         <v>66</v>
       </c>
       <c r="D147" t="s">
@@ -6523,14 +6573,14 @@
       </c>
       <c r="I147" s="23"/>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>45499</v>
       </c>
       <c r="B148" t="s">
         <v>701</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C148" s="37" t="s">
         <v>702</v>
       </c>
       <c r="D148" t="s">
@@ -6550,14 +6600,14 @@
         <v>713</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>45513</v>
       </c>
       <c r="B149" t="s">
         <v>592</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C149" s="37" t="s">
         <v>703</v>
       </c>
       <c r="D149" t="s">
@@ -6574,14 +6624,14 @@
       </c>
       <c r="I149" s="23"/>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>45527</v>
       </c>
       <c r="B150" t="s">
         <v>46</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C150" s="37" t="s">
         <v>704</v>
       </c>
       <c r="D150" t="s">
@@ -6590,7 +6640,7 @@
       <c r="E150" t="s">
         <v>130</v>
       </c>
-      <c r="F150" s="32" t="s">
+      <c r="F150" s="31" t="s">
         <v>721</v>
       </c>
       <c r="G150" s="2" t="s">
@@ -6601,14 +6651,14 @@
       </c>
       <c r="I150" s="23"/>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>45541</v>
       </c>
       <c r="B151" t="s">
         <v>8</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C151" s="37" t="s">
         <v>709</v>
       </c>
       <c r="D151" t="s">
@@ -6619,14 +6669,14 @@
       </c>
       <c r="I151" s="23"/>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>45549</v>
       </c>
       <c r="B152" t="s">
         <v>735</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C152" s="37" t="s">
         <v>712</v>
       </c>
       <c r="D152" t="s">
@@ -6635,7 +6685,7 @@
       <c r="E152" t="s">
         <v>179</v>
       </c>
-      <c r="F152" s="32" t="s">
+      <c r="F152" s="31" t="s">
         <v>734</v>
       </c>
       <c r="G152" s="2" t="s">
@@ -6649,14 +6699,14 @@
         <v>736</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>45555</v>
       </c>
       <c r="B153" t="s">
         <v>31</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C153" s="37" t="s">
         <v>727</v>
       </c>
       <c r="D153" t="s">
@@ -6665,7 +6715,7 @@
       <c r="E153" t="s">
         <v>77</v>
       </c>
-      <c r="F153" s="32" t="s">
+      <c r="F153" s="31" t="s">
         <v>737</v>
       </c>
       <c r="G153" s="3" t="s">
@@ -6676,14 +6726,14 @@
       </c>
       <c r="I153" s="23"/>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>45569</v>
       </c>
       <c r="B154" t="s">
         <v>197</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C154" s="37" t="s">
         <v>723</v>
       </c>
       <c r="D154" t="s">
@@ -6692,7 +6742,7 @@
       <c r="E154" t="s">
         <v>76</v>
       </c>
-      <c r="F154" s="32" t="s">
+      <c r="F154" s="31" t="s">
         <v>738</v>
       </c>
       <c r="G154" s="2" t="s">
@@ -6703,14 +6753,14 @@
       </c>
       <c r="I154" s="23"/>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>45583</v>
       </c>
       <c r="B155" t="s">
         <v>197</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C155" s="37" t="s">
         <v>724</v>
       </c>
       <c r="D155" t="s">
@@ -6719,7 +6769,7 @@
       <c r="E155" t="s">
         <v>76</v>
       </c>
-      <c r="F155" s="32" t="s">
+      <c r="F155" s="31" t="s">
         <v>743</v>
       </c>
       <c r="G155" s="2" t="s">
@@ -6730,14 +6780,14 @@
       </c>
       <c r="I155" s="23"/>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>45597</v>
       </c>
       <c r="B156" t="s">
         <v>31</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C156" s="37" t="s">
         <v>728</v>
       </c>
       <c r="D156" t="s">
@@ -6746,7 +6796,7 @@
       <c r="E156" t="s">
         <v>77</v>
       </c>
-      <c r="F156" s="32" t="s">
+      <c r="F156" s="31" t="s">
         <v>751</v>
       </c>
       <c r="G156" s="3" t="s">
@@ -6757,14 +6807,14 @@
       </c>
       <c r="I156" s="23"/>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>45611</v>
       </c>
       <c r="B157" t="s">
         <v>722</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C157" s="37" t="s">
         <v>725</v>
       </c>
       <c r="D157" t="s">
@@ -6773,7 +6823,7 @@
       <c r="E157" t="s">
         <v>77</v>
       </c>
-      <c r="F157" s="33" t="s">
+      <c r="F157" s="32" t="s">
         <v>760</v>
       </c>
       <c r="G157" s="2" t="s">
@@ -6784,14 +6834,14 @@
       </c>
       <c r="I157" s="23"/>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>45618</v>
       </c>
       <c r="B158" t="s">
         <v>65</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C158" s="37" t="s">
         <v>750</v>
       </c>
       <c r="D158" t="s">
@@ -6800,7 +6850,7 @@
       <c r="E158" t="s">
         <v>130</v>
       </c>
-      <c r="G158" s="32" t="s">
+      <c r="G158" s="31" t="s">
         <v>760</v>
       </c>
       <c r="H158" s="2" t="s">
@@ -6808,14 +6858,14 @@
       </c>
       <c r="I158" s="23"/>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>45639</v>
       </c>
       <c r="B159" t="s">
         <v>494</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C159" s="37" t="s">
         <v>748</v>
       </c>
       <c r="D159" t="s">
@@ -6824,7 +6874,7 @@
       <c r="E159" t="s">
         <v>77</v>
       </c>
-      <c r="G159" s="32" t="s">
+      <c r="G159" s="31" t="s">
         <v>758</v>
       </c>
       <c r="H159" s="2" t="s">
@@ -6832,14 +6882,14 @@
       </c>
       <c r="I159" s="23"/>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>45667</v>
       </c>
       <c r="B160" t="s">
         <v>766</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C160" s="37" t="s">
         <v>765</v>
       </c>
       <c r="D160" t="s">
@@ -6848,76 +6898,79 @@
       <c r="E160" t="s">
         <v>130</v>
       </c>
+      <c r="G160" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="H160" s="2" t="s">
+        <v>781</v>
+      </c>
       <c r="I160" s="23"/>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>45681</v>
       </c>
       <c r="B161" t="s">
         <v>8</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C161" s="37" t="s">
         <v>744</v>
       </c>
       <c r="D161" t="s">
         <v>745</v>
       </c>
       <c r="E161" t="s">
-        <v>711</v>
-      </c>
-      <c r="I161" s="23">
-        <v>0.8125</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+      <c r="I161" s="23"/>
+    </row>
+    <row r="162" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
-        <v>45329</v>
+        <v>45695</v>
       </c>
       <c r="B162" t="s">
         <v>2</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C162" s="37" t="s">
         <v>749</v>
       </c>
       <c r="D162" t="s">
         <v>755</v>
       </c>
       <c r="E162" t="s">
-        <v>711</v>
-      </c>
-      <c r="I162" s="23">
-        <v>0.8125</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+      <c r="I162" s="23"/>
+    </row>
+    <row r="163" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>45709</v>
       </c>
       <c r="B163" t="s">
-        <v>762</v>
-      </c>
-      <c r="C163" t="s">
-        <v>763</v>
+        <v>557</v>
+      </c>
+      <c r="C163" s="37" t="s">
+        <v>775</v>
       </c>
       <c r="D163" t="s">
-        <v>764</v>
+        <v>776</v>
       </c>
       <c r="E163" t="s">
-        <v>711</v>
-      </c>
-      <c r="I163" s="23">
-        <v>0.8125</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="F163" s="31" t="s">
+        <v>782</v>
+      </c>
+      <c r="I163" s="23"/>
+    </row>
+    <row r="164" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>45723</v>
       </c>
       <c r="B164" t="s">
         <v>768</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C164" s="37" t="s">
         <v>769</v>
       </c>
       <c r="D164" t="s">
@@ -6928,6 +6981,103 @@
       </c>
       <c r="I164" s="23">
         <v>0.8125</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A165" s="1">
+        <v>45730</v>
+      </c>
+      <c r="B165" t="s">
+        <v>770</v>
+      </c>
+      <c r="C165" s="37" t="s">
+        <v>771</v>
+      </c>
+      <c r="D165" t="s">
+        <v>777</v>
+      </c>
+      <c r="E165" t="s">
+        <v>711</v>
+      </c>
+      <c r="I165" s="23">
+        <v>0.8125</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A166" s="1">
+        <v>45737</v>
+      </c>
+      <c r="B166" t="s">
+        <v>4</v>
+      </c>
+      <c r="C166" s="37" t="s">
+        <v>772</v>
+      </c>
+      <c r="D166" t="s">
+        <v>328</v>
+      </c>
+      <c r="E166" t="s">
+        <v>711</v>
+      </c>
+      <c r="I166" s="23">
+        <v>0.8125</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A167" s="1">
+        <v>45751</v>
+      </c>
+      <c r="B167" t="s">
+        <v>31</v>
+      </c>
+      <c r="C167" s="37" t="s">
+        <v>773</v>
+      </c>
+      <c r="D167" t="s">
+        <v>778</v>
+      </c>
+      <c r="E167" t="s">
+        <v>711</v>
+      </c>
+      <c r="I167" s="23">
+        <v>0.8125</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A168" s="1">
+        <v>45765</v>
+      </c>
+      <c r="B168" t="s">
+        <v>762</v>
+      </c>
+      <c r="C168" s="37" t="s">
+        <v>763</v>
+      </c>
+      <c r="D168" t="s">
+        <v>764</v>
+      </c>
+      <c r="E168" t="s">
+        <v>711</v>
+      </c>
+      <c r="I168" s="23">
+        <v>0.8125</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A169" s="1">
+        <v>45779</v>
+      </c>
+      <c r="B169" t="s">
+        <v>9</v>
+      </c>
+      <c r="C169" s="37" t="s">
+        <v>774</v>
+      </c>
+      <c r="D169" t="s">
+        <v>779</v>
+      </c>
+      <c r="E169" t="s">
+        <v>711</v>
       </c>
     </row>
   </sheetData>

--- a/alumni_seminars.xlsx
+++ b/alumni_seminars.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minhe/wulibeida79/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC241A76-285F-2148-B543-6FE0CBD24945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9111BC-240C-2740-B651-A2AB406BF90C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3880" yWindow="1600" windowWidth="51200" windowHeight="26600" xr2:uid="{700D315C-D919-4596-880F-1F597F7C3FD0}"/>
+    <workbookView xWindow="9560" yWindow="2240" windowWidth="51200" windowHeight="26600" xr2:uid="{700D315C-D919-4596-880F-1F597F7C3FD0}"/>
   </bookViews>
   <sheets>
     <sheet name="alumni_seminars" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="783">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="789">
   <si>
     <t>贺敏</t>
   </si>
@@ -2392,6 +2392,24 @@
   </si>
   <si>
     <t>https://docs.google.com/presentation/d/1BlgSDMJ9v1wPUAwnHFZS4n5cDc6EPOoy/edit?usp=sharing&amp;ouid=118189640657796082890&amp;rtpof=true&amp;sd=true</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1fcQcC1NSq-74HNmGi-Vde6nV_Dm34WQN/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/11LF2_2vKLK9832x8LGPGL9DFqAZI6Loq/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1eloHOekOYm1MbShS3XnZkgJdclMQi17Z/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1xjNxuzt7z2ya5J0dRt_nEErqiuOqmJEM/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1DEuk0pPNqYTHiX7VtiL2vArIJGZATNds/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1K0iJOXclz38HLrYaZ75oh2a6iA3WkIw8/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -2985,7 +3003,7 @@
   <dimension ref="A1:J169"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A142" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="G185" sqref="G185"/>
+      <selection activeCell="A161" sqref="A161:XFD161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6922,6 +6940,12 @@
       <c r="E161" t="s">
         <v>77</v>
       </c>
+      <c r="G161" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="H161" s="2" t="s">
+        <v>784</v>
+      </c>
       <c r="I161" s="23"/>
     </row>
     <row r="162" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -6940,6 +6964,12 @@
       <c r="E162" t="s">
         <v>77</v>
       </c>
+      <c r="G162" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="H162" s="2" t="s">
+        <v>786</v>
+      </c>
       <c r="I162" s="23"/>
     </row>
     <row r="163" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -6960,6 +6990,12 @@
       </c>
       <c r="F163" s="31" t="s">
         <v>782</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="H163" s="2" t="s">
+        <v>788</v>
       </c>
       <c r="I163" s="23"/>
     </row>

--- a/alumni_seminars.xlsx
+++ b/alumni_seminars.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minhe/wulibeida79/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9111BC-240C-2740-B651-A2AB406BF90C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C71BFAA-3627-AD41-A056-09CD8D47D62C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9560" yWindow="2240" windowWidth="51200" windowHeight="26600" xr2:uid="{700D315C-D919-4596-880F-1F597F7C3FD0}"/>
+    <workbookView xWindow="14340" yWindow="3200" windowWidth="51200" windowHeight="26600" xr2:uid="{700D315C-D919-4596-880F-1F597F7C3FD0}"/>
   </bookViews>
   <sheets>
     <sheet name="alumni_seminars" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="790">
   <si>
     <t>贺敏</t>
   </si>
@@ -2367,9 +2367,6 @@
     <t>Jazz, the Ultimate American Art Form 3: American Fingerprints in World Music -- Rhapsody in Blue</t>
   </si>
   <si>
-    <t>DIY Camper Van V2</t>
-  </si>
-  <si>
     <t>Group Discussion： AI Showdown</t>
   </si>
   <si>
@@ -2382,9 +2379,6 @@
     <t>img/Rhapsody_in_Blue.jpg</t>
   </si>
   <si>
-    <t>img/sprinter.jpg</t>
-  </si>
-  <si>
     <t>https://drive.google.com/file/d/1zFbwPYOmEm_ZWZufI--kmHDSrexBxanj/view?usp=sharing</t>
   </si>
   <si>
@@ -2410,6 +2404,15 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1K0iJOXclz38HLrYaZ75oh2a6iA3WkIw8/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>洪漪</t>
+  </si>
+  <si>
+    <t>医疗与大健康数据中的词汇控制和术语标准</t>
+  </si>
+  <si>
+    <t>img/医学词汇标准.jpg</t>
   </si>
 </sst>
 </file>
@@ -3003,7 +3006,7 @@
   <dimension ref="A1:J169"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A142" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="A161" sqref="A161:XFD161"/>
+      <selection activeCell="A169" sqref="A169:XFD169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6917,10 +6920,10 @@
         <v>130</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="I160" s="23"/>
     </row>
@@ -6941,10 +6944,10 @@
         <v>77</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="I161" s="23"/>
     </row>
@@ -6965,10 +6968,10 @@
         <v>77</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="I162" s="23"/>
     </row>
@@ -6980,22 +6983,22 @@
         <v>557</v>
       </c>
       <c r="C163" s="37" t="s">
+        <v>774</v>
+      </c>
+      <c r="D163" t="s">
         <v>775</v>
-      </c>
-      <c r="D163" t="s">
-        <v>776</v>
       </c>
       <c r="E163" t="s">
         <v>74</v>
       </c>
       <c r="F163" s="31" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="I163" s="23"/>
     </row>
@@ -7013,24 +7016,22 @@
         <v>767</v>
       </c>
       <c r="E164" t="s">
-        <v>711</v>
-      </c>
-      <c r="I164" s="23">
-        <v>0.8125</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="I164" s="23"/>
     </row>
     <row r="165" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
-        <v>45730</v>
+        <v>45737</v>
       </c>
       <c r="B165" t="s">
-        <v>770</v>
+        <v>4</v>
       </c>
       <c r="C165" s="37" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="D165" t="s">
-        <v>777</v>
+        <v>328</v>
       </c>
       <c r="E165" t="s">
         <v>711</v>
@@ -7039,18 +7040,18 @@
         <v>0.8125</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
-        <v>45737</v>
+        <v>45751</v>
       </c>
       <c r="B166" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C166" s="37" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="D166" t="s">
-        <v>328</v>
+        <v>777</v>
       </c>
       <c r="E166" t="s">
         <v>711</v>
@@ -7059,18 +7060,18 @@
         <v>0.8125</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
-        <v>45751</v>
+        <v>45765</v>
       </c>
       <c r="B167" t="s">
-        <v>31</v>
+        <v>762</v>
       </c>
       <c r="C167" s="37" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
       <c r="D167" t="s">
-        <v>778</v>
+        <v>764</v>
       </c>
       <c r="E167" t="s">
         <v>711</v>
@@ -7081,16 +7082,16 @@
     </row>
     <row r="168" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
-        <v>45765</v>
+        <v>45779</v>
       </c>
       <c r="B168" t="s">
-        <v>762</v>
+        <v>770</v>
       </c>
       <c r="C168" s="37" t="s">
-        <v>763</v>
+        <v>771</v>
       </c>
       <c r="D168" t="s">
-        <v>764</v>
+        <v>776</v>
       </c>
       <c r="E168" t="s">
         <v>711</v>
@@ -7101,19 +7102,22 @@
     </row>
     <row r="169" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
-        <v>45779</v>
+        <v>45793</v>
       </c>
       <c r="B169" t="s">
-        <v>9</v>
+        <v>787</v>
       </c>
       <c r="C169" s="37" t="s">
-        <v>774</v>
+        <v>788</v>
       </c>
       <c r="D169" t="s">
-        <v>779</v>
+        <v>789</v>
       </c>
       <c r="E169" t="s">
         <v>711</v>
+      </c>
+      <c r="I169" s="23">
+        <v>0.8125</v>
       </c>
     </row>
   </sheetData>

--- a/alumni_seminars.xlsx
+++ b/alumni_seminars.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minhe/wulibeida79/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C71BFAA-3627-AD41-A056-09CD8D47D62C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1D270D-4D3A-FB4C-A39E-B17E09925477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14340" yWindow="3200" windowWidth="51200" windowHeight="26600" xr2:uid="{700D315C-D919-4596-880F-1F597F7C3FD0}"/>
+    <workbookView xWindow="10680" yWindow="1220" windowWidth="51200" windowHeight="26600" xr2:uid="{700D315C-D919-4596-880F-1F597F7C3FD0}"/>
   </bookViews>
   <sheets>
     <sheet name="alumni_seminars" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="797">
   <si>
     <t>贺敏</t>
   </si>
@@ -2413,6 +2413,27 @@
   </si>
   <si>
     <t>img/医学词汇标准.jpg</t>
+  </si>
+  <si>
+    <t>Camper 2</t>
+  </si>
+  <si>
+    <t>讲座五周年座谈</t>
+  </si>
+  <si>
+    <t>img/5-year.jpg</t>
+  </si>
+  <si>
+    <t>img/campervan_2.jpg</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1p368s1LuJMDpdlnUNCMb4Vop8XBr7GLd/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1NMKsJt-pR8z8OEZoh4O9U8zQ9ghtofwE/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1i5qOlVNie3V4gm83-JmcVRsQ7nFBtSF5/view?usp=drive_link</t>
   </si>
 </sst>
 </file>
@@ -3003,10 +3024,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{125ED64C-CBBF-451D-8A64-D0747896E26B}">
-  <dimension ref="A1:J169"/>
+  <dimension ref="A1:J172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="A169" sqref="A169:XFD169"/>
+    <sheetView tabSelected="1" topLeftCell="A131" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="F166" sqref="F166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7034,11 +7055,9 @@
         <v>328</v>
       </c>
       <c r="E165" t="s">
-        <v>711</v>
-      </c>
-      <c r="I165" s="23">
-        <v>0.8125</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="I165" s="23"/>
     </row>
     <row r="166" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
@@ -7054,11 +7073,18 @@
         <v>777</v>
       </c>
       <c r="E166" t="s">
-        <v>711</v>
-      </c>
-      <c r="I166" s="23">
-        <v>0.8125</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="F166" s="31" t="s">
+        <v>794</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="H166" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="I166" s="23"/>
     </row>
     <row r="167" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
@@ -7074,11 +7100,9 @@
         <v>764</v>
       </c>
       <c r="E167" t="s">
-        <v>711</v>
-      </c>
-      <c r="I167" s="23">
-        <v>0.8125</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="I167" s="23"/>
     </row>
     <row r="168" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
@@ -7094,11 +7118,9 @@
         <v>776</v>
       </c>
       <c r="E168" t="s">
-        <v>711</v>
-      </c>
-      <c r="I168" s="23">
-        <v>0.8125</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="I168" s="23"/>
     </row>
     <row r="169" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
@@ -7114,9 +7136,67 @@
         <v>789</v>
       </c>
       <c r="E169" t="s">
+        <v>74</v>
+      </c>
+      <c r="I169" s="23"/>
+    </row>
+    <row r="170" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A170" s="1">
+        <v>45807</v>
+      </c>
+      <c r="B170" t="s">
+        <v>9</v>
+      </c>
+      <c r="C170" s="37" t="s">
+        <v>790</v>
+      </c>
+      <c r="D170" t="s">
+        <v>793</v>
+      </c>
+      <c r="E170" t="s">
         <v>711</v>
       </c>
-      <c r="I169" s="23">
+      <c r="I170" s="23">
+        <v>0.8125</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A171" s="1">
+        <v>45814</v>
+      </c>
+      <c r="B171" t="s">
+        <v>4</v>
+      </c>
+      <c r="C171" s="37" t="s">
+        <v>772</v>
+      </c>
+      <c r="D171" t="s">
+        <v>610</v>
+      </c>
+      <c r="E171" t="s">
+        <v>711</v>
+      </c>
+      <c r="I171" s="23">
+        <v>0.8125</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A172" s="1">
+        <v>45821</v>
+      </c>
+      <c r="B172" t="s">
+        <v>65</v>
+      </c>
+      <c r="C172" s="37" t="s">
+        <v>791</v>
+      </c>
+      <c r="D172" t="s">
+        <v>792</v>
+      </c>
+      <c r="E172" t="s">
+        <v>711</v>
+      </c>
+      <c r="I172" s="23">
         <v>0.8125</v>
       </c>
     </row>

--- a/alumni_seminars.xlsx
+++ b/alumni_seminars.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minhe/wulibeida79/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1D270D-4D3A-FB4C-A39E-B17E09925477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE761FE2-739B-A543-9D59-6392AE659910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10680" yWindow="1220" windowWidth="51200" windowHeight="26600" xr2:uid="{700D315C-D919-4596-880F-1F597F7C3FD0}"/>
+    <workbookView xWindow="2380" yWindow="500" windowWidth="51200" windowHeight="26600" xr2:uid="{700D315C-D919-4596-880F-1F597F7C3FD0}"/>
   </bookViews>
   <sheets>
     <sheet name="alumni_seminars" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="808">
   <si>
     <t>贺敏</t>
   </si>
@@ -2434,6 +2434,39 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1i5qOlVNie3V4gm83-JmcVRsQ7nFBtSF5/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>吴珊</t>
+  </si>
+  <si>
+    <t>健康的未来--自我健康管理</t>
+  </si>
+  <si>
+    <t>img/healthy_food.jpg</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1upA6nScEMGQ2b8w_5q6xKyDxnh23vB3y/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1hLfia8hRlV7Zo7WHQiS_fTPTwEOs9nrc/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1zcHVGAEUKRxnoChsPnXhMhu29HRkaKC6/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1vVQdYG6IqsLbaLPI6rfr_RNRn_5wxAcv/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Z8vQ9hkUCHWtQN6tkgKqPjKlqhQEplpy/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1AbOBQUBawOiRZBLGEmfo4s9PdwlFSh0I/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1iRjTAlbIF1T-1Mawyl8b0wjya8UMS44Z/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1aPgghDAzmgi9_znt4qbj4Osi-bGyBrQu/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -3024,10 +3057,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{125ED64C-CBBF-451D-8A64-D0747896E26B}">
-  <dimension ref="A1:J172"/>
+  <dimension ref="A1:J173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="F166" sqref="F166"/>
+    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="A166" sqref="A166:XFD166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4896,7 +4929,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>44637</v>
       </c>
@@ -6611,7 +6644,7 @@
         <v>175</v>
       </c>
       <c r="E147" t="s">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="I147" s="23"/>
     </row>
@@ -7102,6 +7135,12 @@
       <c r="E167" t="s">
         <v>74</v>
       </c>
+      <c r="G167" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="H167" s="2" t="s">
+        <v>807</v>
+      </c>
       <c r="I167" s="23"/>
     </row>
     <row r="168" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -7120,6 +7159,12 @@
       <c r="E168" t="s">
         <v>130</v>
       </c>
+      <c r="G168" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="H168" s="2" t="s">
+        <v>805</v>
+      </c>
       <c r="I168" s="23"/>
     </row>
     <row r="169" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -7138,6 +7183,12 @@
       <c r="E169" t="s">
         <v>74</v>
       </c>
+      <c r="G169" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="H169" s="2" t="s">
+        <v>803</v>
+      </c>
       <c r="I169" s="23"/>
     </row>
     <row r="170" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -7154,11 +7205,15 @@
         <v>793</v>
       </c>
       <c r="E170" t="s">
-        <v>711</v>
-      </c>
-      <c r="I170" s="23">
-        <v>0.8125</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="H170" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="I170" s="23"/>
     </row>
     <row r="171" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
@@ -7174,13 +7229,11 @@
         <v>610</v>
       </c>
       <c r="E171" t="s">
-        <v>711</v>
-      </c>
-      <c r="I171" s="23">
-        <v>0.8125</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+        <v>370</v>
+      </c>
+      <c r="I171" s="23"/>
+    </row>
+    <row r="172" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>45821</v>
       </c>
@@ -7194,9 +7247,27 @@
         <v>792</v>
       </c>
       <c r="E172" t="s">
+        <v>130</v>
+      </c>
+      <c r="I172" s="23"/>
+    </row>
+    <row r="173" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A173" s="1">
+        <v>45883</v>
+      </c>
+      <c r="B173" t="s">
+        <v>797</v>
+      </c>
+      <c r="C173" s="37" t="s">
+        <v>798</v>
+      </c>
+      <c r="D173" t="s">
+        <v>799</v>
+      </c>
+      <c r="E173" t="s">
         <v>711</v>
       </c>
-      <c r="I172" s="23">
+      <c r="I173" s="23">
         <v>0.8125</v>
       </c>
     </row>

--- a/alumni_seminars.xlsx
+++ b/alumni_seminars.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minhe/wulibeida79/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE761FE2-739B-A543-9D59-6392AE659910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A9804C-50B4-4044-BED9-6F5B170627E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2380" yWindow="500" windowWidth="51200" windowHeight="26600" xr2:uid="{700D315C-D919-4596-880F-1F597F7C3FD0}"/>
+    <workbookView xWindow="2600" yWindow="1760" windowWidth="51200" windowHeight="26600" xr2:uid="{700D315C-D919-4596-880F-1F597F7C3FD0}"/>
   </bookViews>
   <sheets>
     <sheet name="alumni_seminars" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="809">
   <si>
     <t>贺敏</t>
   </si>
@@ -2178,9 +2178,6 @@
     <t>img/NAR-settlement-impact.jpg</t>
   </si>
   <si>
-    <t>Upcoming</t>
-  </si>
-  <si>
     <t>老年痴呆和干细胞研究最新进展</t>
   </si>
   <si>
@@ -2467,6 +2464,12 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1aPgghDAzmgi9_znt4qbj4Osi-bGyBrQu/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1h43XGnaF_qkZrE9PFijbwkDAmS_-REyH/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1_w9HYD9vyPPLl-Xk_KdvG_crkdZTZDRn/view?usp=drive_link</t>
   </si>
 </sst>
 </file>
@@ -3059,8 +3062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{125ED64C-CBBF-451D-8A64-D0747896E26B}">
   <dimension ref="A1:J173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="A166" sqref="A166:XFD166"/>
+    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="F173" sqref="F173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6665,14 +6668,14 @@
         <v>74</v>
       </c>
       <c r="G148" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="H148" s="2" t="s">
         <v>715</v>
-      </c>
-      <c r="H148" s="2" t="s">
-        <v>716</v>
       </c>
       <c r="I148" s="23"/>
       <c r="J148" s="8" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="149" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -6692,10 +6695,10 @@
         <v>77</v>
       </c>
       <c r="G149" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="H149" s="2" t="s">
         <v>717</v>
-      </c>
-      <c r="H149" s="2" t="s">
-        <v>718</v>
       </c>
       <c r="I149" s="23"/>
     </row>
@@ -6716,13 +6719,13 @@
         <v>130</v>
       </c>
       <c r="F150" s="31" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G150" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="H150" s="2" t="s">
         <v>719</v>
-      </c>
-      <c r="H150" s="2" t="s">
-        <v>720</v>
       </c>
       <c r="I150" s="23"/>
     </row>
@@ -6749,29 +6752,29 @@
         <v>45549</v>
       </c>
       <c r="B152" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C152" s="37" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D152" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E152" t="s">
         <v>179</v>
       </c>
       <c r="F152" s="31" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G152" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="H152" s="2" t="s">
         <v>732</v>
-      </c>
-      <c r="H152" s="2" t="s">
-        <v>733</v>
       </c>
       <c r="I152" s="23"/>
       <c r="J152" s="8" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="153" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -6782,7 +6785,7 @@
         <v>31</v>
       </c>
       <c r="C153" s="37" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D153" t="s">
         <v>708</v>
@@ -6791,13 +6794,13 @@
         <v>77</v>
       </c>
       <c r="F153" s="31" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="G153" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="H153" s="2" t="s">
         <v>730</v>
-      </c>
-      <c r="H153" s="2" t="s">
-        <v>731</v>
       </c>
       <c r="I153" s="23"/>
     </row>
@@ -6809,22 +6812,22 @@
         <v>197</v>
       </c>
       <c r="C154" s="37" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D154" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E154" t="s">
         <v>76</v>
       </c>
       <c r="F154" s="31" t="s">
+        <v>737</v>
+      </c>
+      <c r="G154" s="2" t="s">
         <v>738</v>
       </c>
-      <c r="G154" s="2" t="s">
+      <c r="H154" s="3" t="s">
         <v>739</v>
-      </c>
-      <c r="H154" s="3" t="s">
-        <v>740</v>
       </c>
       <c r="I154" s="23"/>
     </row>
@@ -6836,22 +6839,22 @@
         <v>197</v>
       </c>
       <c r="C155" s="37" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D155" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E155" t="s">
         <v>76</v>
       </c>
       <c r="F155" s="31" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="G155" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="H155" s="2" t="s">
         <v>741</v>
-      </c>
-      <c r="H155" s="2" t="s">
-        <v>742</v>
       </c>
       <c r="I155" s="23"/>
     </row>
@@ -6863,22 +6866,22 @@
         <v>31</v>
       </c>
       <c r="C156" s="37" t="s">
+        <v>727</v>
+      </c>
+      <c r="D156" t="s">
         <v>728</v>
-      </c>
-      <c r="D156" t="s">
-        <v>729</v>
       </c>
       <c r="E156" t="s">
         <v>77</v>
       </c>
       <c r="F156" s="31" t="s">
+        <v>750</v>
+      </c>
+      <c r="G156" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="G156" s="3" t="s">
+      <c r="H156" s="2" t="s">
         <v>752</v>
-      </c>
-      <c r="H156" s="2" t="s">
-        <v>753</v>
       </c>
       <c r="I156" s="23"/>
     </row>
@@ -6887,25 +6890,25 @@
         <v>45611</v>
       </c>
       <c r="B157" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C157" s="37" t="s">
+        <v>724</v>
+      </c>
+      <c r="D157" t="s">
         <v>725</v>
-      </c>
-      <c r="D157" t="s">
-        <v>726</v>
       </c>
       <c r="E157" t="s">
         <v>77</v>
       </c>
       <c r="F157" s="32" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G157" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="H157" s="2" t="s">
         <v>756</v>
-      </c>
-      <c r="H157" s="2" t="s">
-        <v>757</v>
       </c>
       <c r="I157" s="23"/>
     </row>
@@ -6917,7 +6920,7 @@
         <v>65</v>
       </c>
       <c r="C158" s="37" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D158" t="s">
         <v>437</v>
@@ -6926,10 +6929,10 @@
         <v>130</v>
       </c>
       <c r="G158" s="31" t="s">
+        <v>759</v>
+      </c>
+      <c r="H158" s="2" t="s">
         <v>760</v>
-      </c>
-      <c r="H158" s="2" t="s">
-        <v>761</v>
       </c>
       <c r="I158" s="23"/>
     </row>
@@ -6941,19 +6944,19 @@
         <v>494</v>
       </c>
       <c r="C159" s="37" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D159" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E159" t="s">
         <v>77</v>
       </c>
       <c r="G159" s="31" t="s">
+        <v>757</v>
+      </c>
+      <c r="H159" s="2" t="s">
         <v>758</v>
-      </c>
-      <c r="H159" s="2" t="s">
-        <v>759</v>
       </c>
       <c r="I159" s="23"/>
     </row>
@@ -6962,22 +6965,22 @@
         <v>45667</v>
       </c>
       <c r="B160" t="s">
+        <v>765</v>
+      </c>
+      <c r="C160" s="37" t="s">
+        <v>764</v>
+      </c>
+      <c r="D160" t="s">
         <v>766</v>
-      </c>
-      <c r="C160" s="37" t="s">
-        <v>765</v>
-      </c>
-      <c r="D160" t="s">
-        <v>767</v>
       </c>
       <c r="E160" t="s">
         <v>130</v>
       </c>
       <c r="G160" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="H160" s="2" t="s">
         <v>778</v>
-      </c>
-      <c r="H160" s="2" t="s">
-        <v>779</v>
       </c>
       <c r="I160" s="23"/>
     </row>
@@ -6989,19 +6992,19 @@
         <v>8</v>
       </c>
       <c r="C161" s="37" t="s">
+        <v>743</v>
+      </c>
+      <c r="D161" t="s">
         <v>744</v>
-      </c>
-      <c r="D161" t="s">
-        <v>745</v>
       </c>
       <c r="E161" t="s">
         <v>77</v>
       </c>
       <c r="G161" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="H161" s="2" t="s">
         <v>781</v>
-      </c>
-      <c r="H161" s="2" t="s">
-        <v>782</v>
       </c>
       <c r="I161" s="23"/>
     </row>
@@ -7013,19 +7016,19 @@
         <v>2</v>
       </c>
       <c r="C162" s="37" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D162" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E162" t="s">
         <v>77</v>
       </c>
       <c r="G162" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="H162" s="2" t="s">
         <v>783</v>
-      </c>
-      <c r="H162" s="2" t="s">
-        <v>784</v>
       </c>
       <c r="I162" s="23"/>
     </row>
@@ -7037,22 +7040,22 @@
         <v>557</v>
       </c>
       <c r="C163" s="37" t="s">
+        <v>773</v>
+      </c>
+      <c r="D163" t="s">
         <v>774</v>
-      </c>
-      <c r="D163" t="s">
-        <v>775</v>
       </c>
       <c r="E163" t="s">
         <v>74</v>
       </c>
       <c r="F163" s="31" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G163" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="H163" s="2" t="s">
         <v>785</v>
-      </c>
-      <c r="H163" s="2" t="s">
-        <v>786</v>
       </c>
       <c r="I163" s="23"/>
     </row>
@@ -7061,13 +7064,13 @@
         <v>45723</v>
       </c>
       <c r="B164" t="s">
+        <v>767</v>
+      </c>
+      <c r="C164" s="37" t="s">
         <v>768</v>
       </c>
-      <c r="C164" s="37" t="s">
-        <v>769</v>
-      </c>
       <c r="D164" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E164" t="s">
         <v>130</v>
@@ -7082,13 +7085,13 @@
         <v>4</v>
       </c>
       <c r="C165" s="37" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D165" t="s">
         <v>328</v>
       </c>
       <c r="E165" t="s">
-        <v>370</v>
+        <v>179</v>
       </c>
       <c r="I165" s="23"/>
     </row>
@@ -7100,22 +7103,22 @@
         <v>31</v>
       </c>
       <c r="C166" s="37" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D166" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E166" t="s">
         <v>77</v>
       </c>
       <c r="F166" s="31" t="s">
+        <v>793</v>
+      </c>
+      <c r="G166" s="2" t="s">
         <v>794</v>
       </c>
-      <c r="G166" s="2" t="s">
+      <c r="H166" s="2" t="s">
         <v>795</v>
-      </c>
-      <c r="H166" s="2" t="s">
-        <v>796</v>
       </c>
       <c r="I166" s="23"/>
     </row>
@@ -7124,22 +7127,22 @@
         <v>45765</v>
       </c>
       <c r="B167" t="s">
+        <v>761</v>
+      </c>
+      <c r="C167" s="37" t="s">
         <v>762</v>
       </c>
-      <c r="C167" s="37" t="s">
+      <c r="D167" t="s">
         <v>763</v>
-      </c>
-      <c r="D167" t="s">
-        <v>764</v>
       </c>
       <c r="E167" t="s">
         <v>74</v>
       </c>
       <c r="G167" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="H167" s="2" t="s">
         <v>806</v>
-      </c>
-      <c r="H167" s="2" t="s">
-        <v>807</v>
       </c>
       <c r="I167" s="23"/>
     </row>
@@ -7148,22 +7151,22 @@
         <v>45779</v>
       </c>
       <c r="B168" t="s">
+        <v>769</v>
+      </c>
+      <c r="C168" s="37" t="s">
         <v>770</v>
       </c>
-      <c r="C168" s="37" t="s">
-        <v>771</v>
-      </c>
       <c r="D168" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E168" t="s">
         <v>130</v>
       </c>
       <c r="G168" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="H168" s="2" t="s">
         <v>804</v>
-      </c>
-      <c r="H168" s="2" t="s">
-        <v>805</v>
       </c>
       <c r="I168" s="23"/>
     </row>
@@ -7172,22 +7175,22 @@
         <v>45793</v>
       </c>
       <c r="B169" t="s">
+        <v>786</v>
+      </c>
+      <c r="C169" s="37" t="s">
         <v>787</v>
       </c>
-      <c r="C169" s="37" t="s">
+      <c r="D169" t="s">
         <v>788</v>
-      </c>
-      <c r="D169" t="s">
-        <v>789</v>
       </c>
       <c r="E169" t="s">
         <v>74</v>
       </c>
       <c r="G169" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="H169" s="2" t="s">
         <v>802</v>
-      </c>
-      <c r="H169" s="2" t="s">
-        <v>803</v>
       </c>
       <c r="I169" s="23"/>
     </row>
@@ -7199,19 +7202,19 @@
         <v>9</v>
       </c>
       <c r="C170" s="37" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D170" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E170" t="s">
         <v>77</v>
       </c>
       <c r="G170" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="H170" s="2" t="s">
         <v>800</v>
-      </c>
-      <c r="H170" s="2" t="s">
-        <v>801</v>
       </c>
       <c r="I170" s="23"/>
     </row>
@@ -7223,13 +7226,13 @@
         <v>4</v>
       </c>
       <c r="C171" s="37" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D171" t="s">
         <v>610</v>
       </c>
       <c r="E171" t="s">
-        <v>370</v>
+        <v>179</v>
       </c>
       <c r="I171" s="23"/>
     </row>
@@ -7241,10 +7244,10 @@
         <v>65</v>
       </c>
       <c r="C172" s="37" t="s">
+        <v>790</v>
+      </c>
+      <c r="D172" t="s">
         <v>791</v>
-      </c>
-      <c r="D172" t="s">
-        <v>792</v>
       </c>
       <c r="E172" t="s">
         <v>130</v>
@@ -7256,20 +7259,24 @@
         <v>45883</v>
       </c>
       <c r="B173" t="s">
+        <v>796</v>
+      </c>
+      <c r="C173" s="37" t="s">
         <v>797</v>
       </c>
-      <c r="C173" s="37" t="s">
+      <c r="D173" t="s">
         <v>798</v>
       </c>
-      <c r="D173" t="s">
-        <v>799</v>
-      </c>
       <c r="E173" t="s">
-        <v>711</v>
-      </c>
-      <c r="I173" s="23">
-        <v>0.8125</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="H173" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="I173" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>

--- a/alumni_seminars.xlsx
+++ b/alumni_seminars.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minhe/wulibeida79/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A9804C-50B4-4044-BED9-6F5B170627E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{448B2F24-5B4A-4A41-AB39-E510EA7AFDCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2600" yWindow="1760" windowWidth="51200" windowHeight="26600" xr2:uid="{700D315C-D919-4596-880F-1F597F7C3FD0}"/>
+    <workbookView xWindow="2760" yWindow="2700" windowWidth="51200" windowHeight="26600" xr2:uid="{700D315C-D919-4596-880F-1F597F7C3FD0}"/>
   </bookViews>
   <sheets>
     <sheet name="alumni_seminars" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="820">
   <si>
     <t>贺敏</t>
   </si>
@@ -2470,6 +2470,39 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1_w9HYD9vyPPLl-Xk_KdvG_crkdZTZDRn/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>夏南（物理80）</t>
+  </si>
+  <si>
+    <t>一个基于比特币稀缺性的预测模型</t>
+  </si>
+  <si>
+    <t>Upcoming</t>
+  </si>
+  <si>
+    <t>img/bitcoin-prediction.jpg</t>
+  </si>
+  <si>
+    <t>img/life-with-ai.jpg</t>
+  </si>
+  <si>
+    <t>夏南，北京大学物理学士、波士顿大学生物医学工程硕士。曾担任美国上市公司GenRad全球副总裁；后任职于硅谷公司Move.com、MKS等，负责数家企业的兼并和收购；2012年回国后入职中信信托产业基金任副总经理；后加入上海子午投资任合伙人</t>
+  </si>
+  <si>
+    <t>6:30PM</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/13Wq7PklMtPhtKiMcuGkh4l1sOw8NDb0P/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1m8jZizdBQVl6oA8OzNiSH1kW4H--Eea4/view?usp=sharing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forum Discussion: Life with AI: What's new and how we're making it work for us </t>
+  </si>
+  <si>
+    <t>贺敏（Moderator)</t>
   </si>
 </sst>
 </file>
@@ -3060,10 +3093,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{125ED64C-CBBF-451D-8A64-D0747896E26B}">
-  <dimension ref="A1:J173"/>
+  <dimension ref="A1:J175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="F173" sqref="F173"/>
+    <sheetView tabSelected="1" topLeftCell="A123" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="B174" sqref="B174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6984,7 +7017,7 @@
       </c>
       <c r="I160" s="23"/>
     </row>
-    <row r="161" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>45681</v>
       </c>
@@ -7008,7 +7041,7 @@
       </c>
       <c r="I161" s="23"/>
     </row>
-    <row r="162" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>45695</v>
       </c>
@@ -7032,7 +7065,7 @@
       </c>
       <c r="I162" s="23"/>
     </row>
-    <row r="163" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>45709</v>
       </c>
@@ -7059,7 +7092,7 @@
       </c>
       <c r="I163" s="23"/>
     </row>
-    <row r="164" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>45723</v>
       </c>
@@ -7077,7 +7110,7 @@
       </c>
       <c r="I164" s="23"/>
     </row>
-    <row r="165" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>45737</v>
       </c>
@@ -7095,7 +7128,7 @@
       </c>
       <c r="I165" s="23"/>
     </row>
-    <row r="166" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>45751</v>
       </c>
@@ -7122,7 +7155,7 @@
       </c>
       <c r="I166" s="23"/>
     </row>
-    <row r="167" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>45765</v>
       </c>
@@ -7146,7 +7179,7 @@
       </c>
       <c r="I167" s="23"/>
     </row>
-    <row r="168" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>45779</v>
       </c>
@@ -7170,7 +7203,7 @@
       </c>
       <c r="I168" s="23"/>
     </row>
-    <row r="169" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>45793</v>
       </c>
@@ -7194,7 +7227,7 @@
       </c>
       <c r="I169" s="23"/>
     </row>
-    <row r="170" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>45807</v>
       </c>
@@ -7218,7 +7251,7 @@
       </c>
       <c r="I170" s="23"/>
     </row>
-    <row r="171" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>45814</v>
       </c>
@@ -7236,7 +7269,7 @@
       </c>
       <c r="I171" s="23"/>
     </row>
-    <row r="172" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>45821</v>
       </c>
@@ -7254,7 +7287,7 @@
       </c>
       <c r="I172" s="23"/>
     </row>
-    <row r="173" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>45883</v>
       </c>
@@ -7277,6 +7310,53 @@
         <v>808</v>
       </c>
       <c r="I173" s="23"/>
+    </row>
+    <row r="174" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A174" s="1">
+        <v>46339</v>
+      </c>
+      <c r="B174" t="s">
+        <v>819</v>
+      </c>
+      <c r="C174" s="37" t="s">
+        <v>818</v>
+      </c>
+      <c r="D174" t="s">
+        <v>813</v>
+      </c>
+      <c r="E174" t="s">
+        <v>74</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="H174" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="I174" s="23"/>
+    </row>
+    <row r="175" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="A175" s="1">
+        <v>46065</v>
+      </c>
+      <c r="B175" t="s">
+        <v>809</v>
+      </c>
+      <c r="C175" s="37" t="s">
+        <v>810</v>
+      </c>
+      <c r="D175" t="s">
+        <v>812</v>
+      </c>
+      <c r="E175" t="s">
+        <v>811</v>
+      </c>
+      <c r="I175" s="19" t="s">
+        <v>815</v>
+      </c>
+      <c r="J175" s="37" t="s">
+        <v>814</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>
